--- a/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
+++ b/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Construcción BD DI\100 Agricultura\Reportes360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611188B-D736-428F-AF78-E389B61061BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1501F59A-6369-412D-A56D-EB3CAE3DDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="982">
   <si>
     <t>2019/2020</t>
   </si>
@@ -3004,6 +3004,12 @@
   </si>
   <si>
     <t>Visualización</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011010378?ZOHO_CRITERIA=%22Traspuesta%204.16%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011010378?ZOHO_CRITERIA=%22Traspuesta%204.16%22.%22Cod_Categor%C3%ADa%22%3D1</t>
   </si>
 </sst>
 </file>
@@ -3505,27 +3511,7 @@
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3762,6 +3748,16 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9081,23 +9077,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1C79E18-D177-4E64-ADAE-4301621E4E01}" name="Tabla1" displayName="Tabla1" ref="G11:W146" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1C79E18-D177-4E64-ADAE-4301621E4E01}" name="Tabla1" displayName="Tabla1" ref="G11:W146" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="G11:W146" xr:uid="{D1C79E18-D177-4E64-ADAE-4301621E4E01}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{52DDF9DF-FB00-496D-9AB0-0A5A71113E1B}" name="GR" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{28F46588-73B1-4D9D-BFEE-16C46EBF870D}" name="n" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{52DDF9DF-FB00-496D-9AB0-0A5A71113E1B}" name="GR" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{28F46588-73B1-4D9D-BFEE-16C46EBF870D}" name="n" dataDxfId="25">
       <calculatedColumnFormula>+ROW()-11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3B1124C4-8FB5-4879-980F-387AB87EFEA3}" name="Escala" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F72BADF5-2D1A-461A-8BB8-B7DD3AE3A4A0}" name="Territorio" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{DDA865D0-9E20-4D45-BEF7-BF81510749FB}" name="Filtro Int" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{99921A4E-3B4D-4314-8C60-EA5A6B30981C}" name="Variable" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{D77474EA-E571-4311-8157-01C371A4AF74}" name="Filtro URL" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{E28B5308-DE75-4D5C-BA14-D1FE3775199B}" name="Periodo" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{D3217B87-3AB7-40B6-8E11-40ADB19068D6}" name="Variable2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{3B1124C4-8FB5-4879-980F-387AB87EFEA3}" name="Escala" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{F72BADF5-2D1A-461A-8BB8-B7DD3AE3A4A0}" name="Territorio" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{DDA865D0-9E20-4D45-BEF7-BF81510749FB}" name="Filtro Int" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{99921A4E-3B4D-4314-8C60-EA5A6B30981C}" name="Variable" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{D77474EA-E571-4311-8157-01C371A4AF74}" name="Filtro URL" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{E28B5308-DE75-4D5C-BA14-D1FE3775199B}" name="Periodo" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{D3217B87-3AB7-40B6-8E11-40ADB19068D6}" name="Variable2" dataDxfId="18"/>
     <tableColumn id="10" xr3:uid="{7E241738-6F8F-4F8F-AAF4-17C480FD1016}" name="GR's"/>
-    <tableColumn id="11" xr3:uid="{946B3828-9F5F-43DD-B33D-CE1435BCA648}" name="Suscripcion" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{FB0D5226-6C51-45EF-AE01-143C8071E65B}" name="Vistas" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{946B3828-9F5F-43DD-B33D-CE1435BCA648}" name="Suscripcion" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{FB0D5226-6C51-45EF-AE01-143C8071E65B}" name="Vistas" dataDxfId="16"/>
     <tableColumn id="13" xr3:uid="{3AB26F63-FA03-46CC-9253-A53A2DF1B0F6}" name="link 1"/>
     <tableColumn id="14" xr3:uid="{C2BC384C-023D-48A3-BD04-EB9FC30CD9A5}" name="Link 2"/>
     <tableColumn id="15" xr3:uid="{32C94807-476B-4F4C-A99D-742B4523534E}" name="Link 3"/>
@@ -9109,14 +9105,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}" name="Cod_categoría" displayName="Cod_categoría" ref="B2:C111" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="B2:C111" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}" name="Cod_categoría" displayName="Cod_categoría" ref="B2:C111" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="B2:C111" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Arándano"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C115">
     <sortCondition ref="B2:B115"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00A0CACF-8DA8-4EE1-B69E-D20C0D0CED17}" name="Cultivo" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EC636045-613B-42E5-9C90-E988441BFFD8}" name="Id_Cultivo" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00A0CACF-8DA8-4EE1-B69E-D20C0D0CED17}" name="Cultivo" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{EC636045-613B-42E5-9C90-E988441BFFD8}" name="Id_Cultivo" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9139,36 +9141,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}" name="Cod_procesamiento10" displayName="Cod_procesamiento10" ref="B2:C15" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="B2:C15" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}" name="Cod_procesamiento10" displayName="Cod_procesamiento10" ref="B2:C15" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="B2:C15" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Berries"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{DFB3BE9C-F8B5-4C1F-822D-968586718286}" name="Tipo de cultivo" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{A7D9713B-9CA4-4D1C-8E9D-992303A697CD}" name="Id_Categoría" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DFB3BE9C-F8B5-4C1F-822D-968586718286}" name="Tipo de cultivo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A7D9713B-9CA4-4D1C-8E9D-992303A697CD}" name="Id_Categoría" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}" name="Cod_procesamiento" displayName="Cod_procesamiento" ref="B2:C8" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}" name="Cod_procesamiento" displayName="Cod_procesamiento" ref="B2:C8" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B2:C8" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{EE422AE0-5FF5-4FF7-873B-6BC93A7C476F}" name="Procesamiento" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{775A3C91-EDE1-40BA-A829-E5FE120F9D39}" name="Id_Procesamiento" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EE422AE0-5FF5-4FF7-873B-6BC93A7C476F}" name="Procesamiento" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{775A3C91-EDE1-40BA-A829-E5FE120F9D39}" name="Id_Procesamiento" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9DEBE778-257A-4F77-B952-D29267D603FC}" name="Cod_país" displayName="Cod_país" ref="B2:C161" totalsRowShown="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9DEBE778-257A-4F77-B952-D29267D603FC}" name="Cod_país" displayName="Cod_país" ref="B2:C161" totalsRowShown="0" tableBorderDxfId="2">
   <autoFilter ref="B2:C161" xr:uid="{9DEBE778-257A-4F77-B952-D29267D603FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C161">
     <sortCondition ref="B3:B161"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{11154556-49A8-4584-BF27-62A0E30BE082}" name="País de Destino" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{08D23EDC-011A-480F-92F3-73D7B20C32A8}" name="Código_País" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{11154556-49A8-4584-BF27-62A0E30BE082}" name="País de Destino" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{08D23EDC-011A-480F-92F3-73D7B20C32A8}" name="Código_País" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9477,15 +9485,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.90625" customWidth="1"/>
-    <col min="4" max="4" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -9493,7 +9501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -9501,7 +9509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9509,7 +9517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -9517,7 +9525,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -9525,7 +9533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -9533,7 +9541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -9541,7 +9549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -9549,7 +9557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -9557,7 +9565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -9565,7 +9573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9573,7 +9581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -9581,7 +9589,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -9589,7 +9597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -9597,7 +9605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -9605,7 +9613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9613,7 +9621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -9621,7 +9629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -9629,7 +9637,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -9637,7 +9645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -9645,7 +9653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -9653,7 +9661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -9661,7 +9669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -9669,7 +9677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -9677,7 +9685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -9685,7 +9693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -9693,7 +9701,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -9701,7 +9709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -9709,7 +9717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -9717,7 +9725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -9725,7 +9733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -9733,7 +9741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -9741,7 +9749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -9749,7 +9757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -9757,7 +9765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -9765,7 +9773,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -9773,7 +9781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -9781,7 +9789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -9789,7 +9797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -9797,7 +9805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -9805,7 +9813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -9813,7 +9821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -9821,7 +9829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -9829,7 +9837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -9837,7 +9845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -9845,7 +9853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -9853,7 +9861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -9870,38 +9878,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79036886-1897-4BCD-BB4E-BCAD8551FFA8}">
   <dimension ref="B1:W147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD152"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" customWidth="1"/>
-    <col min="2" max="2" width="33.36328125" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.36328125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.54296875" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="85.54296875" customWidth="1"/>
-    <col min="16" max="16" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="85.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="48.1796875" customWidth="1"/>
-    <col min="22" max="22" width="18.08984375" customWidth="1"/>
-    <col min="23" max="23" width="36.6328125" customWidth="1"/>
+    <col min="19" max="19" width="48.140625" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" customWidth="1"/>
+    <col min="23" max="23" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
         <v>945</v>
       </c>
@@ -9910,7 +9918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>171</v>
       </c>
@@ -9921,7 +9929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>172</v>
       </c>
@@ -9932,7 +9940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>173</v>
       </c>
@@ -9943,7 +9951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
         <v>18</v>
       </c>
@@ -9951,7 +9959,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
         <v>177</v>
       </c>
@@ -9959,7 +9967,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
         <v>70</v>
       </c>
@@ -9967,7 +9975,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>69</v>
       </c>
@@ -9975,13 +9983,13 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
         <v>181</v>
       </c>
       <c r="C9" s="66"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
         <v>621</v>
       </c>
@@ -9999,7 +10007,7 @@
         <v>6718</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
@@ -10052,7 +10060,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="G12" s="20" t="s">
         <v>72</v>
@@ -10090,7 +10098,9 @@
       <c r="R12" s="48">
         <v>1</v>
       </c>
-      <c r="S12" s="15"/>
+      <c r="S12" s="15" t="s">
+        <v>980</v>
+      </c>
       <c r="V12" t="s">
         <v>949</v>
       </c>
@@ -10098,7 +10108,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="G13" s="20" t="s">
         <v>73</v>
@@ -10144,7 +10154,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G14" s="20" t="s">
         <v>74</v>
       </c>
@@ -10189,7 +10199,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G15" s="20" t="s">
         <v>75</v>
       </c>
@@ -10226,7 +10236,9 @@
       <c r="R15" s="48">
         <v>7</v>
       </c>
-      <c r="S15" s="15"/>
+      <c r="S15" s="15" t="s">
+        <v>981</v>
+      </c>
       <c r="V15" t="s">
         <v>949</v>
       </c>
@@ -10234,7 +10246,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G16" s="20" t="s">
         <v>76</v>
       </c>
@@ -10279,7 +10291,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G17" s="20" t="s">
         <v>77</v>
       </c>
@@ -10324,7 +10336,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G18" s="20" t="s">
         <v>78</v>
       </c>
@@ -10369,7 +10381,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G19" s="20" t="s">
         <v>79</v>
       </c>
@@ -10414,7 +10426,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G20" s="20" t="s">
         <v>80</v>
       </c>
@@ -10459,7 +10471,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G21" s="20" t="s">
         <v>81</v>
       </c>
@@ -10504,7 +10516,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G22" s="20" t="s">
         <v>82</v>
       </c>
@@ -10549,7 +10561,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G23" s="20" t="s">
         <v>83</v>
       </c>
@@ -10594,7 +10606,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G24" s="20" t="s">
         <v>84</v>
       </c>
@@ -10639,7 +10651,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G25" s="20" t="s">
         <v>85</v>
       </c>
@@ -10684,7 +10696,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G26" s="20" t="s">
         <v>86</v>
       </c>
@@ -10729,7 +10741,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G27" s="20" t="s">
         <v>87</v>
       </c>
@@ -10774,7 +10786,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G28" s="20" t="s">
         <v>88</v>
       </c>
@@ -10819,7 +10831,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G29" s="20" t="s">
         <v>89</v>
       </c>
@@ -10864,7 +10876,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G30" s="20" t="s">
         <v>90</v>
       </c>
@@ -10909,7 +10921,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -10957,7 +10969,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -11005,7 +11017,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -11053,7 +11065,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -11101,7 +11113,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -11149,7 +11161,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -11197,7 +11209,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -11245,7 +11257,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -11293,7 +11305,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -11341,7 +11353,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -11389,7 +11401,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -11437,7 +11449,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -11485,7 +11497,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -11533,7 +11545,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -11581,7 +11593,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11629,7 +11641,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -11677,7 +11689,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -11725,7 +11737,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -11773,7 +11785,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -11821,7 +11833,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -11869,7 +11881,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -11917,7 +11929,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -11965,7 +11977,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="16"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -12013,7 +12025,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G54" s="20" t="s">
         <v>114</v>
       </c>
@@ -12058,7 +12070,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G55" s="20" t="s">
         <v>115</v>
       </c>
@@ -12103,7 +12115,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G56" s="20" t="s">
         <v>116</v>
       </c>
@@ -12147,7 +12159,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G57" s="20" t="s">
         <v>117</v>
       </c>
@@ -12192,7 +12204,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G58" s="20" t="s">
         <v>118</v>
       </c>
@@ -12237,7 +12249,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G59" s="20" t="s">
         <v>119</v>
       </c>
@@ -12282,7 +12294,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G60" s="20" t="s">
         <v>120</v>
       </c>
@@ -12326,7 +12338,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G61" s="20" t="s">
         <v>121</v>
       </c>
@@ -12370,7 +12382,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G62" s="20" t="s">
         <v>122</v>
       </c>
@@ -12414,7 +12426,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G63" s="20" t="s">
         <v>123</v>
       </c>
@@ -12458,7 +12470,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G64" s="20" t="s">
         <v>124</v>
       </c>
@@ -12502,7 +12514,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="65" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="7:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G65" s="20" t="s">
         <v>125</v>
       </c>
@@ -12547,7 +12559,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="66" spans="7:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G66" s="20" t="s">
         <v>126</v>
       </c>
@@ -12591,7 +12603,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="67" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G67" s="20" t="s">
         <v>127</v>
       </c>
@@ -12636,7 +12648,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="68" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G68" s="20" t="s">
         <v>128</v>
       </c>
@@ -12680,7 +12692,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="69" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G69" s="20" t="s">
         <v>129</v>
       </c>
@@ -12724,7 +12736,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="70" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G70" s="20" t="s">
         <v>130</v>
       </c>
@@ -12769,7 +12781,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="71" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G71" s="20" t="s">
         <v>131</v>
       </c>
@@ -12813,7 +12825,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="72" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G72" s="20" t="s">
         <v>132</v>
       </c>
@@ -12857,7 +12869,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="73" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G73" s="20" t="s">
         <v>133</v>
       </c>
@@ -12901,7 +12913,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="74" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G74" s="20" t="s">
         <v>134</v>
       </c>
@@ -12945,7 +12957,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="75" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G75" s="20" t="s">
         <v>135</v>
       </c>
@@ -12989,7 +13001,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="76" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G76" s="20" t="s">
         <v>136</v>
       </c>
@@ -13033,7 +13045,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="77" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G77" s="20" t="s">
         <v>137</v>
       </c>
@@ -13077,7 +13089,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="78" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G78" s="20" t="s">
         <v>138</v>
       </c>
@@ -13121,7 +13133,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="79" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G79" s="20" t="s">
         <v>139</v>
       </c>
@@ -13165,7 +13177,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="80" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G80" s="20" t="s">
         <v>140</v>
       </c>
@@ -13209,7 +13221,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="81" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G81" s="20" t="s">
         <v>141</v>
       </c>
@@ -13253,7 +13265,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="82" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G82" s="20" t="s">
         <v>142</v>
       </c>
@@ -13297,7 +13309,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="83" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G83" s="20" t="s">
         <v>143</v>
       </c>
@@ -13341,7 +13353,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="84" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G84" s="20" t="s">
         <v>144</v>
       </c>
@@ -13385,7 +13397,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="85" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G85" s="20" t="s">
         <v>145</v>
       </c>
@@ -13429,7 +13441,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="86" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G86" s="20" t="s">
         <v>146</v>
       </c>
@@ -13473,7 +13485,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="87" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G87" s="20" t="s">
         <v>147</v>
       </c>
@@ -13517,7 +13529,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="88" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G88" s="20" t="s">
         <v>148</v>
       </c>
@@ -13561,7 +13573,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="89" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G89" s="20" t="s">
         <v>149</v>
       </c>
@@ -13605,7 +13617,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="90" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G90" s="20" t="s">
         <v>150</v>
       </c>
@@ -13649,7 +13661,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="91" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G91" s="20" t="s">
         <v>151</v>
       </c>
@@ -13693,7 +13705,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="92" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="7:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G92" s="20" t="s">
         <v>152</v>
       </c>
@@ -13737,7 +13749,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="93" spans="7:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="7:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G93" s="20" t="s">
         <v>153</v>
       </c>
@@ -13781,7 +13793,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="94" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G94" s="20" t="s">
         <v>154</v>
       </c>
@@ -13825,7 +13837,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="95" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G95" s="20" t="s">
         <v>155</v>
       </c>
@@ -13869,7 +13881,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="96" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G96" s="20" t="s">
         <v>156</v>
       </c>
@@ -13913,7 +13925,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="97" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G97" s="20" t="s">
         <v>157</v>
       </c>
@@ -13957,7 +13969,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="98" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G98" s="20" t="s">
         <v>158</v>
       </c>
@@ -14001,7 +14013,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="99" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G99" s="20" t="s">
         <v>159</v>
       </c>
@@ -14045,7 +14057,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="100" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G100" s="20" t="s">
         <v>160</v>
       </c>
@@ -14089,7 +14101,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="101" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G101" s="20" t="s">
         <v>161</v>
       </c>
@@ -14133,7 +14145,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="102" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G102" s="20" t="s">
         <v>162</v>
       </c>
@@ -14177,7 +14189,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="103" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G103" s="20" t="s">
         <v>163</v>
       </c>
@@ -14221,7 +14233,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="104" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G104" s="20" t="s">
         <v>164</v>
       </c>
@@ -14265,7 +14277,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="105" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G105" s="20" t="s">
         <v>165</v>
       </c>
@@ -14309,7 +14321,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="106" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G106" s="20" t="s">
         <v>166</v>
       </c>
@@ -14353,7 +14365,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="107" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G107" s="20" t="s">
         <v>167</v>
       </c>
@@ -14397,7 +14409,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="108" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G108" s="20" t="s">
         <v>168</v>
       </c>
@@ -14441,7 +14453,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="109" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G109" s="20" t="s">
         <v>169</v>
       </c>
@@ -14485,7 +14497,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="110" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G110" s="20" t="s">
         <v>170</v>
       </c>
@@ -14529,7 +14541,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="111" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G111" s="20" t="s">
         <v>936</v>
       </c>
@@ -14573,7 +14585,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="112" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G112" s="20" t="s">
         <v>937</v>
       </c>
@@ -14617,7 +14629,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="113" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G113" s="20" t="s">
         <v>938</v>
       </c>
@@ -14661,7 +14673,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="114" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G114" s="20" t="s">
         <v>939</v>
       </c>
@@ -14705,7 +14717,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="115" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G115" s="20" t="s">
         <v>940</v>
       </c>
@@ -14749,7 +14761,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="116" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G116" s="20" t="s">
         <v>941</v>
       </c>
@@ -14793,7 +14805,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="117" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G117" s="20" t="s">
         <v>942</v>
       </c>
@@ -14837,7 +14849,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="118" spans="7:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="7:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G118" s="20" t="s">
         <v>943</v>
       </c>
@@ -14881,7 +14893,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="119" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="7:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G119" s="20" t="s">
         <v>944</v>
       </c>
@@ -14925,7 +14937,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="120" spans="7:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="7:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G120" s="20" t="s">
         <v>951</v>
       </c>
@@ -14969,7 +14981,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="121" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G121" s="20" t="s">
         <v>952</v>
       </c>
@@ -15013,7 +15025,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="122" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G122" s="20" t="s">
         <v>953</v>
       </c>
@@ -15057,7 +15069,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="123" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G123" s="20" t="s">
         <v>954</v>
       </c>
@@ -15101,7 +15113,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="124" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G124" s="20" t="s">
         <v>955</v>
       </c>
@@ -15145,7 +15157,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="125" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G125" s="20" t="s">
         <v>956</v>
       </c>
@@ -15189,7 +15201,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="126" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G126" s="20" t="s">
         <v>957</v>
       </c>
@@ -15233,7 +15245,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="127" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G127" s="20" t="s">
         <v>958</v>
       </c>
@@ -15277,7 +15289,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="128" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="128" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G128" s="20" t="s">
         <v>959</v>
       </c>
@@ -15321,7 +15333,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="129" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G129" s="20" t="s">
         <v>960</v>
       </c>
@@ -15365,7 +15377,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="130" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G130" s="20" t="s">
         <v>961</v>
       </c>
@@ -15409,7 +15421,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="131" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G131" s="20" t="s">
         <v>962</v>
       </c>
@@ -15453,7 +15465,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="132" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G132" s="20" t="s">
         <v>963</v>
       </c>
@@ -15497,7 +15509,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="133" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G133" s="20" t="s">
         <v>964</v>
       </c>
@@ -15541,7 +15553,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="134" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="134" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G134" s="20" t="s">
         <v>965</v>
       </c>
@@ -15585,7 +15597,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="135" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="135" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G135" s="20" t="s">
         <v>966</v>
       </c>
@@ -15629,7 +15641,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="136" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="136" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G136" s="20" t="s">
         <v>967</v>
       </c>
@@ -15673,7 +15685,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="137" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="137" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G137" s="20" t="s">
         <v>968</v>
       </c>
@@ -15717,7 +15729,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="138" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="138" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G138" s="20" t="s">
         <v>969</v>
       </c>
@@ -15761,7 +15773,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="139" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="139" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G139" s="78" t="s">
         <v>970</v>
       </c>
@@ -15805,7 +15817,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="140" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="7:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G140" s="38" t="s">
         <v>971</v>
       </c>
@@ -15852,7 +15864,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="141" spans="7:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="7:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G141" s="20" t="s">
         <v>972</v>
       </c>
@@ -15899,7 +15911,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="142" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="142" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G142" s="20" t="s">
         <v>973</v>
       </c>
@@ -15946,7 +15958,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="143" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="143" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G143" s="20" t="s">
         <v>974</v>
       </c>
@@ -15993,7 +16005,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="144" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="144" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G144" s="20" t="s">
         <v>975</v>
       </c>
@@ -16040,7 +16052,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="145" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G145" s="20" t="s">
         <v>976</v>
       </c>
@@ -16087,7 +16099,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="146" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="7:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G146" s="38" t="s">
         <v>977</v>
       </c>
@@ -16134,7 +16146,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="147" spans="7:23" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="147" spans="7:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16158,21 +16170,21 @@
   <dimension ref="B2:L251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>70</v>
       </c>
@@ -16201,7 +16213,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>187</v>
       </c>
@@ -16230,7 +16242,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>217</v>
       </c>
@@ -16259,7 +16271,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>188</v>
       </c>
@@ -16288,7 +16300,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>185</v>
       </c>
@@ -16317,7 +16329,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>189</v>
       </c>
@@ -16346,7 +16358,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>190</v>
       </c>
@@ -16375,7 +16387,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>186</v>
       </c>
@@ -16404,7 +16416,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>191</v>
       </c>
@@ -16433,7 +16445,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>183</v>
       </c>
@@ -16462,7 +16474,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>218</v>
       </c>
@@ -16491,7 +16503,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>219</v>
       </c>
@@ -16520,7 +16532,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
         <v>192</v>
       </c>
@@ -16549,7 +16561,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>220</v>
       </c>
@@ -16578,7 +16590,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
         <v>193</v>
       </c>
@@ -16607,7 +16619,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>221</v>
       </c>
@@ -16636,7 +16648,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
         <v>194</v>
       </c>
@@ -16665,7 +16677,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
         <v>195</v>
       </c>
@@ -16694,7 +16706,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>222</v>
       </c>
@@ -16723,7 +16735,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
         <v>196</v>
       </c>
@@ -16752,7 +16764,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>197</v>
       </c>
@@ -16781,7 +16793,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
         <v>198</v>
       </c>
@@ -16810,7 +16822,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>223</v>
       </c>
@@ -16839,7 +16851,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>199</v>
       </c>
@@ -16868,7 +16880,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
         <v>200</v>
       </c>
@@ -16897,7 +16909,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
         <v>224</v>
       </c>
@@ -16926,7 +16938,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>201</v>
       </c>
@@ -16955,7 +16967,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>225</v>
       </c>
@@ -16984,7 +16996,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
         <v>202</v>
       </c>
@@ -17013,7 +17025,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
         <v>203</v>
       </c>
@@ -17042,7 +17054,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
         <v>204</v>
       </c>
@@ -17071,7 +17083,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
         <v>226</v>
       </c>
@@ -17100,7 +17112,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
         <v>205</v>
       </c>
@@ -17129,7 +17141,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
         <v>206</v>
       </c>
@@ -17158,7 +17170,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="25" t="s">
         <v>207</v>
       </c>
@@ -17187,7 +17199,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
         <v>208</v>
       </c>
@@ -17216,7 +17228,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="25" t="s">
         <v>209</v>
       </c>
@@ -17245,7 +17257,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>210</v>
       </c>
@@ -17274,7 +17286,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>211</v>
       </c>
@@ -17303,7 +17315,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
         <v>212</v>
       </c>
@@ -17332,7 +17344,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="25" t="s">
         <v>213</v>
       </c>
@@ -17361,7 +17373,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="25" t="s">
         <v>214</v>
       </c>
@@ -17390,7 +17402,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>215</v>
       </c>
@@ -17419,7 +17431,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="25" t="s">
         <v>216</v>
       </c>
@@ -17448,7 +17460,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
         <v>228</v>
       </c>
@@ -17477,7 +17489,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>229</v>
       </c>
@@ -17506,7 +17518,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>230</v>
       </c>
@@ -17535,7 +17547,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
         <v>231</v>
       </c>
@@ -17564,7 +17576,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
         <v>232</v>
       </c>
@@ -17593,7 +17605,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>233</v>
       </c>
@@ -17622,7 +17634,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
         <v>234</v>
       </c>
@@ -17651,7 +17663,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="25" t="s">
         <v>235</v>
       </c>
@@ -17680,7 +17692,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
         <v>236</v>
       </c>
@@ -17709,7 +17721,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="25" t="s">
         <v>237</v>
       </c>
@@ -17738,7 +17750,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
         <v>238</v>
       </c>
@@ -17767,7 +17779,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="25" t="s">
         <v>239</v>
       </c>
@@ -17796,7 +17808,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>240</v>
       </c>
@@ -17825,7 +17837,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="25" t="s">
         <v>241</v>
       </c>
@@ -17854,7 +17866,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="25" t="s">
         <v>242</v>
       </c>
@@ -17883,7 +17895,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
         <v>243</v>
       </c>
@@ -17912,7 +17924,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="25" t="s">
         <v>244</v>
       </c>
@@ -17941,7 +17953,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="25" t="s">
         <v>245</v>
       </c>
@@ -17970,7 +17982,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="25" t="s">
         <v>246</v>
       </c>
@@ -17999,7 +18011,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="25" t="s">
         <v>247</v>
       </c>
@@ -18028,7 +18040,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="25" t="s">
         <v>248</v>
       </c>
@@ -18057,7 +18069,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="31" t="s">
         <v>249</v>
       </c>
@@ -18086,7 +18098,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="25" t="s">
         <v>250</v>
       </c>
@@ -18115,7 +18127,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="25" t="s">
         <v>251</v>
       </c>
@@ -18144,7 +18156,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="25" t="s">
         <v>184</v>
       </c>
@@ -18173,7 +18185,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="31" t="s">
         <v>252</v>
       </c>
@@ -18202,7 +18214,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="s">
         <v>253</v>
       </c>
@@ -18231,7 +18243,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="25" t="s">
         <v>254</v>
       </c>
@@ -18260,7 +18272,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="31" t="s">
         <v>255</v>
       </c>
@@ -18289,7 +18301,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="31" t="s">
         <v>256</v>
       </c>
@@ -18318,7 +18330,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
         <v>257</v>
       </c>
@@ -18347,7 +18359,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="31" t="s">
         <v>258</v>
       </c>
@@ -18376,7 +18388,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="31" t="s">
         <v>259</v>
       </c>
@@ -18405,7 +18417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
         <v>260</v>
       </c>
@@ -18434,7 +18446,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="28" t="s">
         <v>261</v>
       </c>
@@ -18463,7 +18475,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>262</v>
       </c>
@@ -18492,7 +18504,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="31" t="s">
         <v>263</v>
       </c>
@@ -18521,7 +18533,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="25" t="s">
         <v>264</v>
       </c>
@@ -18550,7 +18562,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="25" t="s">
         <v>265</v>
       </c>
@@ -18579,7 +18591,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="25" t="s">
         <v>266</v>
       </c>
@@ -18608,7 +18620,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
         <v>267</v>
       </c>
@@ -18637,7 +18649,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="25" t="s">
         <v>268</v>
       </c>
@@ -18666,7 +18678,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="28" t="s">
         <v>269</v>
       </c>
@@ -18695,7 +18707,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="25" t="s">
         <v>270</v>
       </c>
@@ -18724,7 +18736,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="25" t="s">
         <v>271</v>
       </c>
@@ -18753,7 +18765,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="25" t="s">
         <v>272</v>
       </c>
@@ -18782,7 +18794,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="25" t="s">
         <v>273</v>
       </c>
@@ -18811,7 +18823,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="25" t="s">
         <v>582</v>
       </c>
@@ -18840,7 +18852,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="25" t="s">
         <v>274</v>
       </c>
@@ -18869,7 +18881,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="25" t="s">
         <v>275</v>
       </c>
@@ -18898,7 +18910,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="25" t="s">
         <v>330</v>
       </c>
@@ -18927,7 +18939,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="25" t="s">
         <v>276</v>
       </c>
@@ -18956,7 +18968,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="25" t="s">
         <v>338</v>
       </c>
@@ -18985,7 +18997,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="31" t="s">
         <v>277</v>
       </c>
@@ -19014,7 +19026,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="31" t="s">
         <v>278</v>
       </c>
@@ -19043,7 +19055,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="31" t="s">
         <v>279</v>
       </c>
@@ -19072,7 +19084,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="25" t="s">
         <v>280</v>
       </c>
@@ -19101,7 +19113,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="25" t="s">
         <v>281</v>
       </c>
@@ -19130,7 +19142,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="25" t="s">
         <v>282</v>
       </c>
@@ -19159,7 +19171,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="31" t="s">
         <v>283</v>
       </c>
@@ -19188,7 +19200,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="31" t="s">
         <v>284</v>
       </c>
@@ -19217,7 +19229,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="25" t="s">
         <v>285</v>
       </c>
@@ -19246,7 +19258,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="28" t="s">
         <v>286</v>
       </c>
@@ -19275,7 +19287,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="25" t="s">
         <v>287</v>
       </c>
@@ -19304,7 +19316,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="25" t="s">
         <v>288</v>
       </c>
@@ -19333,7 +19345,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="25" t="s">
         <v>289</v>
       </c>
@@ -19362,7 +19374,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="F112" s="22" t="s">
@@ -19387,7 +19399,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="113" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F113" s="22" t="s">
         <v>441</v>
       </c>
@@ -19410,7 +19422,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F114" s="22" t="s">
         <v>442</v>
       </c>
@@ -19433,7 +19445,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="115" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F115" s="22" t="s">
         <v>444</v>
       </c>
@@ -19456,7 +19468,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="116" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F116" s="22" t="s">
         <v>445</v>
       </c>
@@ -19479,7 +19491,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="117" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F117" s="22" t="s">
         <v>447</v>
       </c>
@@ -19502,7 +19514,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="118" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F118" s="22" t="s">
         <v>449</v>
       </c>
@@ -19525,7 +19537,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="119" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F119" s="22" t="s">
         <v>451</v>
       </c>
@@ -19548,7 +19560,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F120" s="22" t="s">
         <v>452</v>
       </c>
@@ -19571,7 +19583,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="121" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F121" s="22" t="s">
         <v>453</v>
       </c>
@@ -19594,7 +19606,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F122" s="22" t="s">
         <v>454</v>
       </c>
@@ -19617,7 +19629,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F123" s="22" t="s">
         <v>455</v>
       </c>
@@ -19640,7 +19652,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="124" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F124" s="22" t="s">
         <v>456</v>
       </c>
@@ -19663,7 +19675,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="125" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F125" s="22" t="s">
         <v>459</v>
       </c>
@@ -19686,7 +19698,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="126" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F126" s="22" t="s">
         <v>460</v>
       </c>
@@ -19709,7 +19721,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="127" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F127" s="22" t="s">
         <v>462</v>
       </c>
@@ -19732,7 +19744,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="128" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F128" s="22" t="s">
         <v>463</v>
       </c>
@@ -19755,7 +19767,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="129" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F129" s="22" t="s">
         <v>464</v>
       </c>
@@ -19778,7 +19790,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F130" s="22" t="s">
         <v>465</v>
       </c>
@@ -19801,7 +19813,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="131" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F131" s="22" t="s">
         <v>467</v>
       </c>
@@ -19824,7 +19836,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="132" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F132" s="22" t="s">
         <v>468</v>
       </c>
@@ -19847,7 +19859,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F133" s="22" t="s">
         <v>469</v>
       </c>
@@ -19870,7 +19882,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="134" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F134" s="22" t="s">
         <v>470</v>
       </c>
@@ -19893,7 +19905,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="135" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F135" s="22" t="s">
         <v>471</v>
       </c>
@@ -19916,7 +19928,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="136" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F136" s="22" t="s">
         <v>472</v>
       </c>
@@ -19939,7 +19951,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="137" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F137" s="22" t="s">
         <v>473</v>
       </c>
@@ -19962,7 +19974,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F138" s="22" t="s">
         <v>474</v>
       </c>
@@ -19985,7 +19997,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="139" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F139" s="22" t="s">
         <v>475</v>
       </c>
@@ -20008,7 +20020,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="140" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F140" s="22" t="s">
         <v>477</v>
       </c>
@@ -20031,7 +20043,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="141" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F141" s="22" t="s">
         <v>478</v>
       </c>
@@ -20054,7 +20066,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="142" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F142" s="22" t="s">
         <v>480</v>
       </c>
@@ -20077,7 +20089,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="143" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F143" s="22" t="s">
         <v>481</v>
       </c>
@@ -20100,7 +20112,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="144" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F144" s="22" t="s">
         <v>483</v>
       </c>
@@ -20123,7 +20135,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="145" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F145" s="22" t="s">
         <v>484</v>
       </c>
@@ -20146,7 +20158,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="146" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F146" s="22" t="s">
         <v>486</v>
       </c>
@@ -20169,7 +20181,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="147" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F147" s="22" t="s">
         <v>487</v>
       </c>
@@ -20192,7 +20204,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="148" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F148" s="22" t="s">
         <v>489</v>
       </c>
@@ -20215,7 +20227,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="149" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F149" s="22" t="s">
         <v>490</v>
       </c>
@@ -20238,7 +20250,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="150" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F150" s="22" t="s">
         <v>492</v>
       </c>
@@ -20261,7 +20273,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="151" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F151" s="22" t="s">
         <v>493</v>
       </c>
@@ -20284,7 +20296,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="152" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F152" s="22" t="s">
         <v>495</v>
       </c>
@@ -20307,7 +20319,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="153" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F153" s="22" t="s">
         <v>496</v>
       </c>
@@ -20330,7 +20342,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="154" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F154" s="22" t="s">
         <v>498</v>
       </c>
@@ -20353,7 +20365,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="155" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F155" s="22" t="s">
         <v>499</v>
       </c>
@@ -20376,7 +20388,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F156" s="22" t="s">
         <v>500</v>
       </c>
@@ -20399,7 +20411,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F157" s="22" t="s">
         <v>501</v>
       </c>
@@ -20422,7 +20434,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="158" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F158" s="22" t="s">
         <v>502</v>
       </c>
@@ -20445,7 +20457,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F159" s="22" t="s">
         <v>503</v>
       </c>
@@ -20468,7 +20480,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="160" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F160" s="22" t="s">
         <v>505</v>
       </c>
@@ -20491,7 +20503,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F161" s="22" t="s">
         <v>506</v>
       </c>
@@ -20514,7 +20526,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="162" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F162" s="22" t="s">
         <v>507</v>
       </c>
@@ -20537,7 +20549,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="163" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F163" s="22" t="s">
         <v>510</v>
       </c>
@@ -20560,7 +20572,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="164" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F164" s="22" t="s">
         <v>512</v>
       </c>
@@ -20583,7 +20595,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="165" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F165" s="22" t="s">
         <v>513</v>
       </c>
@@ -20606,7 +20618,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="166" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F166" s="22" t="s">
         <v>515</v>
       </c>
@@ -20629,7 +20641,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="167" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F167" s="22" t="s">
         <v>517</v>
       </c>
@@ -20652,7 +20664,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="168" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F168" s="22" t="s">
         <v>518</v>
       </c>
@@ -20675,7 +20687,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="169" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F169" s="22" t="s">
         <v>520</v>
       </c>
@@ -20698,7 +20710,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="170" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F170" s="22" t="s">
         <v>521</v>
       </c>
@@ -20721,7 +20733,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F171" s="22" t="s">
         <v>523</v>
       </c>
@@ -20744,7 +20756,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F172" s="22" t="s">
         <v>524</v>
       </c>
@@ -20767,7 +20779,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="173" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F173" s="22" t="s">
         <v>526</v>
       </c>
@@ -20790,7 +20802,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="174" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F174" s="22" t="s">
         <v>527</v>
       </c>
@@ -20813,7 +20825,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="175" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F175" s="22" t="s">
         <v>528</v>
       </c>
@@ -20836,7 +20848,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="176" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F176" s="22" t="s">
         <v>530</v>
       </c>
@@ -20859,7 +20871,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="177" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F177" s="22" t="s">
         <v>532</v>
       </c>
@@ -20882,7 +20894,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F178" s="22" t="s">
         <v>534</v>
       </c>
@@ -20905,7 +20917,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="179" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F179" s="22" t="s">
         <v>536</v>
       </c>
@@ -20928,7 +20940,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="180" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F180" s="22" t="s">
         <v>538</v>
       </c>
@@ -20951,7 +20963,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="181" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F181" s="22" t="s">
         <v>540</v>
       </c>
@@ -20974,7 +20986,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="182" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F182" s="22" t="s">
         <v>542</v>
       </c>
@@ -20997,7 +21009,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F183" s="22" t="s">
         <v>543</v>
       </c>
@@ -21020,7 +21032,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="184" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F184" s="22" t="s">
         <v>544</v>
       </c>
@@ -21043,7 +21055,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="185" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F185" s="22" t="s">
         <v>546</v>
       </c>
@@ -21066,7 +21078,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="186" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F186" s="22" t="s">
         <v>548</v>
       </c>
@@ -21089,7 +21101,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="187" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F187" s="22" t="s">
         <v>549</v>
       </c>
@@ -21112,7 +21124,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="188" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F188" s="22" t="s">
         <v>551</v>
       </c>
@@ -21135,7 +21147,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="189" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F189" s="22" t="s">
         <v>552</v>
       </c>
@@ -21158,7 +21170,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="190" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F190" s="22" t="s">
         <v>553</v>
       </c>
@@ -21181,7 +21193,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F191" s="22" t="s">
         <v>554</v>
       </c>
@@ -21204,7 +21216,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="192" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F192" s="22" t="s">
         <v>555</v>
       </c>
@@ -21227,7 +21239,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="193" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F193" s="22" t="s">
         <v>556</v>
       </c>
@@ -21250,7 +21262,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="194" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F194" s="22" t="s">
         <v>557</v>
       </c>
@@ -21273,7 +21285,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="195" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F195" s="22" t="s">
         <v>558</v>
       </c>
@@ -21296,7 +21308,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="196" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F196" s="22" t="s">
         <v>560</v>
       </c>
@@ -21319,7 +21331,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="197" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F197" s="22" t="s">
         <v>561</v>
       </c>
@@ -21342,7 +21354,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="198" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F198" s="22" t="s">
         <v>562</v>
       </c>
@@ -21365,7 +21377,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="199" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F199" s="22" t="s">
         <v>563</v>
       </c>
@@ -21388,7 +21400,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="200" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F200" s="22" t="s">
         <v>564</v>
       </c>
@@ -21411,7 +21423,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="201" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F201" s="22" t="s">
         <v>565</v>
       </c>
@@ -21434,7 +21446,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="202" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F202" s="22" t="s">
         <v>566</v>
       </c>
@@ -21457,7 +21469,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="203" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F203" s="22" t="s">
         <v>567</v>
       </c>
@@ -21480,7 +21492,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="204" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F204" s="22" t="s">
         <v>568</v>
       </c>
@@ -21503,7 +21515,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="205" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F205" s="22" t="s">
         <v>569</v>
       </c>
@@ -21526,7 +21538,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="206" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F206" s="22" t="s">
         <v>570</v>
       </c>
@@ -21549,7 +21561,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="207" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F207" s="22" t="s">
         <v>571</v>
       </c>
@@ -21572,7 +21584,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="208" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F208" s="22" t="s">
         <v>572</v>
       </c>
@@ -21595,7 +21607,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="209" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F209" s="22" t="s">
         <v>573</v>
       </c>
@@ -21618,7 +21630,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="210" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F210" s="22" t="s">
         <v>576</v>
       </c>
@@ -21641,7 +21653,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="211" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F211" s="22" t="s">
         <v>577</v>
       </c>
@@ -21664,7 +21676,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="212" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F212" s="22" t="s">
         <v>578</v>
       </c>
@@ -21687,7 +21699,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="213" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F213" s="22" t="s">
         <v>580</v>
       </c>
@@ -21710,7 +21722,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="214" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F214" s="22" t="s">
         <v>581</v>
       </c>
@@ -21733,7 +21745,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="215" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F215" s="22" t="s">
         <v>583</v>
       </c>
@@ -21756,7 +21768,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="216" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F216" s="22" t="s">
         <v>584</v>
       </c>
@@ -21779,7 +21791,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="217" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F217" s="22" t="s">
         <v>585</v>
       </c>
@@ -21802,7 +21814,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="218" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F218" s="22" t="s">
         <v>586</v>
       </c>
@@ -21825,7 +21837,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="219" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F219" s="22" t="s">
         <v>587</v>
       </c>
@@ -21848,7 +21860,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="220" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F220" s="22" t="s">
         <v>588</v>
       </c>
@@ -21871,7 +21883,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="221" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F221" s="22" t="s">
         <v>589</v>
       </c>
@@ -21894,7 +21906,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="222" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F222" s="22" t="s">
         <v>590</v>
       </c>
@@ -21917,7 +21929,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="223" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F223" s="22" t="s">
         <v>591</v>
       </c>
@@ -21940,7 +21952,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="224" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F224" s="22" t="s">
         <v>592</v>
       </c>
@@ -21963,7 +21975,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="225" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F225" s="22" t="s">
         <v>593</v>
       </c>
@@ -21986,7 +21998,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="226" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F226" s="22" t="s">
         <v>594</v>
       </c>
@@ -22009,7 +22021,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="227" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F227" s="22" t="s">
         <v>595</v>
       </c>
@@ -22032,7 +22044,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="228" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F228" s="22" t="s">
         <v>596</v>
       </c>
@@ -22055,7 +22067,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="229" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F229" s="22" t="s">
         <v>597</v>
       </c>
@@ -22078,7 +22090,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="230" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F230" s="22" t="s">
         <v>598</v>
       </c>
@@ -22101,7 +22113,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="231" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F231" s="22" t="s">
         <v>599</v>
       </c>
@@ -22124,7 +22136,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="232" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F232" s="22" t="s">
         <v>600</v>
       </c>
@@ -22147,7 +22159,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="233" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F233" s="22" t="s">
         <v>601</v>
       </c>
@@ -22170,7 +22182,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="234" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F234" s="22" t="s">
         <v>602</v>
       </c>
@@ -22193,7 +22205,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="235" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F235" s="22" t="s">
         <v>603</v>
       </c>
@@ -22216,7 +22228,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="236" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F236" s="22" t="s">
         <v>604</v>
       </c>
@@ -22239,7 +22251,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="237" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F237" s="22" t="s">
         <v>605</v>
       </c>
@@ -22262,7 +22274,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="238" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F238" s="22" t="s">
         <v>606</v>
       </c>
@@ -22285,7 +22297,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="239" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F239" s="22" t="s">
         <v>607</v>
       </c>
@@ -22308,7 +22320,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="240" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F240" s="22" t="s">
         <v>608</v>
       </c>
@@ -22331,7 +22343,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="241" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F241" s="22" t="s">
         <v>609</v>
       </c>
@@ -22354,7 +22366,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="242" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F242" s="22" t="s">
         <v>610</v>
       </c>
@@ -22377,7 +22389,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="243" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F243" s="22" t="s">
         <v>611</v>
       </c>
@@ -22400,7 +22412,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="244" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F244" s="22" t="s">
         <v>612</v>
       </c>
@@ -22423,7 +22435,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="245" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F245" s="22" t="s">
         <v>613</v>
       </c>
@@ -22446,7 +22458,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="246" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F246" s="22" t="s">
         <v>614</v>
       </c>
@@ -22469,7 +22481,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="247" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F247" s="22" t="s">
         <v>615</v>
       </c>
@@ -22492,7 +22504,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="248" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F248" s="22" t="s">
         <v>616</v>
       </c>
@@ -22515,7 +22527,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="249" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F249" s="22" t="s">
         <v>617</v>
       </c>
@@ -22538,7 +22550,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="250" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F250" s="22" t="s">
         <v>618</v>
       </c>
@@ -22561,7 +22573,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="251" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F251" s="22" t="s">
         <v>619</v>
       </c>
@@ -22586,7 +22598,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C111">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -22601,16 +22613,16 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>69</v>
       </c>
@@ -22618,7 +22630,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>297</v>
       </c>
@@ -22626,7 +22638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>466</v>
       </c>
@@ -22634,7 +22646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>623</v>
       </c>
@@ -22642,7 +22654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>417</v>
       </c>
@@ -22650,7 +22662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>545</v>
       </c>
@@ -22658,7 +22670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>422</v>
       </c>
@@ -22666,7 +22678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>322</v>
       </c>
@@ -22674,7 +22686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>395</v>
       </c>
@@ -22682,7 +22694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>317</v>
       </c>
@@ -22690,7 +22702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>504</v>
       </c>
@@ -22698,7 +22710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>285</v>
       </c>
@@ -22706,7 +22718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>457</v>
       </c>
@@ -22714,7 +22726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>575</v>
       </c>
@@ -22738,12 +22750,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>181</v>
       </c>
@@ -22751,7 +22763,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>313</v>
       </c>
@@ -22759,7 +22771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>308</v>
       </c>
@@ -22767,7 +22779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>310</v>
       </c>
@@ -22775,7 +22787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>296</v>
       </c>
@@ -22783,7 +22795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>305</v>
       </c>
@@ -22791,7 +22803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>627</v>
       </c>
@@ -22815,13 +22827,13 @@
       <selection activeCell="B2" sqref="B2:C161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>624</v>
       </c>
@@ -22829,7 +22841,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>629</v>
       </c>
@@ -22837,7 +22849,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>631</v>
       </c>
@@ -22845,7 +22857,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>633</v>
       </c>
@@ -22853,7 +22865,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>635</v>
       </c>
@@ -22861,7 +22873,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
         <v>637</v>
       </c>
@@ -22869,7 +22881,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>639</v>
       </c>
@@ -22877,7 +22889,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>641</v>
       </c>
@@ -22885,7 +22897,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>643</v>
       </c>
@@ -22893,7 +22905,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>645</v>
       </c>
@@ -22901,7 +22913,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>647</v>
       </c>
@@ -22909,7 +22921,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>649</v>
       </c>
@@ -22917,7 +22929,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>651</v>
       </c>
@@ -22925,7 +22937,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>653</v>
       </c>
@@ -22933,7 +22945,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>655</v>
       </c>
@@ -22941,7 +22953,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>657</v>
       </c>
@@ -22949,7 +22961,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>659</v>
       </c>
@@ -22957,7 +22969,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>661</v>
       </c>
@@ -22965,7 +22977,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>663</v>
       </c>
@@ -22973,7 +22985,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
         <v>665</v>
       </c>
@@ -22981,7 +22993,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>667</v>
       </c>
@@ -22989,7 +23001,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>669</v>
       </c>
@@ -22997,7 +23009,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>671</v>
       </c>
@@ -23005,7 +23017,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>672</v>
       </c>
@@ -23013,7 +23025,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
         <v>674</v>
       </c>
@@ -23021,7 +23033,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>676</v>
       </c>
@@ -23029,7 +23041,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>678</v>
       </c>
@@ -23037,7 +23049,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>680</v>
       </c>
@@ -23045,7 +23057,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>682</v>
       </c>
@@ -23053,7 +23065,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>684</v>
       </c>
@@ -23061,7 +23073,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>686</v>
       </c>
@@ -23069,7 +23081,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="s">
         <v>688</v>
       </c>
@@ -23077,7 +23089,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
         <v>690</v>
       </c>
@@ -23085,7 +23097,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>692</v>
       </c>
@@ -23093,7 +23105,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
         <v>694</v>
       </c>
@@ -23101,7 +23113,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="30" t="s">
         <v>696</v>
       </c>
@@ -23109,7 +23121,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="30" t="s">
         <v>698</v>
       </c>
@@ -23117,7 +23129,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="30" t="s">
         <v>700</v>
       </c>
@@ -23125,7 +23137,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="30" t="s">
         <v>702</v>
       </c>
@@ -23133,7 +23145,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
         <v>704</v>
       </c>
@@ -23141,7 +23153,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="30" t="s">
         <v>706</v>
       </c>
@@ -23149,7 +23161,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="30" t="s">
         <v>708</v>
       </c>
@@ -23157,7 +23169,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="30" t="s">
         <v>710</v>
       </c>
@@ -23165,7 +23177,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="30" t="s">
         <v>712</v>
       </c>
@@ -23173,7 +23185,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="30" t="s">
         <v>714</v>
       </c>
@@ -23181,7 +23193,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="30" t="s">
         <v>716</v>
       </c>
@@ -23189,7 +23201,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="30" t="s">
         <v>718</v>
       </c>
@@ -23197,7 +23209,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="30" t="s">
         <v>720</v>
       </c>
@@ -23205,7 +23217,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="30" t="s">
         <v>722</v>
       </c>
@@ -23213,7 +23225,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="30" t="s">
         <v>724</v>
       </c>
@@ -23221,7 +23233,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="30" t="s">
         <v>726</v>
       </c>
@@ -23229,7 +23241,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="30" t="s">
         <v>728</v>
       </c>
@@ -23237,7 +23249,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="30" t="s">
         <v>730</v>
       </c>
@@ -23245,7 +23257,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="30" t="s">
         <v>732</v>
       </c>
@@ -23253,7 +23265,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="30" t="s">
         <v>734</v>
       </c>
@@ -23261,7 +23273,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="30" t="s">
         <v>736</v>
       </c>
@@ -23269,7 +23281,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="30" t="s">
         <v>738</v>
       </c>
@@ -23277,7 +23289,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="30" t="s">
         <v>740</v>
       </c>
@@ -23285,7 +23297,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="30" t="s">
         <v>742</v>
       </c>
@@ -23293,7 +23305,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="30" t="s">
         <v>744</v>
       </c>
@@ -23301,7 +23313,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="30" t="s">
         <v>746</v>
       </c>
@@ -23309,7 +23321,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="30" t="s">
         <v>748</v>
       </c>
@@ -23317,7 +23329,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="30" t="s">
         <v>750</v>
       </c>
@@ -23325,7 +23337,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="30" t="s">
         <v>752</v>
       </c>
@@ -23333,7 +23345,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="30" t="s">
         <v>754</v>
       </c>
@@ -23341,7 +23353,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="30" t="s">
         <v>756</v>
       </c>
@@ -23349,7 +23361,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="30" t="s">
         <v>758</v>
       </c>
@@ -23357,7 +23369,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="30" t="s">
         <v>760</v>
       </c>
@@ -23365,7 +23377,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="30" t="s">
         <v>762</v>
       </c>
@@ -23373,7 +23385,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="30" t="s">
         <v>764</v>
       </c>
@@ -23381,7 +23393,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="30" t="s">
         <v>766</v>
       </c>
@@ -23389,7 +23401,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="30" t="s">
         <v>768</v>
       </c>
@@ -23397,7 +23409,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="30" t="s">
         <v>770</v>
       </c>
@@ -23405,7 +23417,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="30" t="s">
         <v>772</v>
       </c>
@@ -23413,7 +23425,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="30" t="s">
         <v>774</v>
       </c>
@@ -23421,7 +23433,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="30" t="s">
         <v>776</v>
       </c>
@@ -23429,7 +23441,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="30" t="s">
         <v>778</v>
       </c>
@@ -23437,7 +23449,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="30" t="s">
         <v>780</v>
       </c>
@@ -23445,7 +23457,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="30" t="s">
         <v>782</v>
       </c>
@@ -23453,7 +23465,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="30" t="s">
         <v>784</v>
       </c>
@@ -23461,7 +23473,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="30" t="s">
         <v>786</v>
       </c>
@@ -23469,7 +23481,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="30" t="s">
         <v>788</v>
       </c>
@@ -23477,7 +23489,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="30" t="s">
         <v>790</v>
       </c>
@@ -23485,7 +23497,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="30" t="s">
         <v>792</v>
       </c>
@@ -23493,7 +23505,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
         <v>794</v>
       </c>
@@ -23501,7 +23513,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
         <v>796</v>
       </c>
@@ -23509,7 +23521,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
         <v>798</v>
       </c>
@@ -23517,7 +23529,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="30" t="s">
         <v>800</v>
       </c>
@@ -23525,7 +23537,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="30" t="s">
         <v>802</v>
       </c>
@@ -23533,7 +23545,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>804</v>
       </c>
@@ -23541,7 +23553,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="30" t="s">
         <v>806</v>
       </c>
@@ -23549,7 +23561,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>808</v>
       </c>
@@ -23557,7 +23569,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="30" t="s">
         <v>810</v>
       </c>
@@ -23565,7 +23577,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="30" t="s">
         <v>812</v>
       </c>
@@ -23573,7 +23585,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="30" t="s">
         <v>814</v>
       </c>
@@ -23581,7 +23593,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>816</v>
       </c>
@@ -23589,7 +23601,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="30" t="s">
         <v>818</v>
       </c>
@@ -23597,7 +23609,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="30" t="s">
         <v>820</v>
       </c>
@@ -23605,7 +23617,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="30" t="s">
         <v>822</v>
       </c>
@@ -23613,7 +23625,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="30" t="s">
         <v>824</v>
       </c>
@@ -23621,7 +23633,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="30" t="s">
         <v>826</v>
       </c>
@@ -23629,7 +23641,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="30" t="s">
         <v>828</v>
       </c>
@@ -23637,7 +23649,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="30" t="s">
         <v>830</v>
       </c>
@@ -23645,7 +23657,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="30" t="s">
         <v>832</v>
       </c>
@@ -23653,7 +23665,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="30" t="s">
         <v>834</v>
       </c>
@@ -23661,7 +23673,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="30" t="s">
         <v>836</v>
       </c>
@@ -23669,7 +23681,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="30" t="s">
         <v>838</v>
       </c>
@@ -23677,7 +23689,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>840</v>
       </c>
@@ -23685,7 +23697,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="30" t="s">
         <v>842</v>
       </c>
@@ -23693,7 +23705,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="30" t="s">
         <v>844</v>
       </c>
@@ -23701,13 +23713,13 @@
         <v>845</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="30" t="s">
         <v>575</v>
       </c>
       <c r="C112" s="26"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="30" t="s">
         <v>846</v>
       </c>
@@ -23715,7 +23727,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="30" t="s">
         <v>847</v>
       </c>
@@ -23723,7 +23735,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>849</v>
       </c>
@@ -23731,7 +23743,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="30" t="s">
         <v>851</v>
       </c>
@@ -23739,7 +23751,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>853</v>
       </c>
@@ -23747,7 +23759,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="30" t="s">
         <v>855</v>
       </c>
@@ -23755,7 +23767,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="30" t="s">
         <v>857</v>
       </c>
@@ -23763,7 +23775,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="30" t="s">
         <v>859</v>
       </c>
@@ -23771,7 +23783,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>861</v>
       </c>
@@ -23779,7 +23791,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="30" t="s">
         <v>863</v>
       </c>
@@ -23787,7 +23799,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="30" t="s">
         <v>865</v>
       </c>
@@ -23795,7 +23807,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="30" t="s">
         <v>867</v>
       </c>
@@ -23803,7 +23815,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="30" t="s">
         <v>869</v>
       </c>
@@ -23811,7 +23823,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="30" t="s">
         <v>871</v>
       </c>
@@ -23819,7 +23831,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="30" t="s">
         <v>873</v>
       </c>
@@ -23827,7 +23839,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="30" t="s">
         <v>875</v>
       </c>
@@ -23835,7 +23847,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="30" t="s">
         <v>876</v>
       </c>
@@ -23843,7 +23855,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="30" t="s">
         <v>878</v>
       </c>
@@ -23851,7 +23863,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>880</v>
       </c>
@@ -23859,7 +23871,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="30" t="s">
         <v>882</v>
       </c>
@@ -23867,7 +23879,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>884</v>
       </c>
@@ -23875,7 +23887,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="30" t="s">
         <v>886</v>
       </c>
@@ -23883,7 +23895,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="30" t="s">
         <v>888</v>
       </c>
@@ -23891,7 +23903,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="30" t="s">
         <v>890</v>
       </c>
@@ -23899,7 +23911,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>892</v>
       </c>
@@ -23907,7 +23919,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="30" t="s">
         <v>894</v>
       </c>
@@ -23915,7 +23927,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="30" t="s">
         <v>896</v>
       </c>
@@ -23923,7 +23935,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="30" t="s">
         <v>898</v>
       </c>
@@ -23931,7 +23943,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="30" t="s">
         <v>900</v>
       </c>
@@ -23939,7 +23951,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="30" t="s">
         <v>902</v>
       </c>
@@ -23947,7 +23959,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="30" t="s">
         <v>904</v>
       </c>
@@ -23955,7 +23967,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="30" t="s">
         <v>906</v>
       </c>
@@ -23963,7 +23975,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="30" t="s">
         <v>908</v>
       </c>
@@ -23971,7 +23983,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="30" t="s">
         <v>910</v>
       </c>
@@ -23979,7 +23991,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="30" t="s">
         <v>912</v>
       </c>
@@ -23987,7 +23999,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="30" t="s">
         <v>914</v>
       </c>
@@ -23995,7 +24007,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="30" t="s">
         <v>916</v>
       </c>
@@ -24003,7 +24015,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="30" t="s">
         <v>918</v>
       </c>
@@ -24011,7 +24023,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="30" t="s">
         <v>920</v>
       </c>
@@ -24019,7 +24031,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="30" t="s">
         <v>922</v>
       </c>
@@ -24027,7 +24039,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="30" t="s">
         <v>924</v>
       </c>
@@ -24035,7 +24047,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="30" t="s">
         <v>926</v>
       </c>
@@ -24043,43 +24055,43 @@
         <v>927</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="30" t="s">
         <v>928</v>
       </c>
       <c r="C155" s="26"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="30" t="s">
         <v>929</v>
       </c>
       <c r="C156" s="26"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="30" t="s">
         <v>930</v>
       </c>
       <c r="C157" s="26"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>931</v>
       </c>
       <c r="C158" s="26"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>932</v>
       </c>
       <c r="C159" s="26"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>933</v>
       </c>
       <c r="C160" s="26"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>934</v>
       </c>

--- a/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
+++ b/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1501F59A-6369-412D-A56D-EB3CAE3DDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EC0E89-B8BE-4445-B81E-AFF39C3B2E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="996">
   <si>
     <t>2019/2020</t>
   </si>
@@ -3006,10 +3006,52 @@
     <t>Visualización</t>
   </si>
   <si>
-    <t>https://analytics.zoho.com/open-view/2395394000011010378?ZOHO_CRITERIA=%22Traspuesta%204.16%22.%22Cod_cultivo%22%3D100101001</t>
-  </si>
-  <si>
-    <t>https://analytics.zoho.com/open-view/2395394000011010378?ZOHO_CRITERIA=%22Traspuesta%204.16%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+    <t>https://analytics.zoho.com/open-view/2395394000011078882</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011078999</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011079118</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011079241?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011079418?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011079523?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011079606?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011080801?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011081073?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011081300?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011081389?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011081425?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011081461?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011166072?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011166588?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011166773?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
   </si>
 </sst>
 </file>
@@ -9106,13 +9148,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}" name="Cod_categoría" displayName="Cod_categoría" ref="B2:C111" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="B2:C111" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Arándano"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:C111" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C115">
     <sortCondition ref="B2:B115"/>
   </sortState>
@@ -9142,13 +9178,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}" name="Cod_procesamiento10" displayName="Cod_procesamiento10" ref="B2:C15" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="B2:C15" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Berries"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:C15" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}"/>
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{DFB3BE9C-F8B5-4C1F-822D-968586718286}" name="Tipo de cultivo" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{A7D9713B-9CA4-4D1C-8E9D-992303A697CD}" name="Id_Categoría" dataDxfId="7"/>
@@ -9878,10 +9908,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79036886-1897-4BCD-BB4E-BCAD8551FFA8}">
   <dimension ref="B1:W147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10146,7 +10176,9 @@
       <c r="R13" s="48">
         <v>1</v>
       </c>
-      <c r="S13" s="15"/>
+      <c r="S13" s="15" t="s">
+        <v>981</v>
+      </c>
       <c r="V13" t="s">
         <v>949</v>
       </c>
@@ -10191,7 +10223,9 @@
       <c r="R14" s="48">
         <v>1</v>
       </c>
-      <c r="S14" s="15"/>
+      <c r="S14" s="15" t="s">
+        <v>982</v>
+      </c>
       <c r="V14" t="s">
         <v>949</v>
       </c>
@@ -10237,7 +10271,7 @@
         <v>7</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="V15" t="s">
         <v>949</v>
@@ -10283,7 +10317,9 @@
       <c r="R16" s="48">
         <v>7</v>
       </c>
-      <c r="S16" s="15"/>
+      <c r="S16" s="15" t="s">
+        <v>984</v>
+      </c>
       <c r="V16" t="s">
         <v>949</v>
       </c>
@@ -10328,7 +10364,9 @@
       <c r="R17" s="48">
         <v>7</v>
       </c>
-      <c r="S17" s="15"/>
+      <c r="S17" s="15" t="s">
+        <v>985</v>
+      </c>
       <c r="V17" t="s">
         <v>949</v>
       </c>
@@ -10373,7 +10411,9 @@
       <c r="R18" s="48">
         <v>7</v>
       </c>
-      <c r="S18" s="15"/>
+      <c r="S18" s="15" t="s">
+        <v>986</v>
+      </c>
       <c r="V18" t="s">
         <v>949</v>
       </c>
@@ -10418,7 +10458,9 @@
       <c r="R19" s="48">
         <v>7</v>
       </c>
-      <c r="S19" s="15"/>
+      <c r="S19" s="15" t="s">
+        <v>986</v>
+      </c>
       <c r="V19" t="s">
         <v>949</v>
       </c>
@@ -10463,7 +10505,9 @@
       <c r="R20" s="48">
         <v>7</v>
       </c>
-      <c r="S20" s="15"/>
+      <c r="S20" s="15" t="s">
+        <v>985</v>
+      </c>
       <c r="V20" t="s">
         <v>949</v>
       </c>
@@ -10508,7 +10552,9 @@
       <c r="R21" s="48">
         <v>7</v>
       </c>
-      <c r="S21" s="15"/>
+      <c r="S21" s="15" t="s">
+        <v>987</v>
+      </c>
       <c r="V21" t="s">
         <v>949</v>
       </c>
@@ -10553,7 +10599,9 @@
       <c r="R22" s="48">
         <v>7</v>
       </c>
-      <c r="S22" s="15"/>
+      <c r="S22" s="15" t="s">
+        <v>988</v>
+      </c>
       <c r="V22" t="s">
         <v>949</v>
       </c>
@@ -10598,7 +10646,9 @@
       <c r="R23" s="48">
         <v>7</v>
       </c>
-      <c r="S23" s="15"/>
+      <c r="S23" s="15" t="s">
+        <v>989</v>
+      </c>
       <c r="V23" t="s">
         <v>949</v>
       </c>
@@ -10643,7 +10693,9 @@
       <c r="R24" s="48">
         <v>7</v>
       </c>
-      <c r="S24" s="15"/>
+      <c r="S24" s="15" t="s">
+        <v>990</v>
+      </c>
       <c r="V24" t="s">
         <v>949</v>
       </c>
@@ -10688,7 +10740,9 @@
       <c r="R25" s="48">
         <v>7</v>
       </c>
-      <c r="S25" s="15"/>
+      <c r="S25" s="15" t="s">
+        <v>991</v>
+      </c>
       <c r="V25" t="s">
         <v>949</v>
       </c>
@@ -10733,7 +10787,9 @@
       <c r="R26" s="48">
         <v>7</v>
       </c>
-      <c r="S26" s="15"/>
+      <c r="S26" s="15" t="s">
+        <v>992</v>
+      </c>
       <c r="V26" t="s">
         <v>949</v>
       </c>
@@ -10778,7 +10834,9 @@
       <c r="R27" s="48">
         <v>110</v>
       </c>
-      <c r="S27" s="15"/>
+      <c r="S27" s="15" t="s">
+        <v>993</v>
+      </c>
       <c r="V27" t="s">
         <v>949</v>
       </c>
@@ -10823,7 +10881,9 @@
       <c r="R28" s="48">
         <v>110</v>
       </c>
-      <c r="S28" s="15"/>
+      <c r="S28" s="15" t="s">
+        <v>994</v>
+      </c>
       <c r="V28" t="s">
         <v>949</v>
       </c>
@@ -10868,7 +10928,9 @@
       <c r="R29" s="48">
         <v>110</v>
       </c>
-      <c r="S29" s="15"/>
+      <c r="S29" s="15" t="s">
+        <v>995</v>
+      </c>
       <c r="V29" t="s">
         <v>949</v>
       </c>
@@ -16149,16 +16211,24 @@
     <row r="147" spans="7:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S12" r:id="rId1" xr:uid="{92E197B2-B6E3-4219-A5AF-40BFEAA078B3}"/>
+    <hyperlink ref="S13" r:id="rId2" xr:uid="{D4BDDE89-47BB-4A30-A74B-ACD5689A241A}"/>
+    <hyperlink ref="S14" r:id="rId3" xr:uid="{F01D4E79-5AC8-473E-9915-60CFF2CA78C2}"/>
+    <hyperlink ref="S24" r:id="rId4" xr:uid="{486F9F99-6040-4E15-92BC-12ABA62F49E4}"/>
+    <hyperlink ref="S25" r:id="rId5" xr:uid="{2C580C19-14F5-4E5C-BDB9-03125962C0FD}"/>
+    <hyperlink ref="S26" r:id="rId6" xr:uid="{3731900F-7698-49B4-9CF2-1349DC3386CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId10"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -16169,8 +16239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400ADB1E-0189-4AFF-A253-5255DEA11ACB}">
   <dimension ref="B2:L251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16213,7 +16283,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>187</v>
       </c>
@@ -16242,7 +16312,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>217</v>
       </c>
@@ -16271,7 +16341,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>188</v>
       </c>
@@ -16300,7 +16370,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>185</v>
       </c>
@@ -16329,7 +16399,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>189</v>
       </c>
@@ -16358,7 +16428,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>190</v>
       </c>
@@ -16387,7 +16457,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>186</v>
       </c>
@@ -16416,7 +16486,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>191</v>
       </c>
@@ -16474,7 +16544,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>218</v>
       </c>
@@ -16503,7 +16573,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>219</v>
       </c>
@@ -16532,7 +16602,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
         <v>192</v>
       </c>
@@ -16561,7 +16631,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>220</v>
       </c>
@@ -16590,7 +16660,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
         <v>193</v>
       </c>
@@ -16619,7 +16689,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>221</v>
       </c>
@@ -16648,7 +16718,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
         <v>194</v>
       </c>
@@ -16677,7 +16747,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
         <v>195</v>
       </c>
@@ -16706,7 +16776,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>222</v>
       </c>
@@ -16735,7 +16805,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
         <v>196</v>
       </c>
@@ -16764,7 +16834,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>197</v>
       </c>
@@ -16793,7 +16863,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
         <v>198</v>
       </c>
@@ -16822,7 +16892,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>223</v>
       </c>
@@ -16851,7 +16921,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>199</v>
       </c>
@@ -16880,7 +16950,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
         <v>200</v>
       </c>
@@ -16909,7 +16979,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
         <v>224</v>
       </c>
@@ -16938,7 +17008,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>201</v>
       </c>
@@ -16967,7 +17037,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>225</v>
       </c>
@@ -16996,7 +17066,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
         <v>202</v>
       </c>
@@ -17025,7 +17095,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
         <v>203</v>
       </c>
@@ -17054,7 +17124,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
         <v>204</v>
       </c>
@@ -17083,7 +17153,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
         <v>226</v>
       </c>
@@ -17112,7 +17182,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
         <v>205</v>
       </c>
@@ -17141,7 +17211,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
         <v>206</v>
       </c>
@@ -17170,7 +17240,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="25" t="s">
         <v>207</v>
       </c>
@@ -17199,7 +17269,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
         <v>208</v>
       </c>
@@ -17228,7 +17298,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="25" t="s">
         <v>209</v>
       </c>
@@ -17257,7 +17327,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>210</v>
       </c>
@@ -17286,7 +17356,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>211</v>
       </c>
@@ -17315,7 +17385,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
         <v>212</v>
       </c>
@@ -17344,7 +17414,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="25" t="s">
         <v>213</v>
       </c>
@@ -17373,7 +17443,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="25" t="s">
         <v>214</v>
       </c>
@@ -17402,7 +17472,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>215</v>
       </c>
@@ -17431,7 +17501,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="25" t="s">
         <v>216</v>
       </c>
@@ -17460,7 +17530,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
         <v>228</v>
       </c>
@@ -17489,7 +17559,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>229</v>
       </c>
@@ -17518,7 +17588,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>230</v>
       </c>
@@ -17547,7 +17617,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
         <v>231</v>
       </c>
@@ -17576,7 +17646,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
         <v>232</v>
       </c>
@@ -17605,7 +17675,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>233</v>
       </c>
@@ -17634,7 +17704,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
         <v>234</v>
       </c>
@@ -17663,7 +17733,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="25" t="s">
         <v>235</v>
       </c>
@@ -17692,7 +17762,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
         <v>236</v>
       </c>
@@ -17721,7 +17791,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="25" t="s">
         <v>237</v>
       </c>
@@ -17750,7 +17820,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
         <v>238</v>
       </c>
@@ -17779,7 +17849,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="25" t="s">
         <v>239</v>
       </c>
@@ -17808,7 +17878,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>240</v>
       </c>
@@ -17837,7 +17907,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="25" t="s">
         <v>241</v>
       </c>
@@ -17866,7 +17936,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="25" t="s">
         <v>242</v>
       </c>
@@ -17895,7 +17965,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
         <v>243</v>
       </c>
@@ -17924,7 +17994,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="25" t="s">
         <v>244</v>
       </c>
@@ -17953,7 +18023,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="25" t="s">
         <v>245</v>
       </c>
@@ -17982,7 +18052,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="25" t="s">
         <v>246</v>
       </c>
@@ -18011,7 +18081,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="25" t="s">
         <v>247</v>
       </c>
@@ -18040,7 +18110,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="25" t="s">
         <v>248</v>
       </c>
@@ -18069,7 +18139,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="31" t="s">
         <v>249</v>
       </c>
@@ -18098,7 +18168,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="25" t="s">
         <v>250</v>
       </c>
@@ -18127,7 +18197,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="25" t="s">
         <v>251</v>
       </c>
@@ -18156,7 +18226,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="25" t="s">
         <v>184</v>
       </c>
@@ -18185,7 +18255,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="31" t="s">
         <v>252</v>
       </c>
@@ -18214,7 +18284,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="s">
         <v>253</v>
       </c>
@@ -18243,7 +18313,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="25" t="s">
         <v>254</v>
       </c>
@@ -18272,7 +18342,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="31" t="s">
         <v>255</v>
       </c>
@@ -18301,7 +18371,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="31" t="s">
         <v>256</v>
       </c>
@@ -18330,7 +18400,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
         <v>257</v>
       </c>
@@ -18359,7 +18429,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="31" t="s">
         <v>258</v>
       </c>
@@ -18388,7 +18458,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="31" t="s">
         <v>259</v>
       </c>
@@ -18417,7 +18487,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
         <v>260</v>
       </c>
@@ -18446,7 +18516,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="28" t="s">
         <v>261</v>
       </c>
@@ -18475,7 +18545,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>262</v>
       </c>
@@ -18504,7 +18574,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="31" t="s">
         <v>263</v>
       </c>
@@ -18533,7 +18603,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="25" t="s">
         <v>264</v>
       </c>
@@ -18562,7 +18632,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="25" t="s">
         <v>265</v>
       </c>
@@ -18591,7 +18661,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="25" t="s">
         <v>266</v>
       </c>
@@ -18620,7 +18690,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
         <v>267</v>
       </c>
@@ -18649,7 +18719,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="25" t="s">
         <v>268</v>
       </c>
@@ -18678,7 +18748,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="28" t="s">
         <v>269</v>
       </c>
@@ -18707,7 +18777,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="25" t="s">
         <v>270</v>
       </c>
@@ -18736,7 +18806,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="25" t="s">
         <v>271</v>
       </c>
@@ -18765,7 +18835,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="25" t="s">
         <v>272</v>
       </c>
@@ -18794,7 +18864,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="92" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="25" t="s">
         <v>273</v>
       </c>
@@ -18823,7 +18893,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="25" t="s">
         <v>582</v>
       </c>
@@ -18852,7 +18922,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="94" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="25" t="s">
         <v>274</v>
       </c>
@@ -18881,7 +18951,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="25" t="s">
         <v>275</v>
       </c>
@@ -18910,7 +18980,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="25" t="s">
         <v>330</v>
       </c>
@@ -18939,7 +19009,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="25" t="s">
         <v>276</v>
       </c>
@@ -18968,7 +19038,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="25" t="s">
         <v>338</v>
       </c>
@@ -18997,7 +19067,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="99" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="31" t="s">
         <v>277</v>
       </c>
@@ -19026,7 +19096,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="100" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="31" t="s">
         <v>278</v>
       </c>
@@ -19055,7 +19125,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="31" t="s">
         <v>279</v>
       </c>
@@ -19084,7 +19154,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="102" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="25" t="s">
         <v>280</v>
       </c>
@@ -19113,7 +19183,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="25" t="s">
         <v>281</v>
       </c>
@@ -19142,7 +19212,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="25" t="s">
         <v>282</v>
       </c>
@@ -19171,7 +19241,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="31" t="s">
         <v>283</v>
       </c>
@@ -19200,7 +19270,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" s="31" t="s">
         <v>284</v>
       </c>
@@ -19229,7 +19299,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="25" t="s">
         <v>285</v>
       </c>
@@ -19258,7 +19328,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="108" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" s="28" t="s">
         <v>286</v>
       </c>
@@ -19287,7 +19357,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="109" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" s="25" t="s">
         <v>287</v>
       </c>
@@ -19316,7 +19386,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="110" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="25" t="s">
         <v>288</v>
       </c>
@@ -19345,7 +19415,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" s="25" t="s">
         <v>289</v>
       </c>
@@ -22638,7 +22708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>466</v>
       </c>
@@ -22646,7 +22716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>623</v>
       </c>
@@ -22654,7 +22724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>417</v>
       </c>
@@ -22662,7 +22732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>545</v>
       </c>
@@ -22670,7 +22740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>422</v>
       </c>
@@ -22678,7 +22748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>322</v>
       </c>
@@ -22686,7 +22756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>395</v>
       </c>
@@ -22694,7 +22764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>317</v>
       </c>
@@ -22702,7 +22772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>504</v>
       </c>
@@ -22710,7 +22780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>285</v>
       </c>
@@ -22718,7 +22788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>457</v>
       </c>
@@ -22726,7 +22796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>575</v>
       </c>

--- a/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
+++ b/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EC0E89-B8BE-4445-B81E-AFF39C3B2E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E6D91A-789E-4C91-9A44-B8D9E6A475E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
   </bookViews>
@@ -9909,7 +9909,7 @@
   <dimension ref="B1:W147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
     </sheetView>
@@ -16218,17 +16218,19 @@
     <hyperlink ref="S24" r:id="rId4" xr:uid="{486F9F99-6040-4E15-92BC-12ABA62F49E4}"/>
     <hyperlink ref="S25" r:id="rId5" xr:uid="{2C580C19-14F5-4E5C-BDB9-03125962C0FD}"/>
     <hyperlink ref="S26" r:id="rId6" xr:uid="{3731900F-7698-49B4-9CF2-1349DC3386CE}"/>
+    <hyperlink ref="S15" r:id="rId7" xr:uid="{FC0D2906-AD12-4496-8DA2-0CD563667CB0}"/>
+    <hyperlink ref="S18" r:id="rId8" xr:uid="{4A164919-AFBB-4724-9E06-8C5D16EA7A0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId10"/>
+        <x14:slicer r:id="rId12"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
+++ b/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E6D91A-789E-4C91-9A44-B8D9E6A475E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C3B19A-EB87-4414-9964-4971CE6BEC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="1116">
   <si>
     <t>2019/2020</t>
   </si>
@@ -3052,6 +3052,402 @@
   </si>
   <si>
     <t>https://analytics.zoho.com/open-view/2395394000011166773?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011642412?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011642823?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011642959?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011677005?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011677495?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011677639?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011677936?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011683306?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011683604?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011684065</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011684432</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011684587</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011684674?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011684744?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011684814?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011694141?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011694181?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011694221?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011694844?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011694880?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011694916?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011700394?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011700430?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011700466?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011700869?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011700916?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011700963?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011704681?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011704730?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011704779?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011707836?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011707886?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011707936?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011707986?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011709036?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011709086?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CULTIVO</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011714436?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011766202?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011766298?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tipo (Orgánico/No orgánico) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- CULTIVO</t>
+    </r>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011766505?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011766716?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011766910?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011767471?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011768092?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011768282?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Procesamiento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- CULTIVO</t>
+    </r>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011712177?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011712445?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011712539?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011712699?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011770302?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011770486?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>GR 019</t>
+  </si>
+  <si>
+    <t>GR 020</t>
+  </si>
+  <si>
+    <t>GR 021</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011696442?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011696894?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011771224?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011771393?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011771544?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011771695?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011774239?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011774436?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011774483?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011774239</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011774436</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011774483</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011774833?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011774889?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011774945?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011775965?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777015?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777065?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777115?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777158?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777201?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777244?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777287?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777326?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777868?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777911?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011777959?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011778007?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011778064?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011778127?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011778190?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011778243?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011778296?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011787001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011787034</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011787067</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011787797?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011787837?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011787877?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011787917?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011787953?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011787989?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011789569?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011789605?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011789641?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011789677?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011789724?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011789771?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011791342?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011791392?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011791442?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011791492?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011791542?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011791592?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011796447?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011796821?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011797006?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011797134?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011797397?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011797539?ZOHO_CRITERIA=%22Traspuesta%204.16_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tipo (Orgánico/No orgánico) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- MES</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3061,7 +3457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3214,8 +3610,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3273,6 +3683,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3349,7 +3777,7 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3547,6 +3975,20 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3554,6 +3996,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3790,16 +4242,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4106,7 +4548,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>621753</xdr:colOff>
+      <xdr:colOff>440778</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -4178,13 +4620,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>870614</xdr:colOff>
+      <xdr:colOff>689639</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>804789</xdr:colOff>
+      <xdr:colOff>623814</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -4334,13 +4776,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>842889</xdr:colOff>
+      <xdr:colOff>661914</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>199035</xdr:colOff>
+      <xdr:colOff>18060</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -4412,13 +4854,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>276894</xdr:colOff>
+      <xdr:colOff>95919</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>2011855</xdr:colOff>
+      <xdr:colOff>1830880</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -9147,14 +9589,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}" name="Cod_categoría" displayName="Cod_categoría" ref="B2:C111" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}" name="Cod_categoría" displayName="Cod_categoría" ref="B2:C111" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B2:C111" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C115">
     <sortCondition ref="B2:B115"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00A0CACF-8DA8-4EE1-B69E-D20C0D0CED17}" name="Cultivo" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{EC636045-613B-42E5-9C90-E988441BFFD8}" name="Id_Cultivo" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00A0CACF-8DA8-4EE1-B69E-D20C0D0CED17}" name="Cultivo" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EC636045-613B-42E5-9C90-E988441BFFD8}" name="Id_Cultivo" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9177,36 +9619,36 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}" name="Cod_procesamiento10" displayName="Cod_procesamiento10" ref="B2:C15" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}" name="Cod_procesamiento10" displayName="Cod_procesamiento10" ref="B2:C15" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B2:C15" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{DFB3BE9C-F8B5-4C1F-822D-968586718286}" name="Tipo de cultivo" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{A7D9713B-9CA4-4D1C-8E9D-992303A697CD}" name="Id_Categoría" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{DFB3BE9C-F8B5-4C1F-822D-968586718286}" name="Tipo de cultivo" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A7D9713B-9CA4-4D1C-8E9D-992303A697CD}" name="Id_Categoría" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}" name="Cod_procesamiento" displayName="Cod_procesamiento" ref="B2:C8" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}" name="Cod_procesamiento" displayName="Cod_procesamiento" ref="B2:C8" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B2:C8" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{EE422AE0-5FF5-4FF7-873B-6BC93A7C476F}" name="Procesamiento" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{775A3C91-EDE1-40BA-A829-E5FE120F9D39}" name="Id_Procesamiento" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EE422AE0-5FF5-4FF7-873B-6BC93A7C476F}" name="Procesamiento" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{775A3C91-EDE1-40BA-A829-E5FE120F9D39}" name="Id_Procesamiento" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9DEBE778-257A-4F77-B952-D29267D603FC}" name="Cod_país" displayName="Cod_país" ref="B2:C161" totalsRowShown="0" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9DEBE778-257A-4F77-B952-D29267D603FC}" name="Cod_país" displayName="Cod_país" ref="B2:C161" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="B2:C161" xr:uid="{9DEBE778-257A-4F77-B952-D29267D603FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C161">
     <sortCondition ref="B3:B161"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{11154556-49A8-4584-BF27-62A0E30BE082}" name="País de Destino" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{08D23EDC-011A-480F-92F3-73D7B20C32A8}" name="Código_País" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{11154556-49A8-4584-BF27-62A0E30BE082}" name="País de Destino" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{08D23EDC-011A-480F-92F3-73D7B20C32A8}" name="Código_País" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9512,7 +9954,7 @@
   <dimension ref="A3:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9908,10 +10350,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79036886-1897-4BCD-BB4E-BCAD8551FFA8}">
   <dimension ref="B1:W147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
+      <selection pane="bottomLeft" activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9926,7 +10368,7 @@
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" customWidth="1"/>
     <col min="12" max="12" width="26.5703125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -10117,7 +10559,7 @@
       <c r="N12" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O12" s="45" t="str">
+      <c r="O12" s="79" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por Cultivo</v>
       </c>
@@ -10165,7 +10607,7 @@
       <c r="N13" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O13" s="45" t="str">
+      <c r="O13" s="80" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por Cultivo</v>
       </c>
@@ -10212,7 +10654,7 @@
       <c r="N14" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O14" s="45" t="str">
+      <c r="O14" s="81" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por Cultivo</v>
       </c>
@@ -10259,7 +10701,7 @@
       <c r="N15" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O15" s="45" t="str">
+      <c r="O15" s="79" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de berries por Cultivo</v>
       </c>
@@ -10306,7 +10748,7 @@
       <c r="N16" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O16" s="45" t="str">
+      <c r="O16" s="80" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de berries por Cultivo</v>
       </c>
@@ -10353,7 +10795,7 @@
       <c r="N17" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O17" s="45" t="str">
+      <c r="O17" s="81" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de berries por Cultivo</v>
       </c>
@@ -10400,7 +10842,7 @@
       <c r="N18" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O18" s="45" t="str">
+      <c r="O18" s="79" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -10447,7 +10889,7 @@
       <c r="N19" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O19" s="45" t="str">
+      <c r="O19" s="80" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -10494,7 +10936,7 @@
       <c r="N20" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O20" s="45" t="str">
+      <c r="O20" s="81" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -10541,7 +10983,7 @@
       <c r="N21" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O21" s="45" t="str">
+      <c r="O21" s="79" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en Kg de Berries por Cultivo y Procesamiento</v>
       </c>
@@ -10588,7 +11030,7 @@
       <c r="N22" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O22" s="45" t="str">
+      <c r="O22" s="80" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD de Berries por Cultivo y Procesamiento</v>
       </c>
@@ -10635,7 +11077,7 @@
       <c r="N23" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O23" s="45" t="str">
+      <c r="O23" s="81" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento</v>
       </c>
@@ -10682,7 +11124,7 @@
       <c r="N24" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O24" s="45" t="str">
+      <c r="O24" s="79" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en Kg de Berries por Cultivo y País de Destino</v>
       </c>
@@ -10729,7 +11171,7 @@
       <c r="N25" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O25" s="45" t="str">
+      <c r="O25" s="80" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD de Berries por Cultivo y País de Destino</v>
       </c>
@@ -10776,7 +11218,7 @@
       <c r="N26" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O26" s="45" t="str">
+      <c r="O26" s="81" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de Berries por Cultivo y País de Destino</v>
       </c>
@@ -10823,7 +11265,7 @@
       <c r="N27" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O27" s="45" t="str">
+      <c r="O27" s="79" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -10870,7 +11312,7 @@
       <c r="N28" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O28" s="45" t="str">
+      <c r="O28" s="80" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -10917,7 +11359,7 @@
       <c r="N29" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="45" t="str">
+      <c r="O29" s="81" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -10964,7 +11406,7 @@
       <c r="N30" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O30" s="45" t="str">
+      <c r="O30" s="79" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por Año</v>
       </c>
@@ -10975,7 +11417,9 @@
       <c r="R30" s="48">
         <v>110</v>
       </c>
-      <c r="S30" s="15"/>
+      <c r="S30" s="15" t="s">
+        <v>996</v>
+      </c>
       <c r="V30" t="s">
         <v>949</v>
       </c>
@@ -11012,7 +11456,7 @@
       <c r="N31" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="45" t="str">
+      <c r="O31" s="80" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por Año</v>
       </c>
@@ -11023,7 +11467,9 @@
       <c r="R31" s="48">
         <v>110</v>
       </c>
-      <c r="S31" s="15"/>
+      <c r="S31" s="15" t="s">
+        <v>997</v>
+      </c>
       <c r="V31" t="s">
         <v>949</v>
       </c>
@@ -11060,7 +11506,7 @@
       <c r="N32" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="45" t="str">
+      <c r="O32" s="81" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por Año</v>
       </c>
@@ -11071,7 +11517,9 @@
       <c r="R32" s="48">
         <v>110</v>
       </c>
-      <c r="S32" s="15"/>
+      <c r="S32" s="15" t="s">
+        <v>998</v>
+      </c>
       <c r="V32" t="s">
         <v>949</v>
       </c>
@@ -11108,7 +11556,7 @@
       <c r="N33" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="45" t="str">
+      <c r="O33" s="79" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por Procesamiento</v>
       </c>
@@ -11119,7 +11567,9 @@
       <c r="R33" s="48">
         <v>110</v>
       </c>
-      <c r="S33" s="15"/>
+      <c r="S33" s="15" t="s">
+        <v>999</v>
+      </c>
       <c r="V33" t="s">
         <v>949</v>
       </c>
@@ -11156,7 +11606,7 @@
       <c r="N34" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="45" t="str">
+      <c r="O34" s="80" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por Procesamiento</v>
       </c>
@@ -11167,7 +11617,9 @@
       <c r="R34" s="48">
         <v>110</v>
       </c>
-      <c r="S34" s="15"/>
+      <c r="S34" s="15" t="s">
+        <v>1000</v>
+      </c>
       <c r="V34" t="s">
         <v>949</v>
       </c>
@@ -11204,7 +11656,7 @@
       <c r="N35" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="45" t="str">
+      <c r="O35" s="81" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por Procesamiento</v>
       </c>
@@ -11215,7 +11667,9 @@
       <c r="R35" s="48">
         <v>110</v>
       </c>
-      <c r="S35" s="15"/>
+      <c r="S35" s="15" t="s">
+        <v>1001</v>
+      </c>
       <c r="V35" t="s">
         <v>949</v>
       </c>
@@ -11252,7 +11706,7 @@
       <c r="N36" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="45" t="str">
+      <c r="O36" s="79" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por País de destino</v>
       </c>
@@ -11263,7 +11717,9 @@
       <c r="R36" s="48">
         <v>110</v>
       </c>
-      <c r="S36" s="15"/>
+      <c r="S36" s="15" t="s">
+        <v>1002</v>
+      </c>
       <c r="V36" t="s">
         <v>949</v>
       </c>
@@ -11300,7 +11756,7 @@
       <c r="N37" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O37" s="45" t="str">
+      <c r="O37" s="80" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por País de destino</v>
       </c>
@@ -11311,7 +11767,9 @@
       <c r="R37" s="48">
         <v>110</v>
       </c>
-      <c r="S37" s="15"/>
+      <c r="S37" s="15" t="s">
+        <v>1003</v>
+      </c>
       <c r="V37" t="s">
         <v>949</v>
       </c>
@@ -11348,7 +11806,7 @@
       <c r="N38" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O38" s="57" t="str">
+      <c r="O38" s="81" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por País de destino</v>
       </c>
@@ -11359,7 +11817,9 @@
       <c r="R38" s="60">
         <v>110</v>
       </c>
-      <c r="S38" s="15"/>
+      <c r="S38" s="15" t="s">
+        <v>1004</v>
+      </c>
       <c r="V38" t="s">
         <v>949</v>
       </c>
@@ -11396,7 +11856,7 @@
       <c r="N39" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O39" s="45" t="str">
+      <c r="O39" s="79" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por Cultivo</v>
       </c>
@@ -11407,7 +11867,9 @@
       <c r="R39" s="48">
         <v>1</v>
       </c>
-      <c r="S39" s="15"/>
+      <c r="S39" s="15" t="s">
+        <v>1005</v>
+      </c>
       <c r="V39" t="s">
         <v>949</v>
       </c>
@@ -11444,7 +11906,7 @@
       <c r="N40" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O40" s="45" t="str">
+      <c r="O40" s="80" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por Cultivo</v>
       </c>
@@ -11455,7 +11917,9 @@
       <c r="R40" s="48">
         <v>1</v>
       </c>
-      <c r="S40" s="15"/>
+      <c r="S40" s="15" t="s">
+        <v>1006</v>
+      </c>
       <c r="V40" t="s">
         <v>949</v>
       </c>
@@ -11492,7 +11956,7 @@
       <c r="N41" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O41" s="45" t="str">
+      <c r="O41" s="81" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por Cultivo</v>
       </c>
@@ -11503,7 +11967,9 @@
       <c r="R41" s="48">
         <v>1</v>
       </c>
-      <c r="S41" s="15"/>
+      <c r="S41" s="15" t="s">
+        <v>1007</v>
+      </c>
       <c r="V41" t="s">
         <v>949</v>
       </c>
@@ -11540,7 +12006,7 @@
       <c r="N42" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O42" s="45" t="str">
+      <c r="O42" s="79" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de berries por Cultivo</v>
       </c>
@@ -11551,7 +12017,9 @@
       <c r="R42" s="48">
         <v>7</v>
       </c>
-      <c r="S42" s="15"/>
+      <c r="S42" s="15" t="s">
+        <v>1008</v>
+      </c>
       <c r="V42" t="s">
         <v>949</v>
       </c>
@@ -11588,7 +12056,7 @@
       <c r="N43" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O43" s="45" t="str">
+      <c r="O43" s="80" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de berries por Cultivo</v>
       </c>
@@ -11599,7 +12067,9 @@
       <c r="R43" s="48">
         <v>7</v>
       </c>
-      <c r="S43" s="15"/>
+      <c r="S43" s="15" t="s">
+        <v>1009</v>
+      </c>
       <c r="V43" t="s">
         <v>949</v>
       </c>
@@ -11636,7 +12106,7 @@
       <c r="N44" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O44" s="45" t="str">
+      <c r="O44" s="81" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de berries por Cultivo</v>
       </c>
@@ -11647,7 +12117,9 @@
       <c r="R44" s="48">
         <v>7</v>
       </c>
-      <c r="S44" s="15"/>
+      <c r="S44" s="15" t="s">
+        <v>1010</v>
+      </c>
       <c r="V44" t="s">
         <v>949</v>
       </c>
@@ -11684,7 +12156,7 @@
       <c r="N45" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O45" s="45" t="str">
+      <c r="O45" s="79" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -11695,7 +12167,9 @@
       <c r="R45" s="48">
         <v>7</v>
       </c>
-      <c r="S45" s="15"/>
+      <c r="S45" s="15" t="s">
+        <v>1011</v>
+      </c>
       <c r="V45" t="s">
         <v>949</v>
       </c>
@@ -11732,7 +12206,7 @@
       <c r="N46" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O46" s="45" t="str">
+      <c r="O46" s="80" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -11743,7 +12217,9 @@
       <c r="R46" s="48">
         <v>7</v>
       </c>
-      <c r="S46" s="15"/>
+      <c r="S46" s="15" t="s">
+        <v>1012</v>
+      </c>
       <c r="V46" t="s">
         <v>949</v>
       </c>
@@ -11780,7 +12256,7 @@
       <c r="N47" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O47" s="45" t="str">
+      <c r="O47" s="81" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -11791,7 +12267,9 @@
       <c r="R47" s="48">
         <v>7</v>
       </c>
-      <c r="S47" s="15"/>
+      <c r="S47" s="15" t="s">
+        <v>1013</v>
+      </c>
       <c r="V47" t="s">
         <v>949</v>
       </c>
@@ -11828,7 +12306,7 @@
       <c r="N48" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O48" s="45" t="str">
+      <c r="O48" s="79" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en Kg de Berries por Cultivo y Procesamiento</v>
       </c>
@@ -11839,7 +12317,9 @@
       <c r="R48" s="48">
         <v>7</v>
       </c>
-      <c r="S48" s="15"/>
+      <c r="S48" s="15" t="s">
+        <v>1014</v>
+      </c>
       <c r="V48" t="s">
         <v>949</v>
       </c>
@@ -11876,7 +12356,7 @@
       <c r="N49" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O49" s="45" t="str">
+      <c r="O49" s="80" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD de Berries por Cultivo y Procesamiento</v>
       </c>
@@ -11887,7 +12367,9 @@
       <c r="R49" s="48">
         <v>7</v>
       </c>
-      <c r="S49" s="15"/>
+      <c r="S49" s="15" t="s">
+        <v>1015</v>
+      </c>
       <c r="V49" t="s">
         <v>949</v>
       </c>
@@ -11924,7 +12406,7 @@
       <c r="N50" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O50" s="45" t="str">
+      <c r="O50" s="81" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento</v>
       </c>
@@ -11935,7 +12417,9 @@
       <c r="R50" s="48">
         <v>7</v>
       </c>
-      <c r="S50" s="15"/>
+      <c r="S50" s="15" t="s">
+        <v>1016</v>
+      </c>
       <c r="V50" t="s">
         <v>949</v>
       </c>
@@ -11972,7 +12456,7 @@
       <c r="N51" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O51" s="45" t="str">
+      <c r="O51" s="79" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en Kg de Berries por Cultivo y País de Destino</v>
       </c>
@@ -11983,7 +12467,9 @@
       <c r="R51" s="48">
         <v>7</v>
       </c>
-      <c r="S51" s="15"/>
+      <c r="S51" s="15" t="s">
+        <v>1017</v>
+      </c>
       <c r="V51" t="s">
         <v>949</v>
       </c>
@@ -12020,7 +12506,7 @@
       <c r="N52" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O52" s="45" t="str">
+      <c r="O52" s="80" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD de Berries por Cultivo y País de Destino</v>
       </c>
@@ -12031,7 +12517,9 @@
       <c r="R52" s="48">
         <v>7</v>
       </c>
-      <c r="S52" s="15"/>
+      <c r="S52" s="15" t="s">
+        <v>1018</v>
+      </c>
       <c r="V52" t="s">
         <v>949</v>
       </c>
@@ -12068,7 +12556,7 @@
       <c r="N53" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O53" s="45" t="str">
+      <c r="O53" s="81" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de Berries por Cultivo y País de Destino</v>
       </c>
@@ -12079,7 +12567,9 @@
       <c r="R53" s="48">
         <v>7</v>
       </c>
-      <c r="S53" s="15"/>
+      <c r="S53" s="15" t="s">
+        <v>1019</v>
+      </c>
       <c r="V53" t="s">
         <v>949</v>
       </c>
@@ -12113,7 +12603,7 @@
       <c r="N54" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O54" s="45" t="str">
+      <c r="O54" s="79" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -12124,7 +12614,9 @@
       <c r="R54" s="48">
         <v>110</v>
       </c>
-      <c r="S54" s="15"/>
+      <c r="S54" s="15" t="s">
+        <v>1020</v>
+      </c>
       <c r="V54" t="s">
         <v>949</v>
       </c>
@@ -12158,7 +12650,7 @@
       <c r="N55" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O55" s="45" t="str">
+      <c r="O55" s="80" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -12169,7 +12661,9 @@
       <c r="R55" s="48">
         <v>110</v>
       </c>
-      <c r="S55" s="15"/>
+      <c r="S55" s="15" t="s">
+        <v>1021</v>
+      </c>
       <c r="V55" t="s">
         <v>949</v>
       </c>
@@ -12203,7 +12697,7 @@
       <c r="N56" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O56" s="45" t="str">
+      <c r="O56" s="81" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -12214,6 +12708,9 @@
       <c r="R56" s="48">
         <v>110</v>
       </c>
+      <c r="S56" s="15" t="s">
+        <v>1022</v>
+      </c>
       <c r="V56" t="s">
         <v>949</v>
       </c>
@@ -12247,7 +12744,7 @@
       <c r="N57" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O57" s="45" t="str">
+      <c r="O57" s="79" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por Año</v>
       </c>
@@ -12258,7 +12755,9 @@
       <c r="R57" s="48">
         <v>110</v>
       </c>
-      <c r="S57" s="15"/>
+      <c r="S57" s="15" t="s">
+        <v>1023</v>
+      </c>
       <c r="V57" t="s">
         <v>949</v>
       </c>
@@ -12292,7 +12791,7 @@
       <c r="N58" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O58" s="45" t="str">
+      <c r="O58" s="80" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por Año</v>
       </c>
@@ -12303,7 +12802,9 @@
       <c r="R58" s="48">
         <v>110</v>
       </c>
-      <c r="S58" s="15"/>
+      <c r="S58" s="15" t="s">
+        <v>1024</v>
+      </c>
       <c r="V58" t="s">
         <v>949</v>
       </c>
@@ -12337,7 +12838,7 @@
       <c r="N59" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O59" s="45" t="str">
+      <c r="O59" s="81" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por Año</v>
       </c>
@@ -12348,7 +12849,9 @@
       <c r="R59" s="48">
         <v>110</v>
       </c>
-      <c r="S59" s="15"/>
+      <c r="S59" s="15" t="s">
+        <v>1025</v>
+      </c>
       <c r="V59" t="s">
         <v>949</v>
       </c>
@@ -12382,7 +12885,7 @@
       <c r="N60" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O60" s="45" t="str">
+      <c r="O60" s="79" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por Procesamiento</v>
       </c>
@@ -12393,6 +12896,9 @@
       <c r="R60" s="48">
         <v>110</v>
       </c>
+      <c r="S60" s="15" t="s">
+        <v>1026</v>
+      </c>
       <c r="V60" t="s">
         <v>949</v>
       </c>
@@ -12426,7 +12932,7 @@
       <c r="N61" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O61" s="45" t="str">
+      <c r="O61" s="80" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por Procesamiento</v>
       </c>
@@ -12437,6 +12943,9 @@
       <c r="R61" s="48">
         <v>110</v>
       </c>
+      <c r="S61" s="15" t="s">
+        <v>1027</v>
+      </c>
       <c r="V61" t="s">
         <v>949</v>
       </c>
@@ -12470,7 +12979,7 @@
       <c r="N62" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O62" s="45" t="str">
+      <c r="O62" s="81" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por Procesamiento</v>
       </c>
@@ -12481,6 +12990,9 @@
       <c r="R62" s="48">
         <v>110</v>
       </c>
+      <c r="S62" s="15" t="s">
+        <v>1028</v>
+      </c>
       <c r="V62" t="s">
         <v>949</v>
       </c>
@@ -12514,7 +13026,7 @@
       <c r="N63" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O63" s="45" t="str">
+      <c r="O63" s="79" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por País de destino</v>
       </c>
@@ -12525,6 +13037,9 @@
       <c r="R63" s="48">
         <v>110</v>
       </c>
+      <c r="S63" s="15" t="s">
+        <v>1029</v>
+      </c>
       <c r="V63" t="s">
         <v>949</v>
       </c>
@@ -12558,7 +13073,7 @@
       <c r="N64" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O64" s="45" t="str">
+      <c r="O64" s="80" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por País de destino</v>
       </c>
@@ -12569,6 +13084,9 @@
       <c r="R64" s="48">
         <v>110</v>
       </c>
+      <c r="S64" s="15" t="s">
+        <v>1030</v>
+      </c>
       <c r="V64" t="s">
         <v>949</v>
       </c>
@@ -12602,7 +13120,7 @@
       <c r="N65" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O65" s="57" t="str">
+      <c r="O65" s="81" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por País de destino</v>
       </c>
@@ -12613,7 +13131,9 @@
       <c r="R65" s="60">
         <v>110</v>
       </c>
-      <c r="S65" s="15"/>
+      <c r="S65" s="15" t="s">
+        <v>1031</v>
+      </c>
       <c r="V65" t="s">
         <v>949</v>
       </c>
@@ -12647,7 +13167,7 @@
       <c r="N66" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O66" s="45" t="str">
+      <c r="O66" s="79" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por Cultivo</v>
       </c>
@@ -12658,6 +13178,9 @@
       <c r="R66" s="48">
         <v>1</v>
       </c>
+      <c r="S66" t="s">
+        <v>1032</v>
+      </c>
       <c r="V66" t="s">
         <v>949</v>
       </c>
@@ -12691,7 +13214,7 @@
       <c r="N67" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O67" s="45" t="str">
+      <c r="O67" s="80" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por Cultivo</v>
       </c>
@@ -12702,7 +13225,9 @@
       <c r="R67" s="48">
         <v>1</v>
       </c>
-      <c r="S67" s="15"/>
+      <c r="S67" t="s">
+        <v>1032</v>
+      </c>
       <c r="V67" t="s">
         <v>949</v>
       </c>
@@ -12736,7 +13261,7 @@
       <c r="N68" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O68" s="45" t="str">
+      <c r="O68" s="81" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por Cultivo</v>
       </c>
@@ -12747,6 +13272,9 @@
       <c r="R68" s="48">
         <v>1</v>
       </c>
+      <c r="S68" t="s">
+        <v>1032</v>
+      </c>
       <c r="V68" t="s">
         <v>949</v>
       </c>
@@ -12768,8 +13296,8 @@
       <c r="J69" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K69" s="41" t="s">
-        <v>10</v>
+      <c r="K69" s="83" t="s">
+        <v>1033</v>
       </c>
       <c r="L69" s="42" t="s">
         <v>70</v>
@@ -12780,7 +13308,7 @@
       <c r="N69" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O69" s="45" t="str">
+      <c r="O69" s="79" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de berries por Cultivo</v>
       </c>
@@ -12791,6 +13319,10 @@
       <c r="R69" s="48">
         <v>7</v>
       </c>
+      <c r="S69" s="15" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T69" s="82"/>
       <c r="V69" t="s">
         <v>949</v>
       </c>
@@ -12812,8 +13344,8 @@
       <c r="J70" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="41" t="s">
-        <v>10</v>
+      <c r="K70" s="83" t="s">
+        <v>1033</v>
       </c>
       <c r="L70" s="42" t="s">
         <v>70</v>
@@ -12824,7 +13356,7 @@
       <c r="N70" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O70" s="45" t="str">
+      <c r="O70" s="80" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de berries por Cultivo</v>
       </c>
@@ -12835,7 +13367,9 @@
       <c r="R70" s="48">
         <v>7</v>
       </c>
-      <c r="S70" s="15"/>
+      <c r="S70" s="15" t="s">
+        <v>1035</v>
+      </c>
       <c r="V70" t="s">
         <v>949</v>
       </c>
@@ -12857,8 +13391,8 @@
       <c r="J71" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K71" s="41" t="s">
-        <v>10</v>
+      <c r="K71" s="83" t="s">
+        <v>1033</v>
       </c>
       <c r="L71" s="42" t="s">
         <v>70</v>
@@ -12869,7 +13403,7 @@
       <c r="N71" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O71" s="45" t="str">
+      <c r="O71" s="81" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de berries por Cultivo</v>
       </c>
@@ -12880,6 +13414,9 @@
       <c r="R71" s="48">
         <v>7</v>
       </c>
+      <c r="S71" s="15" t="s">
+        <v>1036</v>
+      </c>
       <c r="V71" t="s">
         <v>949</v>
       </c>
@@ -12902,7 +13439,7 @@
         <v>4</v>
       </c>
       <c r="K72" s="41" t="s">
-        <v>177</v>
+        <v>1037</v>
       </c>
       <c r="L72" s="42" t="s">
         <v>70</v>
@@ -12913,9 +13450,9 @@
       <c r="N72" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O72" s="45" t="str">
+      <c r="O72" s="79" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
+        <v>Comparativo mensual de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
       <c r="P72" s="46"/>
       <c r="Q72" s="47">
@@ -12924,6 +13461,9 @@
       <c r="R72" s="48">
         <v>7</v>
       </c>
+      <c r="S72" s="15" t="s">
+        <v>1038</v>
+      </c>
       <c r="V72" t="s">
         <v>949</v>
       </c>
@@ -12946,7 +13486,7 @@
         <v>4</v>
       </c>
       <c r="K73" s="41" t="s">
-        <v>177</v>
+        <v>1037</v>
       </c>
       <c r="L73" s="42" t="s">
         <v>70</v>
@@ -12957,9 +13497,9 @@
       <c r="N73" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O73" s="45" t="str">
+      <c r="O73" s="80" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
+        <v>Comparativo mensual de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
       <c r="P73" s="46"/>
       <c r="Q73" s="47">
@@ -12968,6 +13508,9 @@
       <c r="R73" s="48">
         <v>7</v>
       </c>
+      <c r="S73" s="15" t="s">
+        <v>1039</v>
+      </c>
       <c r="V73" t="s">
         <v>949</v>
       </c>
@@ -12990,7 +13533,7 @@
         <v>4</v>
       </c>
       <c r="K74" s="41" t="s">
-        <v>177</v>
+        <v>1037</v>
       </c>
       <c r="L74" s="42" t="s">
         <v>70</v>
@@ -13001,9 +13544,9 @@
       <c r="N74" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O74" s="45" t="str">
+      <c r="O74" s="81" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
+        <v>Comparativo mensual de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
       <c r="P74" s="46"/>
       <c r="Q74" s="47">
@@ -13012,6 +13555,9 @@
       <c r="R74" s="48">
         <v>7</v>
       </c>
+      <c r="S74" s="15" t="s">
+        <v>1040</v>
+      </c>
       <c r="V74" t="s">
         <v>949</v>
       </c>
@@ -13034,7 +13580,7 @@
         <v>4</v>
       </c>
       <c r="K75" s="41" t="s">
-        <v>181</v>
+        <v>1044</v>
       </c>
       <c r="L75" s="42" t="s">
         <v>70</v>
@@ -13045,9 +13591,9 @@
       <c r="N75" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O75" s="45" t="str">
+      <c r="O75" s="79" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual de Exportaciones en Kg de Berries por Cultivo y Procesamiento</v>
+        <v>Comparativo mensual de Exportaciones en Kg de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
       <c r="P75" s="46"/>
       <c r="Q75" s="47">
@@ -13056,6 +13602,9 @@
       <c r="R75" s="48">
         <v>7</v>
       </c>
+      <c r="S75" s="15" t="s">
+        <v>1041</v>
+      </c>
       <c r="V75" t="s">
         <v>949</v>
       </c>
@@ -13078,7 +13627,7 @@
         <v>4</v>
       </c>
       <c r="K76" s="41" t="s">
-        <v>181</v>
+        <v>1044</v>
       </c>
       <c r="L76" s="42" t="s">
         <v>70</v>
@@ -13089,9 +13638,9 @@
       <c r="N76" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O76" s="45" t="str">
+      <c r="O76" s="80" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual de Exportaciones en USD de Berries por Cultivo y Procesamiento</v>
+        <v>Comparativo mensual de Exportaciones en USD de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
       <c r="P76" s="46"/>
       <c r="Q76" s="47">
@@ -13100,6 +13649,9 @@
       <c r="R76" s="48">
         <v>7</v>
       </c>
+      <c r="S76" s="15" t="s">
+        <v>1042</v>
+      </c>
       <c r="V76" t="s">
         <v>949</v>
       </c>
@@ -13122,7 +13674,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="41" t="s">
-        <v>181</v>
+        <v>1044</v>
       </c>
       <c r="L77" s="42" t="s">
         <v>70</v>
@@ -13133,9 +13685,9 @@
       <c r="N77" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O77" s="45" t="str">
+      <c r="O77" s="81" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento</v>
+        <v>Comparativo mensual de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
       <c r="P77" s="46"/>
       <c r="Q77" s="47">
@@ -13144,6 +13696,9 @@
       <c r="R77" s="48">
         <v>7</v>
       </c>
+      <c r="S77" s="15" t="s">
+        <v>1043</v>
+      </c>
       <c r="V77" t="s">
         <v>949</v>
       </c>
@@ -13177,7 +13732,7 @@
       <c r="N78" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O78" s="45" t="str">
+      <c r="O78" s="79" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de Berries por Cultivo y País de Destino</v>
       </c>
@@ -13188,6 +13743,9 @@
       <c r="R78" s="48">
         <v>7</v>
       </c>
+      <c r="S78" s="15" t="s">
+        <v>1045</v>
+      </c>
       <c r="V78" t="s">
         <v>949</v>
       </c>
@@ -13221,7 +13779,7 @@
       <c r="N79" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O79" s="45" t="str">
+      <c r="O79" s="80" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en USD de Berries por Cultivo y País de Destino</v>
       </c>
@@ -13232,6 +13790,9 @@
       <c r="R79" s="48">
         <v>7</v>
       </c>
+      <c r="S79" s="15" t="s">
+        <v>1046</v>
+      </c>
       <c r="V79" t="s">
         <v>949</v>
       </c>
@@ -13265,7 +13826,7 @@
       <c r="N80" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O80" s="45" t="str">
+      <c r="O80" s="81" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de Berries por Cultivo y País de Destino</v>
       </c>
@@ -13276,6 +13837,9 @@
       <c r="R80" s="48">
         <v>7</v>
       </c>
+      <c r="S80" s="15" t="s">
+        <v>1047</v>
+      </c>
       <c r="V80" t="s">
         <v>949</v>
       </c>
@@ -13288,7 +13852,6 @@
         <v>141</v>
       </c>
       <c r="H81" s="9">
-        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I81" s="40" t="s">
@@ -13309,7 +13872,7 @@
       <c r="N81" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O81" s="45" t="str">
+      <c r="O81" s="79" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -13320,6 +13883,9 @@
       <c r="R81" s="48">
         <v>110</v>
       </c>
+      <c r="S81" s="15" t="s">
+        <v>1048</v>
+      </c>
       <c r="V81" t="s">
         <v>949</v>
       </c>
@@ -13353,7 +13919,7 @@
       <c r="N82" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O82" s="45" t="str">
+      <c r="O82" s="80" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -13364,6 +13930,9 @@
       <c r="R82" s="48">
         <v>110</v>
       </c>
+      <c r="S82" s="15" t="s">
+        <v>1049</v>
+      </c>
       <c r="V82" t="s">
         <v>949</v>
       </c>
@@ -13397,7 +13966,7 @@
       <c r="N83" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O83" s="45" t="str">
+      <c r="O83" s="81" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -13408,6 +13977,9 @@
       <c r="R83" s="48">
         <v>110</v>
       </c>
+      <c r="S83" s="15" t="s">
+        <v>1050</v>
+      </c>
       <c r="V83" t="s">
         <v>949</v>
       </c>
@@ -13441,7 +14013,7 @@
       <c r="N84" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O84" s="45" t="str">
+      <c r="O84" s="79" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por Año</v>
       </c>
@@ -13452,6 +14024,9 @@
       <c r="R84" s="48">
         <v>110</v>
       </c>
+      <c r="S84" t="s">
+        <v>1051</v>
+      </c>
       <c r="V84" t="s">
         <v>949</v>
       </c>
@@ -13485,7 +14060,7 @@
       <c r="N85" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O85" s="45" t="str">
+      <c r="O85" s="80" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por Año</v>
       </c>
@@ -13496,6 +14071,9 @@
       <c r="R85" s="48">
         <v>110</v>
       </c>
+      <c r="S85" t="s">
+        <v>1052</v>
+      </c>
       <c r="V85" t="s">
         <v>949</v>
       </c>
@@ -13529,7 +14107,7 @@
       <c r="N86" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O86" s="45" t="str">
+      <c r="O86" s="81" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por Año</v>
       </c>
@@ -13540,6 +14118,9 @@
       <c r="R86" s="48">
         <v>110</v>
       </c>
+      <c r="S86" t="s">
+        <v>1053</v>
+      </c>
       <c r="V86" t="s">
         <v>949</v>
       </c>
@@ -13552,7 +14133,6 @@
         <v>147</v>
       </c>
       <c r="H87" s="9">
-        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="I87" s="40" t="s">
@@ -13573,7 +14153,7 @@
       <c r="N87" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O87" s="45" t="str">
+      <c r="O87" s="79" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por Procesamiento</v>
       </c>
@@ -13584,6 +14164,9 @@
       <c r="R87" s="48">
         <v>110</v>
       </c>
+      <c r="S87" s="15" t="s">
+        <v>1054</v>
+      </c>
       <c r="V87" t="s">
         <v>949</v>
       </c>
@@ -13617,7 +14200,7 @@
       <c r="N88" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O88" s="45" t="str">
+      <c r="O88" s="80" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por Procesamiento</v>
       </c>
@@ -13628,6 +14211,9 @@
       <c r="R88" s="48">
         <v>110</v>
       </c>
+      <c r="S88" s="15" t="s">
+        <v>1055</v>
+      </c>
       <c r="V88" t="s">
         <v>949</v>
       </c>
@@ -13661,7 +14247,7 @@
       <c r="N89" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O89" s="45" t="str">
+      <c r="O89" s="81" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por Procesamiento</v>
       </c>
@@ -13672,6 +14258,9 @@
       <c r="R89" s="48">
         <v>110</v>
       </c>
+      <c r="S89" s="15" t="s">
+        <v>1056</v>
+      </c>
       <c r="V89" t="s">
         <v>949</v>
       </c>
@@ -13705,7 +14294,7 @@
       <c r="N90" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O90" s="45" t="str">
+      <c r="O90" s="79" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por País de destino</v>
       </c>
@@ -13716,6 +14305,9 @@
       <c r="R90" s="48">
         <v>110</v>
       </c>
+      <c r="S90" s="15" t="s">
+        <v>1057</v>
+      </c>
       <c r="V90" t="s">
         <v>949</v>
       </c>
@@ -13749,7 +14341,7 @@
       <c r="N91" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O91" s="45" t="str">
+      <c r="O91" s="80" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por País de destino</v>
       </c>
@@ -13760,6 +14352,9 @@
       <c r="R91" s="48">
         <v>110</v>
       </c>
+      <c r="S91" s="15" t="s">
+        <v>1058</v>
+      </c>
       <c r="V91" t="s">
         <v>949</v>
       </c>
@@ -13793,7 +14388,7 @@
       <c r="N92" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="O92" s="57" t="str">
+      <c r="O92" s="81" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por País de destino</v>
       </c>
@@ -13804,6 +14399,9 @@
       <c r="R92" s="60">
         <v>110</v>
       </c>
+      <c r="S92" s="15" t="s">
+        <v>1059</v>
+      </c>
       <c r="V92" t="s">
         <v>949</v>
       </c>
@@ -13825,8 +14423,8 @@
       <c r="J93" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K93" s="41" t="s">
-        <v>10</v>
+      <c r="K93" s="83" t="s">
+        <v>1033</v>
       </c>
       <c r="L93" s="42" t="s">
         <v>70</v>
@@ -13837,7 +14435,7 @@
       <c r="N93" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O93" s="45" t="str">
+      <c r="O93" s="79" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por Cultivo</v>
       </c>
@@ -13848,6 +14446,9 @@
       <c r="R93" s="48">
         <v>1</v>
       </c>
+      <c r="S93" s="15" t="s">
+        <v>1063</v>
+      </c>
       <c r="V93" t="s">
         <v>949</v>
       </c>
@@ -13869,8 +14470,8 @@
       <c r="J94" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="41" t="s">
-        <v>10</v>
+      <c r="K94" s="83" t="s">
+        <v>1033</v>
       </c>
       <c r="L94" s="42" t="s">
         <v>70</v>
@@ -13881,7 +14482,7 @@
       <c r="N94" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O94" s="45" t="str">
+      <c r="O94" s="80" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por Cultivo</v>
       </c>
@@ -13892,6 +14493,9 @@
       <c r="R94" s="48">
         <v>1</v>
       </c>
+      <c r="S94" s="15" t="s">
+        <v>1064</v>
+      </c>
       <c r="V94" t="s">
         <v>949</v>
       </c>
@@ -13913,8 +14517,8 @@
       <c r="J95" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K95" s="41" t="s">
-        <v>10</v>
+      <c r="K95" s="83" t="s">
+        <v>1033</v>
       </c>
       <c r="L95" s="42" t="s">
         <v>70</v>
@@ -13925,7 +14529,7 @@
       <c r="N95" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O95" s="45" t="str">
+      <c r="O95" s="81" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por Cultivo</v>
       </c>
@@ -13936,6 +14540,9 @@
       <c r="R95" s="48">
         <v>1</v>
       </c>
+      <c r="S95" s="15" t="s">
+        <v>1065</v>
+      </c>
       <c r="V95" t="s">
         <v>949</v>
       </c>
@@ -13957,8 +14564,8 @@
       <c r="J96" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K96" s="41" t="s">
-        <v>10</v>
+      <c r="K96" s="83" t="s">
+        <v>1033</v>
       </c>
       <c r="L96" s="42" t="s">
         <v>70</v>
@@ -13969,7 +14576,7 @@
       <c r="N96" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O96" s="45" t="str">
+      <c r="O96" s="79" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de berries por Cultivo</v>
       </c>
@@ -13980,6 +14587,9 @@
       <c r="R96" s="48">
         <v>7</v>
       </c>
+      <c r="S96" s="15" t="s">
+        <v>1060</v>
+      </c>
       <c r="V96" t="s">
         <v>949</v>
       </c>
@@ -14001,8 +14611,8 @@
       <c r="J97" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K97" s="41" t="s">
-        <v>10</v>
+      <c r="K97" s="83" t="s">
+        <v>1033</v>
       </c>
       <c r="L97" s="42" t="s">
         <v>70</v>
@@ -14013,7 +14623,7 @@
       <c r="N97" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O97" s="45" t="str">
+      <c r="O97" s="80" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de berries por Cultivo</v>
       </c>
@@ -14024,6 +14634,9 @@
       <c r="R97" s="48">
         <v>7</v>
       </c>
+      <c r="S97" s="15" t="s">
+        <v>1061</v>
+      </c>
       <c r="V97" t="s">
         <v>949</v>
       </c>
@@ -14045,8 +14658,8 @@
       <c r="J98" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K98" s="41" t="s">
-        <v>10</v>
+      <c r="K98" s="83" t="s">
+        <v>1033</v>
       </c>
       <c r="L98" s="42" t="s">
         <v>70</v>
@@ -14057,7 +14670,7 @@
       <c r="N98" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O98" s="45" t="str">
+      <c r="O98" s="81" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de berries por Cultivo</v>
       </c>
@@ -14068,6 +14681,9 @@
       <c r="R98" s="48">
         <v>7</v>
       </c>
+      <c r="S98" s="15" t="s">
+        <v>1062</v>
+      </c>
       <c r="V98" t="s">
         <v>949</v>
       </c>
@@ -14090,7 +14706,7 @@
         <v>4</v>
       </c>
       <c r="K99" s="41" t="s">
-        <v>177</v>
+        <v>1037</v>
       </c>
       <c r="L99" s="42" t="s">
         <v>70</v>
@@ -14101,9 +14717,9 @@
       <c r="N99" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O99" s="45" t="str">
+      <c r="O99" s="79" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual últimos dos años de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
+        <v>Comparativo mensual últimos dos años de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
       <c r="P99" s="46"/>
       <c r="Q99" s="47">
@@ -14112,6 +14728,9 @@
       <c r="R99" s="48">
         <v>7</v>
       </c>
+      <c r="S99" s="15" t="s">
+        <v>1066</v>
+      </c>
       <c r="V99" t="s">
         <v>949</v>
       </c>
@@ -14134,7 +14753,7 @@
         <v>4</v>
       </c>
       <c r="K100" s="41" t="s">
-        <v>177</v>
+        <v>1037</v>
       </c>
       <c r="L100" s="42" t="s">
         <v>70</v>
@@ -14145,9 +14764,9 @@
       <c r="N100" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O100" s="45" t="str">
+      <c r="O100" s="80" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual últimos dos años de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
+        <v>Comparativo mensual últimos dos años de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
       <c r="P100" s="46"/>
       <c r="Q100" s="47">
@@ -14156,6 +14775,9 @@
       <c r="R100" s="48">
         <v>7</v>
       </c>
+      <c r="S100" s="15" t="s">
+        <v>1067</v>
+      </c>
       <c r="V100" t="s">
         <v>949</v>
       </c>
@@ -14178,7 +14800,7 @@
         <v>4</v>
       </c>
       <c r="K101" s="41" t="s">
-        <v>177</v>
+        <v>1037</v>
       </c>
       <c r="L101" s="42" t="s">
         <v>70</v>
@@ -14189,9 +14811,9 @@
       <c r="N101" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O101" s="45" t="str">
+      <c r="O101" s="81" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
+        <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
       <c r="P101" s="46"/>
       <c r="Q101" s="47">
@@ -14200,6 +14822,9 @@
       <c r="R101" s="48">
         <v>7</v>
       </c>
+      <c r="S101" s="15" t="s">
+        <v>1068</v>
+      </c>
       <c r="V101" t="s">
         <v>949</v>
       </c>
@@ -14222,7 +14847,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="41" t="s">
-        <v>181</v>
+        <v>1044</v>
       </c>
       <c r="L102" s="42" t="s">
         <v>70</v>
@@ -14233,9 +14858,9 @@
       <c r="N102" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O102" s="45" t="str">
+      <c r="O102" s="79" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual últimos dos años de Exportaciones en Kg de Berries por Cultivo y Procesamiento</v>
+        <v>Comparativo mensual últimos dos años de Exportaciones en Kg de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
       <c r="P102" s="46"/>
       <c r="Q102" s="47">
@@ -14244,6 +14869,9 @@
       <c r="R102" s="48">
         <v>7</v>
       </c>
+      <c r="S102" s="15" t="s">
+        <v>1069</v>
+      </c>
       <c r="V102" t="s">
         <v>949</v>
       </c>
@@ -14266,7 +14894,7 @@
         <v>4</v>
       </c>
       <c r="K103" s="41" t="s">
-        <v>181</v>
+        <v>1044</v>
       </c>
       <c r="L103" s="42" t="s">
         <v>70</v>
@@ -14277,9 +14905,9 @@
       <c r="N103" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O103" s="45" t="str">
+      <c r="O103" s="80" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual últimos dos años de Exportaciones en USD de Berries por Cultivo y Procesamiento</v>
+        <v>Comparativo mensual últimos dos años de Exportaciones en USD de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
       <c r="P103" s="46"/>
       <c r="Q103" s="47">
@@ -14288,6 +14916,9 @@
       <c r="R103" s="48">
         <v>7</v>
       </c>
+      <c r="S103" s="15" t="s">
+        <v>1070</v>
+      </c>
       <c r="V103" t="s">
         <v>949</v>
       </c>
@@ -14310,7 +14941,7 @@
         <v>4</v>
       </c>
       <c r="K104" s="41" t="s">
-        <v>181</v>
+        <v>1044</v>
       </c>
       <c r="L104" s="42" t="s">
         <v>70</v>
@@ -14321,9 +14952,9 @@
       <c r="N104" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O104" s="45" t="str">
+      <c r="O104" s="81" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
-        <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento</v>
+        <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
       <c r="P104" s="46"/>
       <c r="Q104" s="47">
@@ -14332,6 +14963,9 @@
       <c r="R104" s="48">
         <v>7</v>
       </c>
+      <c r="S104" s="15" t="s">
+        <v>1071</v>
+      </c>
       <c r="V104" t="s">
         <v>949</v>
       </c>
@@ -14365,7 +14999,7 @@
       <c r="N105" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O105" s="45" t="str">
+      <c r="O105" s="79" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de Berries por Cultivo y País de Destino</v>
       </c>
@@ -14376,6 +15010,9 @@
       <c r="R105" s="48">
         <v>7</v>
       </c>
+      <c r="S105" s="15" t="s">
+        <v>1072</v>
+      </c>
       <c r="V105" t="s">
         <v>949</v>
       </c>
@@ -14409,7 +15046,7 @@
       <c r="N106" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O106" s="45" t="str">
+      <c r="O106" s="80" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de Berries por Cultivo y País de Destino</v>
       </c>
@@ -14420,6 +15057,9 @@
       <c r="R106" s="48">
         <v>7</v>
       </c>
+      <c r="S106" s="15" t="s">
+        <v>1073</v>
+      </c>
       <c r="V106" t="s">
         <v>949</v>
       </c>
@@ -14453,7 +15093,7 @@
       <c r="N107" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O107" s="45" t="str">
+      <c r="O107" s="81" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de Berries por Cultivo y País de Destino</v>
       </c>
@@ -14464,6 +15104,9 @@
       <c r="R107" s="48">
         <v>7</v>
       </c>
+      <c r="S107" s="15" t="s">
+        <v>1074</v>
+      </c>
       <c r="V107" t="s">
         <v>949</v>
       </c>
@@ -14497,7 +15140,7 @@
       <c r="N108" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O108" s="45" t="str">
+      <c r="O108" s="79" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -14508,6 +15151,9 @@
       <c r="R108" s="48">
         <v>110</v>
       </c>
+      <c r="S108" s="15" t="s">
+        <v>1075</v>
+      </c>
       <c r="V108" t="s">
         <v>949</v>
       </c>
@@ -14541,7 +15187,7 @@
       <c r="N109" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O109" s="45" t="str">
+      <c r="O109" s="80" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -14552,6 +15198,9 @@
       <c r="R109" s="48">
         <v>110</v>
       </c>
+      <c r="S109" s="15" t="s">
+        <v>1076</v>
+      </c>
       <c r="V109" t="s">
         <v>949</v>
       </c>
@@ -14585,7 +15234,7 @@
       <c r="N110" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O110" s="45" t="str">
+      <c r="O110" s="81" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
@@ -14596,6 +15245,9 @@
       <c r="R110" s="48">
         <v>110</v>
       </c>
+      <c r="S110" s="15" t="s">
+        <v>1077</v>
+      </c>
       <c r="V110" t="s">
         <v>949</v>
       </c>
@@ -14629,7 +15281,7 @@
       <c r="N111" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O111" s="45" t="str">
+      <c r="O111" s="79" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por Año</v>
       </c>
@@ -14640,6 +15292,9 @@
       <c r="R111" s="48">
         <v>110</v>
       </c>
+      <c r="S111" s="15" t="s">
+        <v>1078</v>
+      </c>
       <c r="V111" t="s">
         <v>949</v>
       </c>
@@ -14673,7 +15328,7 @@
       <c r="N112" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O112" s="45" t="str">
+      <c r="O112" s="80" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por Año</v>
       </c>
@@ -14684,6 +15339,9 @@
       <c r="R112" s="48">
         <v>110</v>
       </c>
+      <c r="S112" s="15" t="s">
+        <v>1079</v>
+      </c>
       <c r="V112" t="s">
         <v>949</v>
       </c>
@@ -14717,7 +15375,7 @@
       <c r="N113" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O113" s="45" t="str">
+      <c r="O113" s="81" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por Año</v>
       </c>
@@ -14728,6 +15386,9 @@
       <c r="R113" s="48">
         <v>110</v>
       </c>
+      <c r="S113" s="15" t="s">
+        <v>1080</v>
+      </c>
       <c r="V113" t="s">
         <v>949</v>
       </c>
@@ -14761,7 +15422,7 @@
       <c r="N114" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O114" s="45" t="str">
+      <c r="O114" s="79" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por Procesamiento</v>
       </c>
@@ -14772,6 +15433,9 @@
       <c r="R114" s="48">
         <v>110</v>
       </c>
+      <c r="S114" s="15" t="s">
+        <v>1081</v>
+      </c>
       <c r="V114" t="s">
         <v>949</v>
       </c>
@@ -14805,7 +15469,7 @@
       <c r="N115" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O115" s="45" t="str">
+      <c r="O115" s="80" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por Procesamiento</v>
       </c>
@@ -14816,6 +15480,9 @@
       <c r="R115" s="48">
         <v>110</v>
       </c>
+      <c r="S115" s="15" t="s">
+        <v>1082</v>
+      </c>
       <c r="V115" t="s">
         <v>949</v>
       </c>
@@ -14849,7 +15516,7 @@
       <c r="N116" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O116" s="45" t="str">
+      <c r="O116" s="81" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por Procesamiento</v>
       </c>
@@ -14860,6 +15527,9 @@
       <c r="R116" s="48">
         <v>110</v>
       </c>
+      <c r="S116" s="15" t="s">
+        <v>1083</v>
+      </c>
       <c r="V116" t="s">
         <v>949</v>
       </c>
@@ -14893,7 +15563,7 @@
       <c r="N117" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O117" s="45" t="str">
+      <c r="O117" s="79" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por País de destino</v>
       </c>
@@ -14904,6 +15574,9 @@
       <c r="R117" s="48">
         <v>110</v>
       </c>
+      <c r="S117" s="15" t="s">
+        <v>1084</v>
+      </c>
       <c r="V117" t="s">
         <v>949</v>
       </c>
@@ -14937,7 +15610,7 @@
       <c r="N118" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O118" s="45" t="str">
+      <c r="O118" s="80" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por País de destino</v>
       </c>
@@ -14948,6 +15621,9 @@
       <c r="R118" s="48">
         <v>110</v>
       </c>
+      <c r="S118" s="15" t="s">
+        <v>1085</v>
+      </c>
       <c r="V118" t="s">
         <v>949</v>
       </c>
@@ -14981,7 +15657,7 @@
       <c r="N119" s="56" t="s">
         <v>935</v>
       </c>
-      <c r="O119" s="57" t="str">
+      <c r="O119" s="81" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por País de destino</v>
       </c>
@@ -14992,6 +15668,9 @@
       <c r="R119" s="60">
         <v>110</v>
       </c>
+      <c r="S119" s="15" t="s">
+        <v>1086</v>
+      </c>
       <c r="V119" t="s">
         <v>949</v>
       </c>
@@ -15036,6 +15715,9 @@
       <c r="R120" s="48">
         <v>1</v>
       </c>
+      <c r="S120" s="15" t="s">
+        <v>1087</v>
+      </c>
       <c r="V120" t="s">
         <v>949</v>
       </c>
@@ -15080,6 +15762,9 @@
       <c r="R121" s="48">
         <v>1</v>
       </c>
+      <c r="S121" s="15" t="s">
+        <v>1088</v>
+      </c>
       <c r="V121" t="s">
         <v>949</v>
       </c>
@@ -15124,6 +15809,9 @@
       <c r="R122" s="48">
         <v>1</v>
       </c>
+      <c r="S122" s="15" t="s">
+        <v>1089</v>
+      </c>
       <c r="V122" t="s">
         <v>949</v>
       </c>
@@ -15158,8 +15846,8 @@
         <v>950</v>
       </c>
       <c r="O123" s="45" t="str">
-        <f>"Valumen mensual de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
-        <v>Valumen mensual de Exportaciones en Kg de berries por Cultivo</v>
+        <f>"Volumen mensual de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
+        <v>Volumen mensual de Exportaciones en Kg de berries por Cultivo</v>
       </c>
       <c r="P123" s="46"/>
       <c r="Q123" s="47">
@@ -15168,6 +15856,9 @@
       <c r="R123" s="48">
         <v>7</v>
       </c>
+      <c r="S123" s="15" t="s">
+        <v>1090</v>
+      </c>
       <c r="V123" t="s">
         <v>949</v>
       </c>
@@ -15212,6 +15903,9 @@
       <c r="R124" s="48">
         <v>7</v>
       </c>
+      <c r="S124" s="15" t="s">
+        <v>1091</v>
+      </c>
       <c r="V124" t="s">
         <v>949</v>
       </c>
@@ -15256,6 +15950,9 @@
       <c r="R125" s="48">
         <v>7</v>
       </c>
+      <c r="S125" s="15" t="s">
+        <v>1092</v>
+      </c>
       <c r="V125" t="s">
         <v>949</v>
       </c>
@@ -15300,6 +15997,9 @@
       <c r="R126" s="48">
         <v>7</v>
       </c>
+      <c r="S126" s="15" t="s">
+        <v>1093</v>
+      </c>
       <c r="V126" t="s">
         <v>949</v>
       </c>
@@ -15344,6 +16044,9 @@
       <c r="R127" s="48">
         <v>7</v>
       </c>
+      <c r="S127" s="15" t="s">
+        <v>1094</v>
+      </c>
       <c r="V127" t="s">
         <v>949</v>
       </c>
@@ -15388,6 +16091,9 @@
       <c r="R128" s="48">
         <v>7</v>
       </c>
+      <c r="S128" s="15" t="s">
+        <v>1095</v>
+      </c>
       <c r="V128" t="s">
         <v>949</v>
       </c>
@@ -15432,6 +16138,9 @@
       <c r="R129" s="48">
         <v>7</v>
       </c>
+      <c r="S129" s="15" t="s">
+        <v>1096</v>
+      </c>
       <c r="V129" t="s">
         <v>949</v>
       </c>
@@ -15476,6 +16185,9 @@
       <c r="R130" s="48">
         <v>7</v>
       </c>
+      <c r="S130" s="15" t="s">
+        <v>1097</v>
+      </c>
       <c r="V130" t="s">
         <v>949</v>
       </c>
@@ -15520,6 +16232,9 @@
       <c r="R131" s="48">
         <v>7</v>
       </c>
+      <c r="S131" s="15" t="s">
+        <v>1098</v>
+      </c>
       <c r="V131" t="s">
         <v>949</v>
       </c>
@@ -15564,6 +16279,9 @@
       <c r="R132" s="48">
         <v>110</v>
       </c>
+      <c r="S132" s="15" t="s">
+        <v>1099</v>
+      </c>
       <c r="V132" t="s">
         <v>949</v>
       </c>
@@ -15608,6 +16326,9 @@
       <c r="R133" s="48">
         <v>110</v>
       </c>
+      <c r="S133" s="15" t="s">
+        <v>1100</v>
+      </c>
       <c r="V133" t="s">
         <v>949</v>
       </c>
@@ -15652,6 +16373,9 @@
       <c r="R134" s="48">
         <v>110</v>
       </c>
+      <c r="S134" s="15" t="s">
+        <v>1101</v>
+      </c>
       <c r="V134" t="s">
         <v>949</v>
       </c>
@@ -15696,6 +16420,9 @@
       <c r="R135" s="48">
         <v>110</v>
       </c>
+      <c r="S135" s="15" t="s">
+        <v>1102</v>
+      </c>
       <c r="V135" t="s">
         <v>949</v>
       </c>
@@ -15740,6 +16467,9 @@
       <c r="R136" s="48">
         <v>110</v>
       </c>
+      <c r="S136" s="15" t="s">
+        <v>1103</v>
+      </c>
       <c r="V136" t="s">
         <v>949</v>
       </c>
@@ -15784,6 +16514,9 @@
       <c r="R137" s="48">
         <v>110</v>
       </c>
+      <c r="S137" s="15" t="s">
+        <v>1104</v>
+      </c>
       <c r="V137" t="s">
         <v>949</v>
       </c>
@@ -15828,6 +16561,9 @@
       <c r="R138" s="48">
         <v>110</v>
       </c>
+      <c r="S138" s="15" t="s">
+        <v>1105</v>
+      </c>
       <c r="V138" t="s">
         <v>949</v>
       </c>
@@ -15872,6 +16608,9 @@
       <c r="R139" s="76">
         <v>110</v>
       </c>
+      <c r="S139" s="15" t="s">
+        <v>1106</v>
+      </c>
       <c r="V139" t="s">
         <v>949</v>
       </c>
@@ -15916,7 +16655,9 @@
       <c r="R140" s="60">
         <v>110</v>
       </c>
-      <c r="S140" s="77"/>
+      <c r="S140" s="84" t="s">
+        <v>1107</v>
+      </c>
       <c r="T140" s="77"/>
       <c r="U140" s="77"/>
       <c r="V140" t="s">
@@ -15940,8 +16681,8 @@
       <c r="J141" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K141" s="41" t="s">
-        <v>10</v>
+      <c r="K141" s="83" t="s">
+        <v>1108</v>
       </c>
       <c r="L141" s="42" t="s">
         <v>625</v>
@@ -15963,7 +16704,9 @@
       <c r="R141" s="48">
         <v>6</v>
       </c>
-      <c r="S141" s="77"/>
+      <c r="S141" s="84" t="s">
+        <v>1109</v>
+      </c>
       <c r="T141" s="77"/>
       <c r="U141" s="77"/>
       <c r="V141" t="s">
@@ -15987,8 +16730,8 @@
       <c r="J142" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K142" s="41" t="s">
-        <v>10</v>
+      <c r="K142" s="83" t="s">
+        <v>1108</v>
       </c>
       <c r="L142" s="42" t="s">
         <v>625</v>
@@ -16010,7 +16753,9 @@
       <c r="R142" s="48">
         <v>6</v>
       </c>
-      <c r="S142" s="77"/>
+      <c r="S142" s="84" t="s">
+        <v>1110</v>
+      </c>
       <c r="T142" s="77"/>
       <c r="U142" s="77"/>
       <c r="V142" t="s">
@@ -16034,8 +16779,8 @@
       <c r="J143" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K143" s="41" t="s">
-        <v>10</v>
+      <c r="K143" s="83" t="s">
+        <v>1108</v>
       </c>
       <c r="L143" s="42" t="s">
         <v>625</v>
@@ -16057,7 +16802,9 @@
       <c r="R143" s="48">
         <v>6</v>
       </c>
-      <c r="S143" s="77"/>
+      <c r="S143" s="84" t="s">
+        <v>1111</v>
+      </c>
       <c r="T143" s="77"/>
       <c r="U143" s="77"/>
       <c r="V143" t="s">
@@ -16082,7 +16829,7 @@
         <v>4</v>
       </c>
       <c r="K144" s="41" t="s">
-        <v>177</v>
+        <v>1115</v>
       </c>
       <c r="L144" s="42" t="s">
         <v>70</v>
@@ -16104,7 +16851,9 @@
       <c r="R144" s="48">
         <v>6</v>
       </c>
-      <c r="S144" s="77"/>
+      <c r="S144" s="84" t="s">
+        <v>1112</v>
+      </c>
       <c r="T144" s="77"/>
       <c r="U144" s="77"/>
       <c r="V144" t="s">
@@ -16129,7 +16878,7 @@
         <v>4</v>
       </c>
       <c r="K145" s="41" t="s">
-        <v>177</v>
+        <v>1115</v>
       </c>
       <c r="L145" s="42" t="s">
         <v>70</v>
@@ -16151,7 +16900,9 @@
       <c r="R145" s="48">
         <v>6</v>
       </c>
-      <c r="S145" s="77"/>
+      <c r="S145" s="84" t="s">
+        <v>1113</v>
+      </c>
       <c r="T145" s="77"/>
       <c r="U145" s="77"/>
       <c r="V145" t="s">
@@ -16175,8 +16926,8 @@
       <c r="J146" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K146" s="52" t="s">
-        <v>177</v>
+      <c r="K146" s="41" t="s">
+        <v>1115</v>
       </c>
       <c r="L146" s="54" t="s">
         <v>70</v>
@@ -16198,7 +16949,9 @@
       <c r="R146" s="60">
         <v>6</v>
       </c>
-      <c r="S146" s="77"/>
+      <c r="S146" s="84" t="s">
+        <v>1114</v>
+      </c>
       <c r="T146" s="77"/>
       <c r="U146" s="77"/>
       <c r="V146" t="s">
@@ -16220,17 +16973,101 @@
     <hyperlink ref="S26" r:id="rId6" xr:uid="{3731900F-7698-49B4-9CF2-1349DC3386CE}"/>
     <hyperlink ref="S15" r:id="rId7" xr:uid="{FC0D2906-AD12-4496-8DA2-0CD563667CB0}"/>
     <hyperlink ref="S18" r:id="rId8" xr:uid="{4A164919-AFBB-4724-9E06-8C5D16EA7A0A}"/>
+    <hyperlink ref="S41" r:id="rId9" xr:uid="{AA7B7BAC-DCFB-4DA5-94A2-4C9FC74BF06A}"/>
+    <hyperlink ref="S42" r:id="rId10" xr:uid="{140FB9D6-6B08-42DA-B195-59300C1C563E}"/>
+    <hyperlink ref="S43" r:id="rId11" xr:uid="{3DFEF9F9-E090-4384-B5A1-1DE34C6186E3}"/>
+    <hyperlink ref="S44" r:id="rId12" xr:uid="{DC2EC6ED-264A-40F6-BFD0-F4831959A076}"/>
+    <hyperlink ref="S56" r:id="rId13" xr:uid="{792B04A5-6447-4B8F-A5D7-C4785C67BC58}"/>
+    <hyperlink ref="S60" r:id="rId14" xr:uid="{F8FBB1A4-9405-400A-B596-D30F2255D5D4}"/>
+    <hyperlink ref="S61" r:id="rId15" xr:uid="{F14DAA16-2206-4E01-931F-F916100E93B9}"/>
+    <hyperlink ref="S62" r:id="rId16" xr:uid="{E654B389-7159-47A9-AD0E-69D711425CD0}"/>
+    <hyperlink ref="S63" r:id="rId17" xr:uid="{6F59DD78-E79A-41B4-AB26-E44238A08374}"/>
+    <hyperlink ref="S64" r:id="rId18" xr:uid="{01A3A8EF-4269-4592-AB2E-F0865F943963}"/>
+    <hyperlink ref="S69" r:id="rId19" xr:uid="{EB8B6851-B573-445B-B9B1-A4A3E14F5ACE}"/>
+    <hyperlink ref="S71" r:id="rId20" xr:uid="{35ED0CD8-C178-4A56-A845-D60410487C26}"/>
+    <hyperlink ref="S72" r:id="rId21" xr:uid="{6D68FEFC-89B1-49F4-B080-8DEE40EB6BAD}"/>
+    <hyperlink ref="S73" r:id="rId22" xr:uid="{EFEF7BF8-F3A8-4E76-BAEE-1C924ECC1583}"/>
+    <hyperlink ref="S74" r:id="rId23" xr:uid="{24BFAE0A-121E-4340-BDAF-3B6DE7894C63}"/>
+    <hyperlink ref="S75" r:id="rId24" xr:uid="{63383D14-F069-4298-94B1-F323656A4DB3}"/>
+    <hyperlink ref="S76" r:id="rId25" xr:uid="{AB4DC9DD-97C4-467E-B108-B7DFF5EDDF89}"/>
+    <hyperlink ref="S77" r:id="rId26" xr:uid="{46FCB078-4927-4DCF-AC31-6773F776F0B1}"/>
+    <hyperlink ref="S78" r:id="rId27" xr:uid="{FB3305E0-20B0-404E-8041-515BD855B1CE}"/>
+    <hyperlink ref="S79" r:id="rId28" xr:uid="{85081A43-D38E-44DE-83E4-B0548171F455}"/>
+    <hyperlink ref="S80" r:id="rId29" xr:uid="{2F893D31-2121-4598-A030-63B7580692A6}"/>
+    <hyperlink ref="S81" r:id="rId30" xr:uid="{AC3324F9-A513-41D0-9C98-0D752138EAE7}"/>
+    <hyperlink ref="S82" r:id="rId31" xr:uid="{1A2E31E9-DC0E-4690-86F4-9AD35C37DAF4}"/>
+    <hyperlink ref="S83" r:id="rId32" xr:uid="{F4BF8B80-F618-4568-ADC9-665354456562}"/>
+    <hyperlink ref="S87" r:id="rId33" xr:uid="{64C2D2AA-043B-41E1-B941-66F5E35EB472}"/>
+    <hyperlink ref="S88" r:id="rId34" xr:uid="{A8FF3DB2-7CDD-48F8-B497-7FC262DB0897}"/>
+    <hyperlink ref="S89" r:id="rId35" xr:uid="{F060C1D8-2D37-4559-A090-0C89CA6B9DF2}"/>
+    <hyperlink ref="S90" r:id="rId36" xr:uid="{B9909DC0-7527-40B5-A7FD-370458CB49D2}"/>
+    <hyperlink ref="S91" r:id="rId37" xr:uid="{7F6402D0-31DC-45AA-846D-21A2A0752916}"/>
+    <hyperlink ref="S92" r:id="rId38" xr:uid="{13462F16-1488-45BA-8C73-C23C5E4B96F9}"/>
+    <hyperlink ref="S96" r:id="rId39" xr:uid="{CC173AA4-2485-4E6C-8FAC-05E724843750}"/>
+    <hyperlink ref="S97" r:id="rId40" xr:uid="{D77F183B-826B-47CE-9F8D-D4A442C4A62F}"/>
+    <hyperlink ref="S98" r:id="rId41" xr:uid="{6832C325-DB67-47B0-BE1D-BDBEE7AE9A42}"/>
+    <hyperlink ref="S93" r:id="rId42" xr:uid="{1B39369E-1872-4C6A-8498-2E0F7F256D75}"/>
+    <hyperlink ref="S94" r:id="rId43" xr:uid="{71167866-4317-448D-8400-297AF98DF054}"/>
+    <hyperlink ref="S95" r:id="rId44" xr:uid="{1C451EA8-5F9F-41B2-99DD-DD43C0837A28}"/>
+    <hyperlink ref="S99" r:id="rId45" xr:uid="{BEB17728-5EEE-43B5-862F-357E686EAB6C}"/>
+    <hyperlink ref="S100" r:id="rId46" xr:uid="{C81138A4-FC34-4A30-8555-0D306A6F4FDE}"/>
+    <hyperlink ref="S101" r:id="rId47" xr:uid="{ACEEF2FE-C5EE-4E42-BC45-803BBE3640A0}"/>
+    <hyperlink ref="S102" r:id="rId48" xr:uid="{16A1AC9E-C55A-43C0-8702-3B1463E1E182}"/>
+    <hyperlink ref="S103" r:id="rId49" xr:uid="{66F3999E-2C4E-45F0-84F1-C0A0C1FA0F41}"/>
+    <hyperlink ref="S104" r:id="rId50" xr:uid="{DE4EC9CA-CCCF-437C-9C14-9ADCE52C25AE}"/>
+    <hyperlink ref="S105" r:id="rId51" xr:uid="{F9C80E50-857D-414E-8128-0288648A4071}"/>
+    <hyperlink ref="S106" r:id="rId52" xr:uid="{EAB3202E-7796-4841-9381-95249F0D1EA6}"/>
+    <hyperlink ref="S107" r:id="rId53" xr:uid="{16F76CE1-73AF-4DDE-9F59-CA10AC66FD2F}"/>
+    <hyperlink ref="S108" r:id="rId54" xr:uid="{A86E9668-0DBD-4F35-B121-AAC399602CD4}"/>
+    <hyperlink ref="S109" r:id="rId55" xr:uid="{299A979C-728F-489A-B427-45E1D4126A74}"/>
+    <hyperlink ref="S110" r:id="rId56" xr:uid="{8B6136DE-FA74-467D-B591-3545881D3F8F}"/>
+    <hyperlink ref="S111" r:id="rId57" xr:uid="{B81FF752-4431-4FB6-91EE-8F25A0A61A2C}"/>
+    <hyperlink ref="S112" r:id="rId58" xr:uid="{93F9F7EE-6518-4C4F-8031-CF6D71FAC12E}"/>
+    <hyperlink ref="S113" r:id="rId59" xr:uid="{97C58B6B-52AE-4380-A2D7-B34D1FA22CAD}"/>
+    <hyperlink ref="S114" r:id="rId60" xr:uid="{16E1A70A-42BC-4837-B7A2-E2ACFA6AB478}"/>
+    <hyperlink ref="S115" r:id="rId61" xr:uid="{1D1BBC63-D3CB-4A62-8258-44AA977EDFAC}"/>
+    <hyperlink ref="S116" r:id="rId62" xr:uid="{A91D4270-26A0-491A-BC75-2105EBC23C84}"/>
+    <hyperlink ref="S117" r:id="rId63" xr:uid="{E58DAE36-E035-4655-98F4-BD13FAAC7C62}"/>
+    <hyperlink ref="S118" r:id="rId64" xr:uid="{D5A5EDCD-2377-4495-B527-A5A1217FD73B}"/>
+    <hyperlink ref="S119" r:id="rId65" xr:uid="{B763B26F-ADAC-4A6A-8382-0B41A33126B9}"/>
+    <hyperlink ref="S120" r:id="rId66" xr:uid="{57A0C9FC-9E39-4E31-B801-A3B171535849}"/>
+    <hyperlink ref="S121" r:id="rId67" xr:uid="{F3532A5E-DB89-43D9-9657-D74D31572088}"/>
+    <hyperlink ref="S122" r:id="rId68" xr:uid="{6EFB6527-6DB3-4DAE-AB03-5FD774F30FA4}"/>
+    <hyperlink ref="S123" r:id="rId69" xr:uid="{CA68C421-6FAA-416D-84F9-B6A715B7C1FB}"/>
+    <hyperlink ref="S124" r:id="rId70" xr:uid="{BB0B9557-DD15-4C5C-AFC0-AFAD352C618D}"/>
+    <hyperlink ref="S125" r:id="rId71" xr:uid="{5CE5E8E8-C7AB-4665-A26A-D8C4F813C518}"/>
+    <hyperlink ref="S126" r:id="rId72" xr:uid="{E7E0C75A-99EA-4D04-872E-F6A372364887}"/>
+    <hyperlink ref="S127" r:id="rId73" xr:uid="{3B63280D-47D0-4964-A201-4D3DDF3B781A}"/>
+    <hyperlink ref="S128" r:id="rId74" xr:uid="{9C3106CD-9551-493E-9FD0-5622405EBD7F}"/>
+    <hyperlink ref="S129" r:id="rId75" xr:uid="{E9EC645F-D7A9-4EC5-8098-9C00C0BB84E0}"/>
+    <hyperlink ref="S130" r:id="rId76" xr:uid="{4698A89A-0ABD-41B5-9567-3886DE5AED1A}"/>
+    <hyperlink ref="S131" r:id="rId77" xr:uid="{C98EFA8F-A2F1-4B80-A8A2-99E386884066}"/>
+    <hyperlink ref="S132" r:id="rId78" xr:uid="{23BA8AC4-E407-42BA-9CC3-8E442722FC0D}"/>
+    <hyperlink ref="S133" r:id="rId79" xr:uid="{634DFEC8-686C-4233-8084-C3C121FBE6C1}"/>
+    <hyperlink ref="S134" r:id="rId80" xr:uid="{4BD79C5A-203C-49A9-AA0B-CB0716F100C0}"/>
+    <hyperlink ref="S135" r:id="rId81" xr:uid="{116AA143-3E0B-403D-BB21-E29D1863DFD8}"/>
+    <hyperlink ref="S136" r:id="rId82" xr:uid="{4FFAF665-A0A0-4A41-993B-4A1EFDEDD97E}"/>
+    <hyperlink ref="S137" r:id="rId83" xr:uid="{F4704E8A-C839-47A0-826D-FC7333C85D5E}"/>
+    <hyperlink ref="S138" r:id="rId84" xr:uid="{44966BDA-5CB8-4532-815A-14421F816E81}"/>
+    <hyperlink ref="S139" r:id="rId85" xr:uid="{66B69BC6-B24E-4659-B4CE-D01873ECA6F3}"/>
+    <hyperlink ref="S140" r:id="rId86" xr:uid="{C13B0C14-B7AD-48A3-B06D-065C6864720F}"/>
+    <hyperlink ref="S141" r:id="rId87" xr:uid="{71669452-46C4-4ECB-B5F6-CA5082932F79}"/>
+    <hyperlink ref="S142" r:id="rId88" xr:uid="{34138367-7577-4209-9F42-7E33BB078CA5}"/>
+    <hyperlink ref="S143" r:id="rId89" xr:uid="{3066703E-F79D-4DE8-B9DB-D5F75CE81835}"/>
+    <hyperlink ref="S144" r:id="rId90" xr:uid="{C337587C-5076-4B3A-A6D2-FD9CC472AF41}"/>
+    <hyperlink ref="S145" r:id="rId91" xr:uid="{EDDD3F10-5107-4371-8738-CEEB3327608B}"/>
+    <hyperlink ref="S146" r:id="rId92" xr:uid="{5214C2B2-64D2-4F18-8DA9-4C5264C299D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId93"/>
+  <drawing r:id="rId94"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId95"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId12"/>
+        <x14:slicer r:id="rId96"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -22670,7 +23507,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C111">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
+++ b/Agricultura/MODELOS/MODELO 4.16 Integrado_Exportaciones_mensual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C3B19A-EB87-4414-9964-4971CE6BEC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD1E8E-826F-411A-99B0-7B41133D1B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
   </bookViews>
@@ -3777,7 +3777,7 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3883,9 +3883,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3916,9 +3913,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3959,9 +3953,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3996,16 +3987,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -4242,6 +4223,16 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9589,14 +9580,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}" name="Cod_categoría" displayName="Cod_categoría" ref="B2:C111" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}" name="Cod_categoría" displayName="Cod_categoría" ref="B2:C111" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="B2:C111" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C115">
     <sortCondition ref="B2:B115"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00A0CACF-8DA8-4EE1-B69E-D20C0D0CED17}" name="Cultivo" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{EC636045-613B-42E5-9C90-E988441BFFD8}" name="Id_Cultivo" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00A0CACF-8DA8-4EE1-B69E-D20C0D0CED17}" name="Cultivo" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{EC636045-613B-42E5-9C90-E988441BFFD8}" name="Id_Cultivo" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9619,36 +9610,36 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}" name="Cod_procesamiento10" displayName="Cod_procesamiento10" ref="B2:C15" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}" name="Cod_procesamiento10" displayName="Cod_procesamiento10" ref="B2:C15" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="B2:C15" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{DFB3BE9C-F8B5-4C1F-822D-968586718286}" name="Tipo de cultivo" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A7D9713B-9CA4-4D1C-8E9D-992303A697CD}" name="Id_Categoría" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{DFB3BE9C-F8B5-4C1F-822D-968586718286}" name="Tipo de cultivo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A7D9713B-9CA4-4D1C-8E9D-992303A697CD}" name="Id_Categoría" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}" name="Cod_procesamiento" displayName="Cod_procesamiento" ref="B2:C8" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}" name="Cod_procesamiento" displayName="Cod_procesamiento" ref="B2:C8" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B2:C8" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{EE422AE0-5FF5-4FF7-873B-6BC93A7C476F}" name="Procesamiento" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{775A3C91-EDE1-40BA-A829-E5FE120F9D39}" name="Id_Procesamiento" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EE422AE0-5FF5-4FF7-873B-6BC93A7C476F}" name="Procesamiento" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{775A3C91-EDE1-40BA-A829-E5FE120F9D39}" name="Id_Procesamiento" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9DEBE778-257A-4F77-B952-D29267D603FC}" name="Cod_país" displayName="Cod_país" ref="B2:C161" totalsRowShown="0" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9DEBE778-257A-4F77-B952-D29267D603FC}" name="Cod_país" displayName="Cod_país" ref="B2:C161" totalsRowShown="0" tableBorderDxfId="2">
   <autoFilter ref="B2:C161" xr:uid="{9DEBE778-257A-4F77-B952-D29267D603FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C161">
     <sortCondition ref="B3:B161"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{11154556-49A8-4584-BF27-62A0E30BE082}" name="País de Destino" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{08D23EDC-011A-480F-92F3-73D7B20C32A8}" name="Código_País" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{11154556-49A8-4584-BF27-62A0E30BE082}" name="País de Destino" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{08D23EDC-011A-480F-92F3-73D7B20C32A8}" name="Código_País" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10350,10 +10341,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79036886-1897-4BCD-BB4E-BCAD8551FFA8}">
   <dimension ref="B1:W147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K147" sqref="K147"/>
+      <selection pane="bottomLeft" activeCell="N145" sqref="N145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10385,7 +10376,7 @@
       <c r="B1" s="35" t="s">
         <v>945</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -10394,7 +10385,7 @@
       <c r="B2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="64" t="s">
         <v>947</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -10405,7 +10396,7 @@
       <c r="B3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="64" t="s">
         <v>946</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -10416,7 +10407,7 @@
       <c r="B4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="64" t="s">
         <v>948</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -10435,7 +10426,7 @@
       <c r="B6" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10443,7 +10434,7 @@
       <c r="B7" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="64" t="s">
         <v>935</v>
       </c>
     </row>
@@ -10451,7 +10442,7 @@
       <c r="B8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="64" t="s">
         <v>950</v>
       </c>
     </row>
@@ -10459,13 +10450,13 @@
       <c r="B9" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
         <v>621</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="64"/>
       <c r="P10" s="2">
         <f>SUM(P14:P574)</f>
         <v>0</v>
@@ -10559,15 +10550,15 @@
       <c r="N12" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O12" s="79" t="str">
+      <c r="O12" s="76" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por Cultivo</v>
       </c>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47">
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46">
         <v>0</v>
       </c>
-      <c r="R12" s="48">
+      <c r="R12" s="47">
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
@@ -10607,15 +10598,15 @@
       <c r="N13" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O13" s="80" t="str">
+      <c r="O13" s="77" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por Cultivo</v>
       </c>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47">
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46">
         <v>0</v>
       </c>
-      <c r="R13" s="48">
+      <c r="R13" s="47">
         <v>1</v>
       </c>
       <c r="S13" s="15" t="s">
@@ -10654,15 +10645,15 @@
       <c r="N14" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O14" s="81" t="str">
+      <c r="O14" s="78" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por Cultivo</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47">
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46">
         <v>0</v>
       </c>
-      <c r="R14" s="48">
+      <c r="R14" s="47">
         <v>1</v>
       </c>
       <c r="S14" s="15" t="s">
@@ -10683,7 +10674,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="41" t="s">
@@ -10701,15 +10692,15 @@
       <c r="N15" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O15" s="79" t="str">
+      <c r="O15" s="76" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de berries por Cultivo</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="47">
+      <c r="P15" s="45"/>
+      <c r="Q15" s="46">
         <v>0</v>
       </c>
-      <c r="R15" s="48">
+      <c r="R15" s="47">
         <v>7</v>
       </c>
       <c r="S15" s="15" t="s">
@@ -10730,7 +10721,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="41" t="s">
@@ -10748,15 +10739,15 @@
       <c r="N16" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O16" s="80" t="str">
+      <c r="O16" s="77" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de berries por Cultivo</v>
       </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="47">
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46">
         <v>0</v>
       </c>
-      <c r="R16" s="48">
+      <c r="R16" s="47">
         <v>7</v>
       </c>
       <c r="S16" s="15" t="s">
@@ -10777,7 +10768,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="41" t="s">
@@ -10795,15 +10786,15 @@
       <c r="N17" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O17" s="81" t="str">
+      <c r="O17" s="78" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de berries por Cultivo</v>
       </c>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="47">
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46">
         <v>0</v>
       </c>
-      <c r="R17" s="48">
+      <c r="R17" s="47">
         <v>7</v>
       </c>
       <c r="S17" s="15" t="s">
@@ -10824,7 +10815,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="41" t="s">
@@ -10842,15 +10833,15 @@
       <c r="N18" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O18" s="79" t="str">
+      <c r="O18" s="76" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47">
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46">
         <v>0</v>
       </c>
-      <c r="R18" s="48">
+      <c r="R18" s="47">
         <v>7</v>
       </c>
       <c r="S18" s="15" t="s">
@@ -10871,7 +10862,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J19" s="41" t="s">
@@ -10889,15 +10880,15 @@
       <c r="N19" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O19" s="80" t="str">
+      <c r="O19" s="77" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47">
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46">
         <v>0</v>
       </c>
-      <c r="R19" s="48">
+      <c r="R19" s="47">
         <v>7</v>
       </c>
       <c r="S19" s="15" t="s">
@@ -10918,7 +10909,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J20" s="41" t="s">
@@ -10936,15 +10927,15 @@
       <c r="N20" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O20" s="81" t="str">
+      <c r="O20" s="78" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47">
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46">
         <v>0</v>
       </c>
-      <c r="R20" s="48">
+      <c r="R20" s="47">
         <v>7</v>
       </c>
       <c r="S20" s="15" t="s">
@@ -10965,7 +10956,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J21" s="41" t="s">
@@ -10983,15 +10974,15 @@
       <c r="N21" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O21" s="79" t="str">
+      <c r="O21" s="76" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en Kg de Berries por Cultivo y Procesamiento</v>
       </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="47">
+      <c r="P21" s="45"/>
+      <c r="Q21" s="46">
         <v>0</v>
       </c>
-      <c r="R21" s="48">
+      <c r="R21" s="47">
         <v>7</v>
       </c>
       <c r="S21" s="15" t="s">
@@ -11012,7 +11003,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J22" s="41" t="s">
@@ -11030,15 +11021,15 @@
       <c r="N22" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O22" s="80" t="str">
+      <c r="O22" s="77" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD de Berries por Cultivo y Procesamiento</v>
       </c>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="47">
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46">
         <v>0</v>
       </c>
-      <c r="R22" s="48">
+      <c r="R22" s="47">
         <v>7</v>
       </c>
       <c r="S22" s="15" t="s">
@@ -11059,7 +11050,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J23" s="41" t="s">
@@ -11077,15 +11068,15 @@
       <c r="N23" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O23" s="81" t="str">
+      <c r="O23" s="78" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento</v>
       </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47">
+      <c r="P23" s="45"/>
+      <c r="Q23" s="46">
         <v>0</v>
       </c>
-      <c r="R23" s="48">
+      <c r="R23" s="47">
         <v>7</v>
       </c>
       <c r="S23" s="15" t="s">
@@ -11106,7 +11097,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J24" s="41" t="s">
@@ -11124,15 +11115,15 @@
       <c r="N24" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O24" s="79" t="str">
+      <c r="O24" s="76" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47">
+      <c r="P24" s="45"/>
+      <c r="Q24" s="46">
         <v>0</v>
       </c>
-      <c r="R24" s="48">
+      <c r="R24" s="47">
         <v>7</v>
       </c>
       <c r="S24" s="15" t="s">
@@ -11153,7 +11144,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J25" s="41" t="s">
@@ -11171,15 +11162,15 @@
       <c r="N25" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O25" s="80" t="str">
+      <c r="O25" s="77" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47">
+      <c r="P25" s="45"/>
+      <c r="Q25" s="46">
         <v>0</v>
       </c>
-      <c r="R25" s="48">
+      <c r="R25" s="47">
         <v>7</v>
       </c>
       <c r="S25" s="15" t="s">
@@ -11200,7 +11191,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J26" s="41" t="s">
@@ -11218,15 +11209,15 @@
       <c r="N26" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O26" s="81" t="str">
+      <c r="O26" s="78" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="47">
+      <c r="P26" s="45"/>
+      <c r="Q26" s="46">
         <v>0</v>
       </c>
-      <c r="R26" s="48">
+      <c r="R26" s="47">
         <v>7</v>
       </c>
       <c r="S26" s="15" t="s">
@@ -11265,15 +11256,15 @@
       <c r="N27" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O27" s="79" t="str">
+      <c r="O27" s="76" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="47">
+      <c r="P27" s="45"/>
+      <c r="Q27" s="46">
         <v>0</v>
       </c>
-      <c r="R27" s="48">
+      <c r="R27" s="47">
         <v>110</v>
       </c>
       <c r="S27" s="15" t="s">
@@ -11312,15 +11303,15 @@
       <c r="N28" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O28" s="80" t="str">
+      <c r="O28" s="77" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="47">
+      <c r="P28" s="45"/>
+      <c r="Q28" s="46">
         <v>0</v>
       </c>
-      <c r="R28" s="48">
+      <c r="R28" s="47">
         <v>110</v>
       </c>
       <c r="S28" s="15" t="s">
@@ -11359,15 +11350,15 @@
       <c r="N29" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="81" t="str">
+      <c r="O29" s="78" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="47">
+      <c r="P29" s="45"/>
+      <c r="Q29" s="46">
         <v>0</v>
       </c>
-      <c r="R29" s="48">
+      <c r="R29" s="47">
         <v>110</v>
       </c>
       <c r="S29" s="15" t="s">
@@ -11394,7 +11385,7 @@
       <c r="J30" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="50" t="s">
+      <c r="K30" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L30" s="42" t="s">
@@ -11406,15 +11397,15 @@
       <c r="N30" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O30" s="79" t="str">
+      <c r="O30" s="76" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por Año</v>
       </c>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="47">
+      <c r="P30" s="45"/>
+      <c r="Q30" s="46">
         <v>0</v>
       </c>
-      <c r="R30" s="48">
+      <c r="R30" s="47">
         <v>110</v>
       </c>
       <c r="S30" s="15" t="s">
@@ -11444,7 +11435,7 @@
       <c r="J31" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="50" t="s">
+      <c r="K31" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L31" s="42" t="s">
@@ -11456,15 +11447,15 @@
       <c r="N31" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="80" t="str">
+      <c r="O31" s="77" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por Año</v>
       </c>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="47">
+      <c r="P31" s="45"/>
+      <c r="Q31" s="46">
         <v>0</v>
       </c>
-      <c r="R31" s="48">
+      <c r="R31" s="47">
         <v>110</v>
       </c>
       <c r="S31" s="15" t="s">
@@ -11494,7 +11485,7 @@
       <c r="J32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="50" t="s">
+      <c r="K32" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L32" s="42" t="s">
@@ -11506,15 +11497,15 @@
       <c r="N32" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="81" t="str">
+      <c r="O32" s="78" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por Año</v>
       </c>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="47">
+      <c r="P32" s="45"/>
+      <c r="Q32" s="46">
         <v>0</v>
       </c>
-      <c r="R32" s="48">
+      <c r="R32" s="47">
         <v>110</v>
       </c>
       <c r="S32" s="15" t="s">
@@ -11544,7 +11535,7 @@
       <c r="J33" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L33" s="42" t="s">
@@ -11556,15 +11547,15 @@
       <c r="N33" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="79" t="str">
+      <c r="O33" s="76" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="47">
+      <c r="P33" s="45"/>
+      <c r="Q33" s="46">
         <v>0</v>
       </c>
-      <c r="R33" s="48">
+      <c r="R33" s="47">
         <v>110</v>
       </c>
       <c r="S33" s="15" t="s">
@@ -11594,7 +11585,7 @@
       <c r="J34" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L34" s="42" t="s">
@@ -11606,15 +11597,15 @@
       <c r="N34" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="80" t="str">
+      <c r="O34" s="77" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por Procesamiento</v>
       </c>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="47">
+      <c r="P34" s="45"/>
+      <c r="Q34" s="46">
         <v>0</v>
       </c>
-      <c r="R34" s="48">
+      <c r="R34" s="47">
         <v>110</v>
       </c>
       <c r="S34" s="15" t="s">
@@ -11644,7 +11635,7 @@
       <c r="J35" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="50" t="s">
+      <c r="K35" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L35" s="42" t="s">
@@ -11656,15 +11647,15 @@
       <c r="N35" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="81" t="str">
+      <c r="O35" s="78" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="47">
+      <c r="P35" s="45"/>
+      <c r="Q35" s="46">
         <v>0</v>
       </c>
-      <c r="R35" s="48">
+      <c r="R35" s="47">
         <v>110</v>
       </c>
       <c r="S35" s="15" t="s">
@@ -11694,7 +11685,7 @@
       <c r="J36" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="50" t="s">
+      <c r="K36" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L36" s="42" t="s">
@@ -11706,15 +11697,15 @@
       <c r="N36" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="79" t="str">
+      <c r="O36" s="76" t="str">
         <f>"Evolución mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en Kg de arándano por País de destino</v>
       </c>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="47">
+      <c r="P36" s="45"/>
+      <c r="Q36" s="46">
         <v>0</v>
       </c>
-      <c r="R36" s="48">
+      <c r="R36" s="47">
         <v>110</v>
       </c>
       <c r="S36" s="15" t="s">
@@ -11744,7 +11735,7 @@
       <c r="J37" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="50" t="s">
+      <c r="K37" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L37" s="42" t="s">
@@ -11756,15 +11747,15 @@
       <c r="N37" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O37" s="80" t="str">
+      <c r="O37" s="77" t="str">
         <f>"Evolución mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD de arándano por País de destino</v>
       </c>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="47">
+      <c r="P37" s="45"/>
+      <c r="Q37" s="46">
         <v>0</v>
       </c>
-      <c r="R37" s="48">
+      <c r="R37" s="47">
         <v>110</v>
       </c>
       <c r="S37" s="15" t="s">
@@ -11788,33 +11779,33 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="52" t="s">
+      <c r="J38" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="53" t="s">
+      <c r="K38" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="L38" s="54" t="s">
+      <c r="L38" s="53" t="s">
         <v>621</v>
       </c>
-      <c r="M38" s="55" t="s">
+      <c r="M38" s="54" t="s">
         <v>70</v>
       </c>
       <c r="N38" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O38" s="81" t="str">
+      <c r="O38" s="78" t="str">
         <f>"Evolución mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Evolución mensual de Exportaciones en USD/Kg de arándano por País de destino</v>
       </c>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="59">
+      <c r="P38" s="56"/>
+      <c r="Q38" s="57">
         <v>0</v>
       </c>
-      <c r="R38" s="60">
+      <c r="R38" s="58">
         <v>110</v>
       </c>
       <c r="S38" s="15" t="s">
@@ -11856,15 +11847,15 @@
       <c r="N39" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O39" s="79" t="str">
+      <c r="O39" s="76" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por Cultivo</v>
       </c>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="47">
+      <c r="P39" s="45"/>
+      <c r="Q39" s="46">
         <v>0</v>
       </c>
-      <c r="R39" s="48">
+      <c r="R39" s="47">
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
@@ -11906,15 +11897,15 @@
       <c r="N40" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O40" s="80" t="str">
+      <c r="O40" s="77" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por Cultivo</v>
       </c>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="47">
+      <c r="P40" s="45"/>
+      <c r="Q40" s="46">
         <v>0</v>
       </c>
-      <c r="R40" s="48">
+      <c r="R40" s="47">
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
@@ -11956,15 +11947,15 @@
       <c r="N41" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O41" s="81" t="str">
+      <c r="O41" s="78" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por Cultivo</v>
       </c>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="47">
+      <c r="P41" s="45"/>
+      <c r="Q41" s="46">
         <v>0</v>
       </c>
-      <c r="R41" s="48">
+      <c r="R41" s="47">
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
@@ -11988,7 +11979,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="I42" s="49" t="s">
+      <c r="I42" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J42" s="41" t="s">
@@ -12006,15 +11997,15 @@
       <c r="N42" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O42" s="79" t="str">
+      <c r="O42" s="76" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de berries por Cultivo</v>
       </c>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="47">
+      <c r="P42" s="45"/>
+      <c r="Q42" s="46">
         <v>0</v>
       </c>
-      <c r="R42" s="48">
+      <c r="R42" s="47">
         <v>7</v>
       </c>
       <c r="S42" s="15" t="s">
@@ -12038,7 +12029,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J43" s="41" t="s">
@@ -12056,15 +12047,15 @@
       <c r="N43" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O43" s="80" t="str">
+      <c r="O43" s="77" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de berries por Cultivo</v>
       </c>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="47">
+      <c r="P43" s="45"/>
+      <c r="Q43" s="46">
         <v>0</v>
       </c>
-      <c r="R43" s="48">
+      <c r="R43" s="47">
         <v>7</v>
       </c>
       <c r="S43" s="15" t="s">
@@ -12088,7 +12079,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I44" s="49" t="s">
+      <c r="I44" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J44" s="41" t="s">
@@ -12106,15 +12097,15 @@
       <c r="N44" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O44" s="81" t="str">
+      <c r="O44" s="78" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de berries por Cultivo</v>
       </c>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="47">
+      <c r="P44" s="45"/>
+      <c r="Q44" s="46">
         <v>0</v>
       </c>
-      <c r="R44" s="48">
+      <c r="R44" s="47">
         <v>7</v>
       </c>
       <c r="S44" s="15" t="s">
@@ -12138,7 +12129,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="I45" s="49" t="s">
+      <c r="I45" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J45" s="41" t="s">
@@ -12156,15 +12147,15 @@
       <c r="N45" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O45" s="79" t="str">
+      <c r="O45" s="76" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="47">
+      <c r="P45" s="45"/>
+      <c r="Q45" s="46">
         <v>0</v>
       </c>
-      <c r="R45" s="48">
+      <c r="R45" s="47">
         <v>7</v>
       </c>
       <c r="S45" s="15" t="s">
@@ -12188,7 +12179,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J46" s="41" t="s">
@@ -12206,15 +12197,15 @@
       <c r="N46" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O46" s="80" t="str">
+      <c r="O46" s="77" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="47">
+      <c r="P46" s="45"/>
+      <c r="Q46" s="46">
         <v>0</v>
       </c>
-      <c r="R46" s="48">
+      <c r="R46" s="47">
         <v>7</v>
       </c>
       <c r="S46" s="15" t="s">
@@ -12238,7 +12229,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I47" s="49" t="s">
+      <c r="I47" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J47" s="41" t="s">
@@ -12256,15 +12247,15 @@
       <c r="N47" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O47" s="81" t="str">
+      <c r="O47" s="78" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="47">
+      <c r="P47" s="45"/>
+      <c r="Q47" s="46">
         <v>0</v>
       </c>
-      <c r="R47" s="48">
+      <c r="R47" s="47">
         <v>7</v>
       </c>
       <c r="S47" s="15" t="s">
@@ -12288,7 +12279,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="I48" s="49" t="s">
+      <c r="I48" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J48" s="41" t="s">
@@ -12306,15 +12297,15 @@
       <c r="N48" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O48" s="79" t="str">
+      <c r="O48" s="76" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en Kg de Berries por Cultivo y Procesamiento</v>
       </c>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="47">
+      <c r="P48" s="45"/>
+      <c r="Q48" s="46">
         <v>0</v>
       </c>
-      <c r="R48" s="48">
+      <c r="R48" s="47">
         <v>7</v>
       </c>
       <c r="S48" s="15" t="s">
@@ -12338,7 +12329,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I49" s="49" t="s">
+      <c r="I49" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J49" s="41" t="s">
@@ -12356,15 +12347,15 @@
       <c r="N49" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O49" s="80" t="str">
+      <c r="O49" s="77" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD de Berries por Cultivo y Procesamiento</v>
       </c>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="47">
+      <c r="P49" s="45"/>
+      <c r="Q49" s="46">
         <v>0</v>
       </c>
-      <c r="R49" s="48">
+      <c r="R49" s="47">
         <v>7</v>
       </c>
       <c r="S49" s="15" t="s">
@@ -12388,7 +12379,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I50" s="49" t="s">
+      <c r="I50" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J50" s="41" t="s">
@@ -12406,15 +12397,15 @@
       <c r="N50" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O50" s="81" t="str">
+      <c r="O50" s="78" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento</v>
       </c>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="47">
+      <c r="P50" s="45"/>
+      <c r="Q50" s="46">
         <v>0</v>
       </c>
-      <c r="R50" s="48">
+      <c r="R50" s="47">
         <v>7</v>
       </c>
       <c r="S50" s="15" t="s">
@@ -12438,7 +12429,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I51" s="49" t="s">
+      <c r="I51" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J51" s="41" t="s">
@@ -12456,15 +12447,15 @@
       <c r="N51" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O51" s="79" t="str">
+      <c r="O51" s="76" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="47">
+      <c r="P51" s="45"/>
+      <c r="Q51" s="46">
         <v>0</v>
       </c>
-      <c r="R51" s="48">
+      <c r="R51" s="47">
         <v>7</v>
       </c>
       <c r="S51" s="15" t="s">
@@ -12488,7 +12479,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I52" s="49" t="s">
+      <c r="I52" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J52" s="41" t="s">
@@ -12506,15 +12497,15 @@
       <c r="N52" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O52" s="80" t="str">
+      <c r="O52" s="77" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="47">
+      <c r="P52" s="45"/>
+      <c r="Q52" s="46">
         <v>0</v>
       </c>
-      <c r="R52" s="48">
+      <c r="R52" s="47">
         <v>7</v>
       </c>
       <c r="S52" s="15" t="s">
@@ -12538,7 +12529,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I53" s="49" t="s">
+      <c r="I53" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J53" s="41" t="s">
@@ -12556,15 +12547,15 @@
       <c r="N53" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O53" s="81" t="str">
+      <c r="O53" s="78" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="47">
+      <c r="P53" s="45"/>
+      <c r="Q53" s="46">
         <v>0</v>
       </c>
-      <c r="R53" s="48">
+      <c r="R53" s="47">
         <v>7</v>
       </c>
       <c r="S53" s="15" t="s">
@@ -12603,15 +12594,15 @@
       <c r="N54" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O54" s="79" t="str">
+      <c r="O54" s="76" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="47">
+      <c r="P54" s="45"/>
+      <c r="Q54" s="46">
         <v>0</v>
       </c>
-      <c r="R54" s="48">
+      <c r="R54" s="47">
         <v>110</v>
       </c>
       <c r="S54" s="15" t="s">
@@ -12650,15 +12641,15 @@
       <c r="N55" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O55" s="80" t="str">
+      <c r="O55" s="77" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="47">
+      <c r="P55" s="45"/>
+      <c r="Q55" s="46">
         <v>0</v>
       </c>
-      <c r="R55" s="48">
+      <c r="R55" s="47">
         <v>110</v>
       </c>
       <c r="S55" s="15" t="s">
@@ -12697,15 +12688,15 @@
       <c r="N56" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O56" s="81" t="str">
+      <c r="O56" s="78" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="47">
+      <c r="P56" s="45"/>
+      <c r="Q56" s="46">
         <v>0</v>
       </c>
-      <c r="R56" s="48">
+      <c r="R56" s="47">
         <v>110</v>
       </c>
       <c r="S56" s="15" t="s">
@@ -12732,7 +12723,7 @@
       <c r="J57" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="50" t="s">
+      <c r="K57" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L57" s="42" t="s">
@@ -12744,15 +12735,15 @@
       <c r="N57" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O57" s="79" t="str">
+      <c r="O57" s="76" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por Año</v>
       </c>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="47">
+      <c r="P57" s="45"/>
+      <c r="Q57" s="46">
         <v>0</v>
       </c>
-      <c r="R57" s="48">
+      <c r="R57" s="47">
         <v>110</v>
       </c>
       <c r="S57" s="15" t="s">
@@ -12779,7 +12770,7 @@
       <c r="J58" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="50" t="s">
+      <c r="K58" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L58" s="42" t="s">
@@ -12791,15 +12782,15 @@
       <c r="N58" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O58" s="80" t="str">
+      <c r="O58" s="77" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por Año</v>
       </c>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="47">
+      <c r="P58" s="45"/>
+      <c r="Q58" s="46">
         <v>0</v>
       </c>
-      <c r="R58" s="48">
+      <c r="R58" s="47">
         <v>110</v>
       </c>
       <c r="S58" s="15" t="s">
@@ -12826,7 +12817,7 @@
       <c r="J59" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="50" t="s">
+      <c r="K59" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L59" s="42" t="s">
@@ -12838,15 +12829,15 @@
       <c r="N59" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O59" s="81" t="str">
+      <c r="O59" s="78" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por Año</v>
       </c>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="47">
+      <c r="P59" s="45"/>
+      <c r="Q59" s="46">
         <v>0</v>
       </c>
-      <c r="R59" s="48">
+      <c r="R59" s="47">
         <v>110</v>
       </c>
       <c r="S59" s="15" t="s">
@@ -12873,7 +12864,7 @@
       <c r="J60" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="50" t="s">
+      <c r="K60" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L60" s="42" t="s">
@@ -12885,15 +12876,15 @@
       <c r="N60" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O60" s="79" t="str">
+      <c r="O60" s="76" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="47">
+      <c r="P60" s="45"/>
+      <c r="Q60" s="46">
         <v>0</v>
       </c>
-      <c r="R60" s="48">
+      <c r="R60" s="47">
         <v>110</v>
       </c>
       <c r="S60" s="15" t="s">
@@ -12920,7 +12911,7 @@
       <c r="J61" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K61" s="50" t="s">
+      <c r="K61" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L61" s="42" t="s">
@@ -12932,15 +12923,15 @@
       <c r="N61" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O61" s="80" t="str">
+      <c r="O61" s="77" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por Procesamiento</v>
       </c>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="47">
+      <c r="P61" s="45"/>
+      <c r="Q61" s="46">
         <v>0</v>
       </c>
-      <c r="R61" s="48">
+      <c r="R61" s="47">
         <v>110</v>
       </c>
       <c r="S61" s="15" t="s">
@@ -12967,7 +12958,7 @@
       <c r="J62" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="50" t="s">
+      <c r="K62" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L62" s="42" t="s">
@@ -12979,15 +12970,15 @@
       <c r="N62" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O62" s="81" t="str">
+      <c r="O62" s="78" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="47">
+      <c r="P62" s="45"/>
+      <c r="Q62" s="46">
         <v>0</v>
       </c>
-      <c r="R62" s="48">
+      <c r="R62" s="47">
         <v>110</v>
       </c>
       <c r="S62" s="15" t="s">
@@ -13014,7 +13005,7 @@
       <c r="J63" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K63" s="50" t="s">
+      <c r="K63" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L63" s="42" t="s">
@@ -13026,15 +13017,15 @@
       <c r="N63" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O63" s="79" t="str">
+      <c r="O63" s="76" t="str">
         <f>"Variación mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en Kg de arándano por País de destino</v>
       </c>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="47">
+      <c r="P63" s="45"/>
+      <c r="Q63" s="46">
         <v>0</v>
       </c>
-      <c r="R63" s="48">
+      <c r="R63" s="47">
         <v>110</v>
       </c>
       <c r="S63" s="15" t="s">
@@ -13061,7 +13052,7 @@
       <c r="J64" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K64" s="50" t="s">
+      <c r="K64" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L64" s="42" t="s">
@@ -13073,15 +13064,15 @@
       <c r="N64" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O64" s="80" t="str">
+      <c r="O64" s="77" t="str">
         <f>"Variación mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD de arándano por País de destino</v>
       </c>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="47">
+      <c r="P64" s="45"/>
+      <c r="Q64" s="46">
         <v>0</v>
       </c>
-      <c r="R64" s="48">
+      <c r="R64" s="47">
         <v>110</v>
       </c>
       <c r="S64" s="15" t="s">
@@ -13102,33 +13093,33 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I65" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J65" s="52" t="s">
+      <c r="J65" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K65" s="53" t="s">
+      <c r="K65" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="L65" s="54" t="s">
+      <c r="L65" s="53" t="s">
         <v>621</v>
       </c>
-      <c r="M65" s="55" t="s">
+      <c r="M65" s="54" t="s">
         <v>70</v>
       </c>
       <c r="N65" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O65" s="81" t="str">
+      <c r="O65" s="78" t="str">
         <f>"Variación mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Variación mensual de Exportaciones en USD/Kg de arándano por País de destino</v>
       </c>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="59">
+      <c r="P65" s="56"/>
+      <c r="Q65" s="57">
         <v>0</v>
       </c>
-      <c r="R65" s="60">
+      <c r="R65" s="58">
         <v>110</v>
       </c>
       <c r="S65" s="15" t="s">
@@ -13167,15 +13158,15 @@
       <c r="N66" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O66" s="79" t="str">
+      <c r="O66" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por Cultivo</v>
       </c>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="47">
+      <c r="P66" s="45"/>
+      <c r="Q66" s="46">
         <v>0</v>
       </c>
-      <c r="R66" s="48">
+      <c r="R66" s="47">
         <v>1</v>
       </c>
       <c r="S66" t="s">
@@ -13214,15 +13205,15 @@
       <c r="N67" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O67" s="80" t="str">
+      <c r="O67" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por Cultivo</v>
       </c>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="47">
+      <c r="P67" s="45"/>
+      <c r="Q67" s="46">
         <v>0</v>
       </c>
-      <c r="R67" s="48">
+      <c r="R67" s="47">
         <v>1</v>
       </c>
       <c r="S67" t="s">
@@ -13261,15 +13252,15 @@
       <c r="N68" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O68" s="81" t="str">
+      <c r="O68" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por Cultivo</v>
       </c>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="47">
+      <c r="P68" s="45"/>
+      <c r="Q68" s="46">
         <v>0</v>
       </c>
-      <c r="R68" s="48">
+      <c r="R68" s="47">
         <v>1</v>
       </c>
       <c r="S68" t="s">
@@ -13290,13 +13281,13 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="I69" s="49" t="s">
+      <c r="I69" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J69" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K69" s="83" t="s">
+      <c r="K69" s="80" t="s">
         <v>1033</v>
       </c>
       <c r="L69" s="42" t="s">
@@ -13308,21 +13299,21 @@
       <c r="N69" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O69" s="79" t="str">
+      <c r="O69" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de berries por Cultivo</v>
       </c>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="47">
+      <c r="P69" s="45"/>
+      <c r="Q69" s="46">
         <v>0</v>
       </c>
-      <c r="R69" s="48">
+      <c r="R69" s="47">
         <v>7</v>
       </c>
       <c r="S69" s="15" t="s">
         <v>1034</v>
       </c>
-      <c r="T69" s="82"/>
+      <c r="T69" s="79"/>
       <c r="V69" t="s">
         <v>949</v>
       </c>
@@ -13338,13 +13329,13 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="I70" s="49" t="s">
+      <c r="I70" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J70" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="83" t="s">
+      <c r="K70" s="80" t="s">
         <v>1033</v>
       </c>
       <c r="L70" s="42" t="s">
@@ -13356,15 +13347,15 @@
       <c r="N70" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O70" s="80" t="str">
+      <c r="O70" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de berries por Cultivo</v>
       </c>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="47">
+      <c r="P70" s="45"/>
+      <c r="Q70" s="46">
         <v>0</v>
       </c>
-      <c r="R70" s="48">
+      <c r="R70" s="47">
         <v>7</v>
       </c>
       <c r="S70" s="15" t="s">
@@ -13385,13 +13376,13 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I71" s="49" t="s">
+      <c r="I71" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J71" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K71" s="83" t="s">
+      <c r="K71" s="80" t="s">
         <v>1033</v>
       </c>
       <c r="L71" s="42" t="s">
@@ -13403,15 +13394,15 @@
       <c r="N71" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O71" s="81" t="str">
+      <c r="O71" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de berries por Cultivo</v>
       </c>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="47">
+      <c r="P71" s="45"/>
+      <c r="Q71" s="46">
         <v>0</v>
       </c>
-      <c r="R71" s="48">
+      <c r="R71" s="47">
         <v>7</v>
       </c>
       <c r="S71" s="15" t="s">
@@ -13432,7 +13423,7 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="I72" s="49" t="s">
+      <c r="I72" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J72" s="41" t="s">
@@ -13450,15 +13441,15 @@
       <c r="N72" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O72" s="79" t="str">
+      <c r="O72" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="47">
+      <c r="P72" s="45"/>
+      <c r="Q72" s="46">
         <v>0</v>
       </c>
-      <c r="R72" s="48">
+      <c r="R72" s="47">
         <v>7</v>
       </c>
       <c r="S72" s="15" t="s">
@@ -13479,7 +13470,7 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="I73" s="49" t="s">
+      <c r="I73" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J73" s="41" t="s">
@@ -13497,15 +13488,15 @@
       <c r="N73" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O73" s="80" t="str">
+      <c r="O73" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="47">
+      <c r="P73" s="45"/>
+      <c r="Q73" s="46">
         <v>0</v>
       </c>
-      <c r="R73" s="48">
+      <c r="R73" s="47">
         <v>7</v>
       </c>
       <c r="S73" s="15" t="s">
@@ -13526,7 +13517,7 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="I74" s="49" t="s">
+      <c r="I74" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J74" s="41" t="s">
@@ -13544,15 +13535,15 @@
       <c r="N74" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O74" s="81" t="str">
+      <c r="O74" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="47">
+      <c r="P74" s="45"/>
+      <c r="Q74" s="46">
         <v>0</v>
       </c>
-      <c r="R74" s="48">
+      <c r="R74" s="47">
         <v>7</v>
       </c>
       <c r="S74" s="15" t="s">
@@ -13573,7 +13564,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="I75" s="49" t="s">
+      <c r="I75" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J75" s="41" t="s">
@@ -13591,15 +13582,15 @@
       <c r="N75" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O75" s="79" t="str">
+      <c r="O75" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="47">
+      <c r="P75" s="45"/>
+      <c r="Q75" s="46">
         <v>0</v>
       </c>
-      <c r="R75" s="48">
+      <c r="R75" s="47">
         <v>7</v>
       </c>
       <c r="S75" s="15" t="s">
@@ -13620,7 +13611,7 @@
         <f t="shared" ref="H76:H119" si="1">+ROW()-11</f>
         <v>65</v>
       </c>
-      <c r="I76" s="49" t="s">
+      <c r="I76" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J76" s="41" t="s">
@@ -13638,15 +13629,15 @@
       <c r="N76" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O76" s="80" t="str">
+      <c r="O76" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en USD de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="47">
+      <c r="P76" s="45"/>
+      <c r="Q76" s="46">
         <v>0</v>
       </c>
-      <c r="R76" s="48">
+      <c r="R76" s="47">
         <v>7</v>
       </c>
       <c r="S76" s="15" t="s">
@@ -13667,7 +13658,7 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="I77" s="49" t="s">
+      <c r="I77" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J77" s="41" t="s">
@@ -13685,15 +13676,15 @@
       <c r="N77" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O77" s="81" t="str">
+      <c r="O77" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="47">
+      <c r="P77" s="45"/>
+      <c r="Q77" s="46">
         <v>0</v>
       </c>
-      <c r="R77" s="48">
+      <c r="R77" s="47">
         <v>7</v>
       </c>
       <c r="S77" s="15" t="s">
@@ -13714,7 +13705,7 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="I78" s="49" t="s">
+      <c r="I78" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J78" s="41" t="s">
@@ -13732,15 +13723,15 @@
       <c r="N78" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O78" s="79" t="str">
+      <c r="O78" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="47">
+      <c r="P78" s="45"/>
+      <c r="Q78" s="46">
         <v>0</v>
       </c>
-      <c r="R78" s="48">
+      <c r="R78" s="47">
         <v>7</v>
       </c>
       <c r="S78" s="15" t="s">
@@ -13761,7 +13752,7 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="I79" s="49" t="s">
+      <c r="I79" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J79" s="41" t="s">
@@ -13779,15 +13770,15 @@
       <c r="N79" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O79" s="80" t="str">
+      <c r="O79" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en USD de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="47">
+      <c r="P79" s="45"/>
+      <c r="Q79" s="46">
         <v>0</v>
       </c>
-      <c r="R79" s="48">
+      <c r="R79" s="47">
         <v>7</v>
       </c>
       <c r="S79" s="15" t="s">
@@ -13808,7 +13799,7 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="I80" s="49" t="s">
+      <c r="I80" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J80" s="41" t="s">
@@ -13826,15 +13817,15 @@
       <c r="N80" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O80" s="81" t="str">
+      <c r="O80" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="47">
+      <c r="P80" s="45"/>
+      <c r="Q80" s="46">
         <v>0</v>
       </c>
-      <c r="R80" s="48">
+      <c r="R80" s="47">
         <v>7</v>
       </c>
       <c r="S80" s="15" t="s">
@@ -13872,15 +13863,15 @@
       <c r="N81" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O81" s="79" t="str">
+      <c r="O81" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="47">
+      <c r="P81" s="45"/>
+      <c r="Q81" s="46">
         <v>0</v>
       </c>
-      <c r="R81" s="48">
+      <c r="R81" s="47">
         <v>110</v>
       </c>
       <c r="S81" s="15" t="s">
@@ -13919,15 +13910,15 @@
       <c r="N82" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O82" s="80" t="str">
+      <c r="O82" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="47">
+      <c r="P82" s="45"/>
+      <c r="Q82" s="46">
         <v>0</v>
       </c>
-      <c r="R82" s="48">
+      <c r="R82" s="47">
         <v>110</v>
       </c>
       <c r="S82" s="15" t="s">
@@ -13966,15 +13957,15 @@
       <c r="N83" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O83" s="81" t="str">
+      <c r="O83" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="47">
+      <c r="P83" s="45"/>
+      <c r="Q83" s="46">
         <v>0</v>
       </c>
-      <c r="R83" s="48">
+      <c r="R83" s="47">
         <v>110</v>
       </c>
       <c r="S83" s="15" t="s">
@@ -14001,7 +13992,7 @@
       <c r="J84" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K84" s="50" t="s">
+      <c r="K84" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L84" s="42" t="s">
@@ -14013,15 +14004,15 @@
       <c r="N84" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O84" s="79" t="str">
+      <c r="O84" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por Año</v>
       </c>
-      <c r="P84" s="46"/>
-      <c r="Q84" s="47">
+      <c r="P84" s="45"/>
+      <c r="Q84" s="46">
         <v>0</v>
       </c>
-      <c r="R84" s="48">
+      <c r="R84" s="47">
         <v>110</v>
       </c>
       <c r="S84" t="s">
@@ -14048,7 +14039,7 @@
       <c r="J85" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K85" s="50" t="s">
+      <c r="K85" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L85" s="42" t="s">
@@ -14060,15 +14051,15 @@
       <c r="N85" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O85" s="80" t="str">
+      <c r="O85" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por Año</v>
       </c>
-      <c r="P85" s="46"/>
-      <c r="Q85" s="47">
+      <c r="P85" s="45"/>
+      <c r="Q85" s="46">
         <v>0</v>
       </c>
-      <c r="R85" s="48">
+      <c r="R85" s="47">
         <v>110</v>
       </c>
       <c r="S85" t="s">
@@ -14095,7 +14086,7 @@
       <c r="J86" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K86" s="50" t="s">
+      <c r="K86" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L86" s="42" t="s">
@@ -14107,15 +14098,15 @@
       <c r="N86" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O86" s="81" t="str">
+      <c r="O86" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por Año</v>
       </c>
-      <c r="P86" s="46"/>
-      <c r="Q86" s="47">
+      <c r="P86" s="45"/>
+      <c r="Q86" s="46">
         <v>0</v>
       </c>
-      <c r="R86" s="48">
+      <c r="R86" s="47">
         <v>110</v>
       </c>
       <c r="S86" t="s">
@@ -14141,7 +14132,7 @@
       <c r="J87" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K87" s="50" t="s">
+      <c r="K87" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L87" s="42" t="s">
@@ -14153,15 +14144,15 @@
       <c r="N87" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O87" s="79" t="str">
+      <c r="O87" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="47">
+      <c r="P87" s="45"/>
+      <c r="Q87" s="46">
         <v>0</v>
       </c>
-      <c r="R87" s="48">
+      <c r="R87" s="47">
         <v>110</v>
       </c>
       <c r="S87" s="15" t="s">
@@ -14188,7 +14179,7 @@
       <c r="J88" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K88" s="50" t="s">
+      <c r="K88" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L88" s="42" t="s">
@@ -14200,15 +14191,15 @@
       <c r="N88" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O88" s="80" t="str">
+      <c r="O88" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por Procesamiento</v>
       </c>
-      <c r="P88" s="46"/>
-      <c r="Q88" s="47">
+      <c r="P88" s="45"/>
+      <c r="Q88" s="46">
         <v>0</v>
       </c>
-      <c r="R88" s="48">
+      <c r="R88" s="47">
         <v>110</v>
       </c>
       <c r="S88" s="15" t="s">
@@ -14235,7 +14226,7 @@
       <c r="J89" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="50" t="s">
+      <c r="K89" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L89" s="42" t="s">
@@ -14247,15 +14238,15 @@
       <c r="N89" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O89" s="81" t="str">
+      <c r="O89" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P89" s="46"/>
-      <c r="Q89" s="47">
+      <c r="P89" s="45"/>
+      <c r="Q89" s="46">
         <v>0</v>
       </c>
-      <c r="R89" s="48">
+      <c r="R89" s="47">
         <v>110</v>
       </c>
       <c r="S89" s="15" t="s">
@@ -14282,7 +14273,7 @@
       <c r="J90" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K90" s="50" t="s">
+      <c r="K90" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L90" s="42" t="s">
@@ -14294,15 +14285,15 @@
       <c r="N90" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O90" s="79" t="str">
+      <c r="O90" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de arándano por País de destino</v>
       </c>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="47">
+      <c r="P90" s="45"/>
+      <c r="Q90" s="46">
         <v>0</v>
       </c>
-      <c r="R90" s="48">
+      <c r="R90" s="47">
         <v>110</v>
       </c>
       <c r="S90" s="15" t="s">
@@ -14329,7 +14320,7 @@
       <c r="J91" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="50" t="s">
+      <c r="K91" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L91" s="42" t="s">
@@ -14341,15 +14332,15 @@
       <c r="N91" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O91" s="80" t="str">
+      <c r="O91" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de arándano por País de destino</v>
       </c>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="47">
+      <c r="P91" s="45"/>
+      <c r="Q91" s="46">
         <v>0</v>
       </c>
-      <c r="R91" s="48">
+      <c r="R91" s="47">
         <v>110</v>
       </c>
       <c r="S91" s="15" t="s">
@@ -14370,33 +14361,33 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="I92" s="51" t="s">
+      <c r="I92" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J92" s="52" t="s">
+      <c r="J92" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K92" s="53" t="s">
+      <c r="K92" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="L92" s="54" t="s">
+      <c r="L92" s="53" t="s">
         <v>621</v>
       </c>
-      <c r="M92" s="55" t="s">
+      <c r="M92" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N92" s="56" t="s">
+      <c r="N92" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="O92" s="81" t="str">
+      <c r="O92" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de arándano por País de destino</v>
       </c>
-      <c r="P92" s="58"/>
-      <c r="Q92" s="59">
+      <c r="P92" s="56"/>
+      <c r="Q92" s="57">
         <v>0</v>
       </c>
-      <c r="R92" s="60">
+      <c r="R92" s="58">
         <v>110</v>
       </c>
       <c r="S92" s="15" t="s">
@@ -14423,7 +14414,7 @@
       <c r="J93" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K93" s="83" t="s">
+      <c r="K93" s="80" t="s">
         <v>1033</v>
       </c>
       <c r="L93" s="42" t="s">
@@ -14435,15 +14426,15 @@
       <c r="N93" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O93" s="79" t="str">
+      <c r="O93" s="76" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por Cultivo</v>
       </c>
-      <c r="P93" s="46"/>
-      <c r="Q93" s="47">
+      <c r="P93" s="45"/>
+      <c r="Q93" s="46">
         <v>0</v>
       </c>
-      <c r="R93" s="48">
+      <c r="R93" s="47">
         <v>1</v>
       </c>
       <c r="S93" s="15" t="s">
@@ -14470,7 +14461,7 @@
       <c r="J94" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="83" t="s">
+      <c r="K94" s="80" t="s">
         <v>1033</v>
       </c>
       <c r="L94" s="42" t="s">
@@ -14482,15 +14473,15 @@
       <c r="N94" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O94" s="80" t="str">
+      <c r="O94" s="77" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por Cultivo</v>
       </c>
-      <c r="P94" s="46"/>
-      <c r="Q94" s="47">
+      <c r="P94" s="45"/>
+      <c r="Q94" s="46">
         <v>0</v>
       </c>
-      <c r="R94" s="48">
+      <c r="R94" s="47">
         <v>1</v>
       </c>
       <c r="S94" s="15" t="s">
@@ -14517,7 +14508,7 @@
       <c r="J95" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K95" s="83" t="s">
+      <c r="K95" s="80" t="s">
         <v>1033</v>
       </c>
       <c r="L95" s="42" t="s">
@@ -14529,15 +14520,15 @@
       <c r="N95" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O95" s="81" t="str">
+      <c r="O95" s="78" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por Cultivo</v>
       </c>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="47">
+      <c r="P95" s="45"/>
+      <c r="Q95" s="46">
         <v>0</v>
       </c>
-      <c r="R95" s="48">
+      <c r="R95" s="47">
         <v>1</v>
       </c>
       <c r="S95" s="15" t="s">
@@ -14558,13 +14549,13 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="I96" s="49" t="s">
+      <c r="I96" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J96" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K96" s="83" t="s">
+      <c r="K96" s="80" t="s">
         <v>1033</v>
       </c>
       <c r="L96" s="42" t="s">
@@ -14576,15 +14567,15 @@
       <c r="N96" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O96" s="79" t="str">
+      <c r="O96" s="76" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de berries por Cultivo</v>
       </c>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="47">
+      <c r="P96" s="45"/>
+      <c r="Q96" s="46">
         <v>0</v>
       </c>
-      <c r="R96" s="48">
+      <c r="R96" s="47">
         <v>7</v>
       </c>
       <c r="S96" s="15" t="s">
@@ -14605,13 +14596,13 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="I97" s="49" t="s">
+      <c r="I97" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J97" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K97" s="83" t="s">
+      <c r="K97" s="80" t="s">
         <v>1033</v>
       </c>
       <c r="L97" s="42" t="s">
@@ -14623,15 +14614,15 @@
       <c r="N97" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O97" s="80" t="str">
+      <c r="O97" s="77" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de berries por Cultivo</v>
       </c>
-      <c r="P97" s="46"/>
-      <c r="Q97" s="47">
+      <c r="P97" s="45"/>
+      <c r="Q97" s="46">
         <v>0</v>
       </c>
-      <c r="R97" s="48">
+      <c r="R97" s="47">
         <v>7</v>
       </c>
       <c r="S97" s="15" t="s">
@@ -14652,13 +14643,13 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="I98" s="49" t="s">
+      <c r="I98" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J98" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K98" s="83" t="s">
+      <c r="K98" s="80" t="s">
         <v>1033</v>
       </c>
       <c r="L98" s="42" t="s">
@@ -14670,15 +14661,15 @@
       <c r="N98" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O98" s="81" t="str">
+      <c r="O98" s="78" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de berries por Cultivo</v>
       </c>
-      <c r="P98" s="46"/>
-      <c r="Q98" s="47">
+      <c r="P98" s="45"/>
+      <c r="Q98" s="46">
         <v>0</v>
       </c>
-      <c r="R98" s="48">
+      <c r="R98" s="47">
         <v>7</v>
       </c>
       <c r="S98" s="15" t="s">
@@ -14699,7 +14690,7 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="I99" s="49" t="s">
+      <c r="I99" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J99" s="41" t="s">
@@ -14717,15 +14708,15 @@
       <c r="N99" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O99" s="79" t="str">
+      <c r="O99" s="76" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
-      <c r="P99" s="46"/>
-      <c r="Q99" s="47">
+      <c r="P99" s="45"/>
+      <c r="Q99" s="46">
         <v>0</v>
       </c>
-      <c r="R99" s="48">
+      <c r="R99" s="47">
         <v>7</v>
       </c>
       <c r="S99" s="15" t="s">
@@ -14746,7 +14737,7 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="I100" s="49" t="s">
+      <c r="I100" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J100" s="41" t="s">
@@ -14764,15 +14755,15 @@
       <c r="N100" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O100" s="80" t="str">
+      <c r="O100" s="77" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
-      <c r="P100" s="46"/>
-      <c r="Q100" s="47">
+      <c r="P100" s="45"/>
+      <c r="Q100" s="46">
         <v>0</v>
       </c>
-      <c r="R100" s="48">
+      <c r="R100" s="47">
         <v>7</v>
       </c>
       <c r="S100" s="15" t="s">
@@ -14793,7 +14784,7 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I101" s="49" t="s">
+      <c r="I101" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J101" s="41" t="s">
@@ -14811,15 +14802,15 @@
       <c r="N101" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O101" s="81" t="str">
+      <c r="O101" s="78" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de Berries por Cultivo y Tipo (Orgánico/No orgánico) - CULTIVO</v>
       </c>
-      <c r="P101" s="46"/>
-      <c r="Q101" s="47">
+      <c r="P101" s="45"/>
+      <c r="Q101" s="46">
         <v>0</v>
       </c>
-      <c r="R101" s="48">
+      <c r="R101" s="47">
         <v>7</v>
       </c>
       <c r="S101" s="15" t="s">
@@ -14840,7 +14831,7 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="I102" s="49" t="s">
+      <c r="I102" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J102" s="41" t="s">
@@ -14858,15 +14849,15 @@
       <c r="N102" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O102" s="79" t="str">
+      <c r="O102" s="76" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
-      <c r="P102" s="46"/>
-      <c r="Q102" s="47">
+      <c r="P102" s="45"/>
+      <c r="Q102" s="46">
         <v>0</v>
       </c>
-      <c r="R102" s="48">
+      <c r="R102" s="47">
         <v>7</v>
       </c>
       <c r="S102" s="15" t="s">
@@ -14887,7 +14878,7 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="I103" s="49" t="s">
+      <c r="I103" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J103" s="41" t="s">
@@ -14905,15 +14896,15 @@
       <c r="N103" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O103" s="80" t="str">
+      <c r="O103" s="77" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
-      <c r="P103" s="46"/>
-      <c r="Q103" s="47">
+      <c r="P103" s="45"/>
+      <c r="Q103" s="46">
         <v>0</v>
       </c>
-      <c r="R103" s="48">
+      <c r="R103" s="47">
         <v>7</v>
       </c>
       <c r="S103" s="15" t="s">
@@ -14934,7 +14925,7 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="I104" s="49" t="s">
+      <c r="I104" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J104" s="41" t="s">
@@ -14952,15 +14943,15 @@
       <c r="N104" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O104" s="81" t="str">
+      <c r="O104" s="78" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento - CULTIVO</v>
       </c>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="47">
+      <c r="P104" s="45"/>
+      <c r="Q104" s="46">
         <v>0</v>
       </c>
-      <c r="R104" s="48">
+      <c r="R104" s="47">
         <v>7</v>
       </c>
       <c r="S104" s="15" t="s">
@@ -14981,7 +14972,7 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="I105" s="49" t="s">
+      <c r="I105" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J105" s="41" t="s">
@@ -14999,15 +14990,15 @@
       <c r="N105" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O105" s="79" t="str">
+      <c r="O105" s="76" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P105" s="46"/>
-      <c r="Q105" s="47">
+      <c r="P105" s="45"/>
+      <c r="Q105" s="46">
         <v>0</v>
       </c>
-      <c r="R105" s="48">
+      <c r="R105" s="47">
         <v>7</v>
       </c>
       <c r="S105" s="15" t="s">
@@ -15028,7 +15019,7 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="I106" s="49" t="s">
+      <c r="I106" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J106" s="41" t="s">
@@ -15046,15 +15037,15 @@
       <c r="N106" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O106" s="80" t="str">
+      <c r="O106" s="77" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P106" s="46"/>
-      <c r="Q106" s="47">
+      <c r="P106" s="45"/>
+      <c r="Q106" s="46">
         <v>0</v>
       </c>
-      <c r="R106" s="48">
+      <c r="R106" s="47">
         <v>7</v>
       </c>
       <c r="S106" s="15" t="s">
@@ -15075,7 +15066,7 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="I107" s="49" t="s">
+      <c r="I107" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J107" s="41" t="s">
@@ -15093,15 +15084,15 @@
       <c r="N107" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O107" s="81" t="str">
+      <c r="O107" s="78" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="47">
+      <c r="P107" s="45"/>
+      <c r="Q107" s="46">
         <v>0</v>
       </c>
-      <c r="R107" s="48">
+      <c r="R107" s="47">
         <v>7</v>
       </c>
       <c r="S107" s="15" t="s">
@@ -15140,15 +15131,15 @@
       <c r="N108" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O108" s="79" t="str">
+      <c r="O108" s="76" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P108" s="46"/>
-      <c r="Q108" s="47">
+      <c r="P108" s="45"/>
+      <c r="Q108" s="46">
         <v>0</v>
       </c>
-      <c r="R108" s="48">
+      <c r="R108" s="47">
         <v>110</v>
       </c>
       <c r="S108" s="15" t="s">
@@ -15187,15 +15178,15 @@
       <c r="N109" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O109" s="80" t="str">
+      <c r="O109" s="77" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P109" s="46"/>
-      <c r="Q109" s="47">
+      <c r="P109" s="45"/>
+      <c r="Q109" s="46">
         <v>0</v>
       </c>
-      <c r="R109" s="48">
+      <c r="R109" s="47">
         <v>110</v>
       </c>
       <c r="S109" s="15" t="s">
@@ -15234,15 +15225,15 @@
       <c r="N110" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O110" s="81" t="str">
+      <c r="O110" s="78" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="47">
+      <c r="P110" s="45"/>
+      <c r="Q110" s="46">
         <v>0</v>
       </c>
-      <c r="R110" s="48">
+      <c r="R110" s="47">
         <v>110</v>
       </c>
       <c r="S110" s="15" t="s">
@@ -15269,7 +15260,7 @@
       <c r="J111" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K111" s="50" t="s">
+      <c r="K111" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L111" s="42" t="s">
@@ -15281,15 +15272,15 @@
       <c r="N111" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O111" s="79" t="str">
+      <c r="O111" s="76" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por Año</v>
       </c>
-      <c r="P111" s="46"/>
-      <c r="Q111" s="47">
+      <c r="P111" s="45"/>
+      <c r="Q111" s="46">
         <v>0</v>
       </c>
-      <c r="R111" s="48">
+      <c r="R111" s="47">
         <v>110</v>
       </c>
       <c r="S111" s="15" t="s">
@@ -15316,7 +15307,7 @@
       <c r="J112" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K112" s="50" t="s">
+      <c r="K112" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L112" s="42" t="s">
@@ -15328,15 +15319,15 @@
       <c r="N112" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O112" s="80" t="str">
+      <c r="O112" s="77" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por Año</v>
       </c>
-      <c r="P112" s="46"/>
-      <c r="Q112" s="47">
+      <c r="P112" s="45"/>
+      <c r="Q112" s="46">
         <v>0</v>
       </c>
-      <c r="R112" s="48">
+      <c r="R112" s="47">
         <v>110</v>
       </c>
       <c r="S112" s="15" t="s">
@@ -15363,7 +15354,7 @@
       <c r="J113" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K113" s="50" t="s">
+      <c r="K113" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L113" s="42" t="s">
@@ -15375,15 +15366,15 @@
       <c r="N113" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O113" s="81" t="str">
+      <c r="O113" s="78" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por Año</v>
       </c>
-      <c r="P113" s="46"/>
-      <c r="Q113" s="47">
+      <c r="P113" s="45"/>
+      <c r="Q113" s="46">
         <v>0</v>
       </c>
-      <c r="R113" s="48">
+      <c r="R113" s="47">
         <v>110</v>
       </c>
       <c r="S113" s="15" t="s">
@@ -15410,7 +15401,7 @@
       <c r="J114" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K114" s="50" t="s">
+      <c r="K114" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L114" s="42" t="s">
@@ -15422,15 +15413,15 @@
       <c r="N114" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O114" s="79" t="str">
+      <c r="O114" s="76" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P114" s="46"/>
-      <c r="Q114" s="47">
+      <c r="P114" s="45"/>
+      <c r="Q114" s="46">
         <v>0</v>
       </c>
-      <c r="R114" s="48">
+      <c r="R114" s="47">
         <v>110</v>
       </c>
       <c r="S114" s="15" t="s">
@@ -15457,7 +15448,7 @@
       <c r="J115" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K115" s="50" t="s">
+      <c r="K115" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L115" s="42" t="s">
@@ -15469,15 +15460,15 @@
       <c r="N115" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O115" s="80" t="str">
+      <c r="O115" s="77" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por Procesamiento</v>
       </c>
-      <c r="P115" s="46"/>
-      <c r="Q115" s="47">
+      <c r="P115" s="45"/>
+      <c r="Q115" s="46">
         <v>0</v>
       </c>
-      <c r="R115" s="48">
+      <c r="R115" s="47">
         <v>110</v>
       </c>
       <c r="S115" s="15" t="s">
@@ -15504,7 +15495,7 @@
       <c r="J116" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K116" s="50" t="s">
+      <c r="K116" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L116" s="42" t="s">
@@ -15516,15 +15507,15 @@
       <c r="N116" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O116" s="81" t="str">
+      <c r="O116" s="78" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P116" s="46"/>
-      <c r="Q116" s="47">
+      <c r="P116" s="45"/>
+      <c r="Q116" s="46">
         <v>0</v>
       </c>
-      <c r="R116" s="48">
+      <c r="R116" s="47">
         <v>110</v>
       </c>
       <c r="S116" s="15" t="s">
@@ -15551,7 +15542,7 @@
       <c r="J117" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K117" s="50" t="s">
+      <c r="K117" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L117" s="42" t="s">
@@ -15563,15 +15554,15 @@
       <c r="N117" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O117" s="79" t="str">
+      <c r="O117" s="76" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en Kg de arándano por País de destino</v>
       </c>
-      <c r="P117" s="46"/>
-      <c r="Q117" s="47">
+      <c r="P117" s="45"/>
+      <c r="Q117" s="46">
         <v>0</v>
       </c>
-      <c r="R117" s="48">
+      <c r="R117" s="47">
         <v>110</v>
       </c>
       <c r="S117" s="15" t="s">
@@ -15598,7 +15589,7 @@
       <c r="J118" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K118" s="50" t="s">
+      <c r="K118" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L118" s="42" t="s">
@@ -15610,15 +15601,15 @@
       <c r="N118" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="O118" s="80" t="str">
+      <c r="O118" s="77" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD de arándano por País de destino</v>
       </c>
-      <c r="P118" s="46"/>
-      <c r="Q118" s="47">
+      <c r="P118" s="45"/>
+      <c r="Q118" s="46">
         <v>0</v>
       </c>
-      <c r="R118" s="48">
+      <c r="R118" s="47">
         <v>110</v>
       </c>
       <c r="S118" s="15" t="s">
@@ -15639,33 +15630,33 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="I119" s="51" t="s">
+      <c r="I119" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J119" s="52" t="s">
+      <c r="J119" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K119" s="53" t="s">
+      <c r="K119" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="L119" s="54" t="s">
+      <c r="L119" s="53" t="s">
         <v>621</v>
       </c>
-      <c r="M119" s="55" t="s">
+      <c r="M119" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N119" s="56" t="s">
+      <c r="N119" s="55" t="s">
         <v>935</v>
       </c>
-      <c r="O119" s="81" t="str">
+      <c r="O119" s="78" t="str">
         <f>"Comparativo mensual últimos dos años de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual últimos dos años de Exportaciones en USD/Kg de arándano por País de destino</v>
       </c>
-      <c r="P119" s="58"/>
-      <c r="Q119" s="59">
+      <c r="P119" s="56"/>
+      <c r="Q119" s="57">
         <v>0</v>
       </c>
-      <c r="R119" s="60">
+      <c r="R119" s="58">
         <v>110</v>
       </c>
       <c r="S119" s="15" t="s">
@@ -15686,7 +15677,7 @@
         <f t="shared" ref="H120:H146" si="2">+ROW()-11</f>
         <v>109</v>
       </c>
-      <c r="I120" s="49" t="s">
+      <c r="I120" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J120" s="41" t="s">
@@ -15704,15 +15695,15 @@
       <c r="N120" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O120" s="45" t="str">
+      <c r="O120" s="76" t="str">
         <f>"Volumen mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Volumen mensual de Exportaciones en Kg de arándano por Cultivo</v>
       </c>
-      <c r="P120" s="46"/>
-      <c r="Q120" s="47">
+      <c r="P120" s="45"/>
+      <c r="Q120" s="46">
         <v>0</v>
       </c>
-      <c r="R120" s="48">
+      <c r="R120" s="47">
         <v>1</v>
       </c>
       <c r="S120" s="15" t="s">
@@ -15733,7 +15724,7 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="I121" s="49" t="s">
+      <c r="I121" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J121" s="41" t="s">
@@ -15751,15 +15742,15 @@
       <c r="N121" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O121" s="45" t="str">
+      <c r="O121" s="77" t="str">
         <f>"Valor mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Valor mensual de Exportaciones en USD de arándano por Cultivo</v>
       </c>
-      <c r="P121" s="46"/>
-      <c r="Q121" s="47">
+      <c r="P121" s="45"/>
+      <c r="Q121" s="46">
         <v>0</v>
       </c>
-      <c r="R121" s="48">
+      <c r="R121" s="47">
         <v>1</v>
       </c>
       <c r="S121" s="15" t="s">
@@ -15780,7 +15771,7 @@
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="I122" s="49" t="s">
+      <c r="I122" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J122" s="41" t="s">
@@ -15798,15 +15789,15 @@
       <c r="N122" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O122" s="45" t="str">
+      <c r="O122" s="78" t="str">
         <f>"Precio mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Precio mensual de Exportaciones en USD/Kg de arándano por Cultivo</v>
       </c>
-      <c r="P122" s="46"/>
-      <c r="Q122" s="47">
+      <c r="P122" s="45"/>
+      <c r="Q122" s="46">
         <v>0</v>
       </c>
-      <c r="R122" s="48">
+      <c r="R122" s="47">
         <v>1</v>
       </c>
       <c r="S122" s="15" t="s">
@@ -15827,7 +15818,7 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="I123" s="49" t="s">
+      <c r="I123" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J123" s="41" t="s">
@@ -15845,15 +15836,15 @@
       <c r="N123" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O123" s="45" t="str">
+      <c r="O123" s="76" t="str">
         <f>"Volumen mensual de "&amp;B2&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Volumen mensual de Exportaciones en Kg de berries por Cultivo</v>
       </c>
-      <c r="P123" s="46"/>
-      <c r="Q123" s="47">
+      <c r="P123" s="45"/>
+      <c r="Q123" s="46">
         <v>0</v>
       </c>
-      <c r="R123" s="48">
+      <c r="R123" s="47">
         <v>7</v>
       </c>
       <c r="S123" s="15" t="s">
@@ -15874,7 +15865,7 @@
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="I124" s="49" t="s">
+      <c r="I124" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J124" s="41" t="s">
@@ -15892,15 +15883,15 @@
       <c r="N124" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O124" s="45" t="str">
+      <c r="O124" s="77" t="str">
         <f>"Valor mensual de "&amp;B3&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Valor mensual de Exportaciones en USD de berries por Cultivo</v>
       </c>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="47">
+      <c r="P124" s="45"/>
+      <c r="Q124" s="46">
         <v>0</v>
       </c>
-      <c r="R124" s="48">
+      <c r="R124" s="47">
         <v>7</v>
       </c>
       <c r="S124" s="15" t="s">
@@ -15921,7 +15912,7 @@
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="I125" s="49" t="s">
+      <c r="I125" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J125" s="41" t="s">
@@ -15939,15 +15930,15 @@
       <c r="N125" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O125" s="45" t="str">
+      <c r="O125" s="78" t="str">
         <f>"Precio mensual de "&amp;B4&amp;""&amp;" de berries por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Precio mensual de Exportaciones en USD/Kg de berries por Cultivo</v>
       </c>
-      <c r="P125" s="46"/>
-      <c r="Q125" s="47">
+      <c r="P125" s="45"/>
+      <c r="Q125" s="46">
         <v>0</v>
       </c>
-      <c r="R125" s="48">
+      <c r="R125" s="47">
         <v>7</v>
       </c>
       <c r="S125" s="15" t="s">
@@ -15968,7 +15959,7 @@
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="I126" s="49" t="s">
+      <c r="I126" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J126" s="41" t="s">
@@ -15986,15 +15977,15 @@
       <c r="N126" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O126" s="45" t="str">
+      <c r="O126" s="76" t="str">
         <f>"Volumen mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Volumen mensual de Exportaciones en Kg de Berries por Cultivo y Procesamiento</v>
       </c>
-      <c r="P126" s="46"/>
-      <c r="Q126" s="47">
+      <c r="P126" s="45"/>
+      <c r="Q126" s="46">
         <v>0</v>
       </c>
-      <c r="R126" s="48">
+      <c r="R126" s="47">
         <v>7</v>
       </c>
       <c r="S126" s="15" t="s">
@@ -16015,7 +16006,7 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="I127" s="49" t="s">
+      <c r="I127" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J127" s="41" t="s">
@@ -16033,15 +16024,15 @@
       <c r="N127" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O127" s="45" t="str">
+      <c r="O127" s="77" t="str">
         <f>"Valor mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Valor mensual de Exportaciones en USD de Berries por Cultivo y Procesamiento</v>
       </c>
-      <c r="P127" s="46"/>
-      <c r="Q127" s="47">
+      <c r="P127" s="45"/>
+      <c r="Q127" s="46">
         <v>0</v>
       </c>
-      <c r="R127" s="48">
+      <c r="R127" s="47">
         <v>7</v>
       </c>
       <c r="S127" s="15" t="s">
@@ -16062,7 +16053,7 @@
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="I128" s="49" t="s">
+      <c r="I128" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J128" s="41" t="s">
@@ -16080,15 +16071,15 @@
       <c r="N128" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O128" s="45" t="str">
+      <c r="O128" s="78" t="str">
         <f>"Precio mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Precio mensual de Exportaciones en USD/Kg de Berries por Cultivo y Procesamiento</v>
       </c>
-      <c r="P128" s="46"/>
-      <c r="Q128" s="47">
+      <c r="P128" s="45"/>
+      <c r="Q128" s="46">
         <v>0</v>
       </c>
-      <c r="R128" s="48">
+      <c r="R128" s="47">
         <v>7</v>
       </c>
       <c r="S128" s="15" t="s">
@@ -16109,7 +16100,7 @@
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="I129" s="49" t="s">
+      <c r="I129" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J129" s="41" t="s">
@@ -16127,15 +16118,15 @@
       <c r="N129" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O129" s="45" t="str">
+      <c r="O129" s="76" t="str">
         <f>"Volumen mensual de "&amp;B2&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Volumen mensual de Exportaciones en Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P129" s="46"/>
-      <c r="Q129" s="47">
+      <c r="P129" s="45"/>
+      <c r="Q129" s="46">
         <v>0</v>
       </c>
-      <c r="R129" s="48">
+      <c r="R129" s="47">
         <v>7</v>
       </c>
       <c r="S129" s="15" t="s">
@@ -16156,7 +16147,7 @@
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="I130" s="49" t="s">
+      <c r="I130" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J130" s="41" t="s">
@@ -16174,15 +16165,15 @@
       <c r="N130" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O130" s="45" t="str">
+      <c r="O130" s="77" t="str">
         <f>"Valor mensual de "&amp;B3&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Valor mensual de Exportaciones en USD de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P130" s="46"/>
-      <c r="Q130" s="47">
+      <c r="P130" s="45"/>
+      <c r="Q130" s="46">
         <v>0</v>
       </c>
-      <c r="R130" s="48">
+      <c r="R130" s="47">
         <v>7</v>
       </c>
       <c r="S130" s="15" t="s">
@@ -16203,7 +16194,7 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="I131" s="49" t="s">
+      <c r="I131" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J131" s="41" t="s">
@@ -16221,15 +16212,15 @@
       <c r="N131" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O131" s="45" t="str">
+      <c r="O131" s="78" t="str">
         <f>"Precio mensual de "&amp;B4&amp;""&amp;" de Berries por "&amp;Tabla1[[#This Row],[Variable]]&amp;" y "&amp;Tabla1[[#This Row],[Filtro Int]]</f>
         <v>Precio mensual de Exportaciones en USD/Kg de Berries por Cultivo y País de Destino</v>
       </c>
-      <c r="P131" s="46"/>
-      <c r="Q131" s="47">
+      <c r="P131" s="45"/>
+      <c r="Q131" s="46">
         <v>0</v>
       </c>
-      <c r="R131" s="48">
+      <c r="R131" s="47">
         <v>7</v>
       </c>
       <c r="S131" s="15" t="s">
@@ -16250,7 +16241,7 @@
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="I132" s="49" t="s">
+      <c r="I132" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J132" s="41" t="s">
@@ -16268,15 +16259,15 @@
       <c r="N132" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O132" s="45" t="str">
+      <c r="O132" s="76" t="str">
         <f>"Volumen mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Volumen mensual de Exportaciones en Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P132" s="46"/>
-      <c r="Q132" s="47">
+      <c r="P132" s="45"/>
+      <c r="Q132" s="46">
         <v>0</v>
       </c>
-      <c r="R132" s="48">
+      <c r="R132" s="47">
         <v>110</v>
       </c>
       <c r="S132" s="15" t="s">
@@ -16297,7 +16288,7 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="I133" s="49" t="s">
+      <c r="I133" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J133" s="41" t="s">
@@ -16315,15 +16306,15 @@
       <c r="N133" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O133" s="45" t="str">
+      <c r="O133" s="77" t="str">
         <f>"Valor mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Valor mensual de Exportaciones en USD de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P133" s="46"/>
-      <c r="Q133" s="47">
+      <c r="P133" s="45"/>
+      <c r="Q133" s="46">
         <v>0</v>
       </c>
-      <c r="R133" s="48">
+      <c r="R133" s="47">
         <v>110</v>
       </c>
       <c r="S133" s="15" t="s">
@@ -16344,7 +16335,7 @@
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="I134" s="49" t="s">
+      <c r="I134" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J134" s="41" t="s">
@@ -16362,15 +16353,15 @@
       <c r="N134" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O134" s="45" t="str">
+      <c r="O134" s="78" t="str">
         <f>"Precio mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Precio mensual de Exportaciones en USD/Kg de arándano por Tipo (Orgánico/No orgánico)</v>
       </c>
-      <c r="P134" s="46"/>
-      <c r="Q134" s="47">
+      <c r="P134" s="45"/>
+      <c r="Q134" s="46">
         <v>0</v>
       </c>
-      <c r="R134" s="48">
+      <c r="R134" s="47">
         <v>110</v>
       </c>
       <c r="S134" s="15" t="s">
@@ -16391,13 +16382,13 @@
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="I135" s="49" t="s">
+      <c r="I135" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J135" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K135" s="50" t="s">
+      <c r="K135" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L135" s="42" t="s">
@@ -16409,15 +16400,15 @@
       <c r="N135" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O135" s="45" t="str">
+      <c r="O135" s="76" t="str">
         <f>"Volumen mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Volumen mensual de Exportaciones en Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P135" s="46"/>
-      <c r="Q135" s="47">
+      <c r="P135" s="45"/>
+      <c r="Q135" s="46">
         <v>0</v>
       </c>
-      <c r="R135" s="48">
+      <c r="R135" s="47">
         <v>110</v>
       </c>
       <c r="S135" s="15" t="s">
@@ -16438,13 +16429,13 @@
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I136" s="49" t="s">
+      <c r="I136" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J136" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K136" s="50" t="s">
+      <c r="K136" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L136" s="42" t="s">
@@ -16456,15 +16447,15 @@
       <c r="N136" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O136" s="45" t="str">
+      <c r="O136" s="77" t="str">
         <f>"Valor mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Valor mensual de Exportaciones en USD de arándano por Procesamiento</v>
       </c>
-      <c r="P136" s="46"/>
-      <c r="Q136" s="47">
+      <c r="P136" s="45"/>
+      <c r="Q136" s="46">
         <v>0</v>
       </c>
-      <c r="R136" s="48">
+      <c r="R136" s="47">
         <v>110</v>
       </c>
       <c r="S136" s="15" t="s">
@@ -16485,13 +16476,13 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="I137" s="49" t="s">
+      <c r="I137" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J137" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K137" s="50" t="s">
+      <c r="K137" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L137" s="42" t="s">
@@ -16503,15 +16494,15 @@
       <c r="N137" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O137" s="45" t="str">
+      <c r="O137" s="78" t="str">
         <f>"Precio mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Precio mensual de Exportaciones en USD/Kg de arándano por Procesamiento</v>
       </c>
-      <c r="P137" s="46"/>
-      <c r="Q137" s="47">
+      <c r="P137" s="45"/>
+      <c r="Q137" s="46">
         <v>0</v>
       </c>
-      <c r="R137" s="48">
+      <c r="R137" s="47">
         <v>110</v>
       </c>
       <c r="S137" s="15" t="s">
@@ -16532,13 +16523,13 @@
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="I138" s="49" t="s">
+      <c r="I138" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J138" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K138" s="50" t="s">
+      <c r="K138" s="49" t="s">
         <v>180</v>
       </c>
       <c r="L138" s="42" t="s">
@@ -16550,15 +16541,15 @@
       <c r="N138" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="O138" s="45" t="str">
+      <c r="O138" s="76" t="str">
         <f>"Volumen mensual de "&amp;B2&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Volumen mensual de Exportaciones en Kg de arándano por País de destino</v>
       </c>
-      <c r="P138" s="46"/>
-      <c r="Q138" s="47">
+      <c r="P138" s="45"/>
+      <c r="Q138" s="46">
         <v>0</v>
       </c>
-      <c r="R138" s="48">
+      <c r="R138" s="47">
         <v>110</v>
       </c>
       <c r="S138" s="15" t="s">
@@ -16572,40 +16563,40 @@
       </c>
     </row>
     <row r="139" spans="7:23" x14ac:dyDescent="0.25">
-      <c r="G139" s="78" t="s">
+      <c r="G139" s="75" t="s">
         <v>970</v>
       </c>
-      <c r="H139" s="68">
+      <c r="H139" s="66">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="I139" s="61" t="s">
+      <c r="I139" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J139" s="62" t="s">
+      <c r="J139" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K139" s="69" t="s">
+      <c r="K139" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="L139" s="70" t="s">
+      <c r="L139" s="68" t="s">
         <v>621</v>
       </c>
-      <c r="M139" s="71" t="s">
+      <c r="M139" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="N139" s="72" t="s">
+      <c r="N139" s="70" t="s">
         <v>950</v>
       </c>
-      <c r="O139" s="73" t="str">
+      <c r="O139" s="77" t="str">
         <f>"Valor mensual de "&amp;B3&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Valor mensual de Exportaciones en USD de arándano por País de destino</v>
       </c>
-      <c r="P139" s="74"/>
-      <c r="Q139" s="75">
+      <c r="P139" s="71"/>
+      <c r="Q139" s="72">
         <v>0</v>
       </c>
-      <c r="R139" s="76">
+      <c r="R139" s="73">
         <v>110</v>
       </c>
       <c r="S139" s="15" t="s">
@@ -16626,40 +16617,40 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="I140" s="67" t="s">
+      <c r="I140" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="J140" s="52" t="s">
+      <c r="J140" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K140" s="53" t="s">
+      <c r="K140" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="L140" s="54" t="s">
+      <c r="L140" s="53" t="s">
         <v>621</v>
       </c>
-      <c r="M140" s="55" t="s">
+      <c r="M140" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N140" s="56" t="s">
+      <c r="N140" s="55" t="s">
         <v>950</v>
       </c>
-      <c r="O140" s="57" t="str">
+      <c r="O140" s="78" t="str">
         <f>"Precio mensual de "&amp;B4&amp;""&amp;" de arándano por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Precio mensual de Exportaciones en USD/Kg de arándano por País de destino</v>
       </c>
-      <c r="P140" s="58"/>
-      <c r="Q140" s="59">
+      <c r="P140" s="56"/>
+      <c r="Q140" s="57">
         <v>0</v>
       </c>
-      <c r="R140" s="60">
+      <c r="R140" s="58">
         <v>110</v>
       </c>
-      <c r="S140" s="84" t="s">
+      <c r="S140" s="81" t="s">
         <v>1107</v>
       </c>
-      <c r="T140" s="77"/>
-      <c r="U140" s="77"/>
+      <c r="T140" s="74"/>
+      <c r="U140" s="74"/>
       <c r="V140" t="s">
         <v>949</v>
       </c>
@@ -16675,13 +16666,13 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="I141" s="49" t="s">
+      <c r="I141" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J141" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K141" s="83" t="s">
+      <c r="K141" s="80" t="s">
         <v>1108</v>
       </c>
       <c r="L141" s="42" t="s">
@@ -16693,22 +16684,22 @@
       <c r="N141" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O141" s="45" t="str">
+      <c r="O141" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de congelados por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de congelados por Tipo de Cultivo</v>
       </c>
-      <c r="P141" s="46"/>
-      <c r="Q141" s="47">
+      <c r="P141" s="45"/>
+      <c r="Q141" s="46">
         <v>0</v>
       </c>
-      <c r="R141" s="48">
+      <c r="R141" s="47">
         <v>6</v>
       </c>
-      <c r="S141" s="84" t="s">
+      <c r="S141" s="81" t="s">
         <v>1109</v>
       </c>
-      <c r="T141" s="77"/>
-      <c r="U141" s="77"/>
+      <c r="T141" s="74"/>
+      <c r="U141" s="74"/>
       <c r="V141" t="s">
         <v>949</v>
       </c>
@@ -16720,17 +16711,17 @@
       <c r="G142" s="20" t="s">
         <v>973</v>
       </c>
-      <c r="H142" s="68">
+      <c r="H142" s="66">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="I142" s="49" t="s">
+      <c r="I142" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J142" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K142" s="83" t="s">
+      <c r="K142" s="80" t="s">
         <v>1108</v>
       </c>
       <c r="L142" s="42" t="s">
@@ -16742,22 +16733,22 @@
       <c r="N142" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O142" s="45" t="str">
+      <c r="O142" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de congelados por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de congelados por Tipo de Cultivo</v>
       </c>
-      <c r="P142" s="46"/>
-      <c r="Q142" s="47">
+      <c r="P142" s="45"/>
+      <c r="Q142" s="46">
         <v>0</v>
       </c>
-      <c r="R142" s="48">
+      <c r="R142" s="47">
         <v>6</v>
       </c>
-      <c r="S142" s="84" t="s">
+      <c r="S142" s="81" t="s">
         <v>1110</v>
       </c>
-      <c r="T142" s="77"/>
-      <c r="U142" s="77"/>
+      <c r="T142" s="74"/>
+      <c r="U142" s="74"/>
       <c r="V142" t="s">
         <v>949</v>
       </c>
@@ -16773,13 +16764,13 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="I143" s="49" t="s">
+      <c r="I143" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J143" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K143" s="83" t="s">
+      <c r="K143" s="80" t="s">
         <v>1108</v>
       </c>
       <c r="L143" s="42" t="s">
@@ -16791,22 +16782,22 @@
       <c r="N143" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O143" s="45" t="str">
+      <c r="O143" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de congelados por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de congelados por Tipo de Cultivo</v>
       </c>
-      <c r="P143" s="46"/>
-      <c r="Q143" s="47">
+      <c r="P143" s="45"/>
+      <c r="Q143" s="46">
         <v>0</v>
       </c>
-      <c r="R143" s="48">
+      <c r="R143" s="47">
         <v>6</v>
       </c>
-      <c r="S143" s="84" t="s">
+      <c r="S143" s="81" t="s">
         <v>1111</v>
       </c>
-      <c r="T143" s="77"/>
-      <c r="U143" s="77"/>
+      <c r="T143" s="74"/>
+      <c r="U143" s="74"/>
       <c r="V143" t="s">
         <v>949</v>
       </c>
@@ -16818,11 +16809,11 @@
       <c r="G144" s="20" t="s">
         <v>975</v>
       </c>
-      <c r="H144" s="68">
+      <c r="H144" s="66">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="I144" s="49" t="s">
+      <c r="I144" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J144" s="41" t="s">
@@ -16840,22 +16831,22 @@
       <c r="N144" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O144" s="45" t="str">
+      <c r="O144" s="76" t="str">
         <f>"Comparativo mensual de "&amp;B2&amp;""&amp;" de congelados por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en Kg de congelados por Cultivo</v>
       </c>
-      <c r="P144" s="46"/>
-      <c r="Q144" s="47">
+      <c r="P144" s="45"/>
+      <c r="Q144" s="46">
         <v>0</v>
       </c>
-      <c r="R144" s="48">
+      <c r="R144" s="47">
         <v>6</v>
       </c>
-      <c r="S144" s="84" t="s">
+      <c r="S144" s="81" t="s">
         <v>1112</v>
       </c>
-      <c r="T144" s="77"/>
-      <c r="U144" s="77"/>
+      <c r="T144" s="74"/>
+      <c r="U144" s="74"/>
       <c r="V144" t="s">
         <v>949</v>
       </c>
@@ -16871,7 +16862,7 @@
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="I145" s="49" t="s">
+      <c r="I145" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J145" s="41" t="s">
@@ -16889,22 +16880,22 @@
       <c r="N145" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O145" s="45" t="str">
+      <c r="O145" s="77" t="str">
         <f>"Comparativo mensual de "&amp;B3&amp;""&amp;" de congelados por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD de congelados por Cultivo</v>
       </c>
-      <c r="P145" s="46"/>
-      <c r="Q145" s="47">
+      <c r="P145" s="45"/>
+      <c r="Q145" s="46">
         <v>0</v>
       </c>
-      <c r="R145" s="48">
+      <c r="R145" s="47">
         <v>6</v>
       </c>
-      <c r="S145" s="84" t="s">
+      <c r="S145" s="81" t="s">
         <v>1113</v>
       </c>
-      <c r="T145" s="77"/>
-      <c r="U145" s="77"/>
+      <c r="T145" s="74"/>
+      <c r="U145" s="74"/>
       <c r="V145" t="s">
         <v>949</v>
       </c>
@@ -16920,40 +16911,40 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="I146" s="67" t="s">
+      <c r="I146" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="J146" s="52" t="s">
+      <c r="J146" s="51" t="s">
         <v>4</v>
       </c>
       <c r="K146" s="41" t="s">
         <v>1115</v>
       </c>
-      <c r="L146" s="54" t="s">
+      <c r="L146" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="M146" s="55" t="s">
+      <c r="M146" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="N146" s="56" t="s">
+      <c r="N146" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="O146" s="57" t="str">
+      <c r="O146" s="78" t="str">
         <f>"Comparativo mensual de "&amp;B4&amp;""&amp;" de congelados por "&amp;Tabla1[[#This Row],[Variable]]</f>
         <v>Comparativo mensual de Exportaciones en USD/Kg de congelados por Cultivo</v>
       </c>
-      <c r="P146" s="58"/>
-      <c r="Q146" s="59">
+      <c r="P146" s="56"/>
+      <c r="Q146" s="57">
         <v>0</v>
       </c>
-      <c r="R146" s="60">
+      <c r="R146" s="58">
         <v>6</v>
       </c>
-      <c r="S146" s="84" t="s">
+      <c r="S146" s="81" t="s">
         <v>1114</v>
       </c>
-      <c r="T146" s="77"/>
-      <c r="U146" s="77"/>
+      <c r="T146" s="74"/>
+      <c r="U146" s="74"/>
       <c r="V146" t="s">
         <v>949</v>
       </c>
@@ -23507,7 +23498,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C111">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -23743,10 +23734,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>624</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>628</v>
       </c>
     </row>
